--- a/tests/indicators/s-z/Slope/Slope.Calc.xlsx
+++ b/tests/indicators/s-z/Slope/Slope.Calc.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A71F70F-E282-4BEB-B633-3EC405C394AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C129C2D-E6CF-41BA-B5E2-C6BA967B574D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,11 +12,21 @@
     <sheet name="Slope &amp; Linear Regression" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -57,6 +67,9 @@
   <si>
     <t>stdev</t>
   </si>
+  <si>
+    <t>i</t>
+  </si>
 </sst>
 </file>
 
@@ -66,9 +79,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -580,26 +593,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -670,7 +683,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -690,7 +703,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -710,7 +723,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -730,7 +743,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -789,7 +802,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -809,7 +822,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -829,7 +842,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -849,7 +862,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -869,7 +882,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -889,7 +902,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1267,64 +1280,64 @@
                 <c:formatCode>_("$"* #,##0.0000_);_("$"* \(#,##0.0000\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>267.90685714285701</c:v>
+                  <c:v>267.90685714285712</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>266.21771428571424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>264.52857142857135</c:v>
+                  <c:v>264.52857142857147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262.83942857142847</c:v>
+                  <c:v>262.83942857142858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>261.15028571428559</c:v>
+                  <c:v>261.1502857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>259.46114285714282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>257.77199999999993</c:v>
+                  <c:v>257.77200000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.08285714285705</c:v>
+                  <c:v>256.08285714285716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.39371428571417</c:v>
+                  <c:v>254.39371428571428</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>252.70457142857128</c:v>
+                  <c:v>252.7045714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>251.01542857142852</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>249.32628571428563</c:v>
+                  <c:v>249.32628571428575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>247.63714285714275</c:v>
+                  <c:v>247.63714285714286</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>245.94799999999987</c:v>
+                  <c:v>245.94799999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>244.2588571428571</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>242.56971428571421</c:v>
+                  <c:v>242.56971428571433</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>240.88057142857133</c:v>
+                  <c:v>240.88057142857144</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>239.19142857142845</c:v>
+                  <c:v>239.19142857142856</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>237.50228571428568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>235.81314285714279</c:v>
+                  <c:v>235.81314285714291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,7 +2359,7 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="14" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="13"/>
     <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="12" dataCellStyle="Currency"/>
     <tableColumn id="11" xr3:uid="{A8B6046E-E7E2-4751-AFF9-553CE9F0B930}" name="m" dataDxfId="11" dataCellStyle="Comma">
@@ -2358,7 +2371,7 @@
     <tableColumn id="13" xr3:uid="{CD697186-4898-4F14-9390-4C8565E5B524}" name="r2" dataDxfId="9" dataCellStyle="Comma"/>
     <tableColumn id="10" xr3:uid="{AE9376FD-A6B7-4344-90CF-C49B6E3A116E}" name="stdev" dataDxfId="8" dataCellStyle="Comma"/>
     <tableColumn id="17" xr3:uid="{E4613AAE-58CE-4FDF-87C9-DF6543DF02E9}" name="line" dataDxfId="7" dataCellStyle="Currency">
-      <calculatedColumnFormula>$D2*testdata[[#This Row],[index]]+$E2</calculatedColumnFormula>
+      <calculatedColumnFormula>$D2*testdata[[#This Row],[i]]+$E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2678,12 +2691,12 @@
   <dimension ref="A1:N503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
@@ -2700,7 +2713,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2744,7 +2757,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>42738</v>
@@ -2767,7 +2780,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>42739</v>
@@ -2790,7 +2803,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>42740</v>
@@ -2813,7 +2826,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>42741</v>
@@ -2836,7 +2849,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>42744</v>
@@ -2859,7 +2872,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>42745</v>
@@ -2882,7 +2895,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>42746</v>
@@ -2905,7 +2918,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>42747</v>
@@ -2928,7 +2941,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>42748</v>
@@ -2951,7 +2964,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>42752</v>
@@ -2974,7 +2987,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>42753</v>
@@ -2997,7 +3010,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>42754</v>
@@ -3020,7 +3033,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>42755</v>
@@ -3043,7 +3056,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>42758</v>
@@ -3066,7 +3079,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>42759</v>
@@ -3089,7 +3102,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>42760</v>
@@ -3112,7 +3125,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>42761</v>
@@ -3135,7 +3148,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>42762</v>
@@ -3158,7 +3171,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>42765</v>
@@ -3181,7 +3194,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>42766</v>
@@ -3195,7 +3208,7 @@
       </c>
       <c r="E21" s="7">
         <f t="array" ref="E21">INDEX(LINEST($C2:$C21,$A2:$A21,TRUE,TRUE),1,2)</f>
-        <v>213.31599999999995</v>
+        <v>213.43114285714282</v>
       </c>
       <c r="F21" s="7">
         <f t="array" ref="F21">INDEX(LINEST($C2:$C21,$A2:$A21,TRUE,TRUE),3,1)</f>
@@ -3222,7 +3235,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>42767</v>
@@ -3236,7 +3249,7 @@
       </c>
       <c r="E22" s="7">
         <f t="array" ref="E22">INDEX(LINEST($C3:$C22,$A3:$A22,TRUE,TRUE),1,2)</f>
-        <v>213.54033082706766</v>
+        <v>213.63573684210525</v>
       </c>
       <c r="F22" s="7">
         <f t="array" ref="F22">INDEX(LINEST($C3:$C22,$A3:$A22,TRUE,TRUE),3,1)</f>
@@ -3263,7 +3276,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>42768</v>
@@ -3277,7 +3290,7 @@
       </c>
       <c r="E23" s="7">
         <f t="array" ref="E23">INDEX(LINEST($C4:$C23,$A4:$A23,TRUE,TRUE),1,2)</f>
-        <v>213.51674436090227</v>
+        <v>213.61092481203008</v>
       </c>
       <c r="F23" s="7">
         <f t="array" ref="F23">INDEX(LINEST($C4:$C23,$A4:$A23,TRUE,TRUE),3,1)</f>
@@ -3304,7 +3317,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>42769</v>
@@ -3318,7 +3331,7 @@
       </c>
       <c r="E24" s="7">
         <f t="array" ref="E24">INDEX(LINEST($C5:$C24,$A5:$A24,TRUE,TRUE),1,2)</f>
-        <v>213.35185714285714</v>
+        <v>213.46157142857143</v>
       </c>
       <c r="F24" s="7">
         <f t="array" ref="F24">INDEX(LINEST($C5:$C24,$A5:$A24,TRUE,TRUE),3,1)</f>
@@ -3345,7 +3358,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>42772</v>
@@ -3359,7 +3372,7 @@
       </c>
       <c r="E25" s="7">
         <f t="array" ref="E25">INDEX(LINEST($C6:$C25,$A6:$A25,TRUE,TRUE),1,2)</f>
-        <v>213.06301503759403</v>
+        <v>213.19066917293239</v>
       </c>
       <c r="F25" s="7">
         <f t="array" ref="F25">INDEX(LINEST($C6:$C25,$A6:$A25,TRUE,TRUE),3,1)</f>
@@ -3386,7 +3399,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>42773</v>
@@ -3400,7 +3413,7 @@
       </c>
       <c r="E26" s="7">
         <f t="array" ref="E26">INDEX(LINEST($C7:$C26,$A7:$A26,TRUE,TRUE),1,2)</f>
-        <v>212.98360150375944</v>
+        <v>213.11569172932334</v>
       </c>
       <c r="F26" s="7">
         <f t="array" ref="F26">INDEX(LINEST($C7:$C26,$A7:$A26,TRUE,TRUE),3,1)</f>
@@ -3427,7 +3440,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>42774</v>
@@ -3441,7 +3454,7 @@
       </c>
       <c r="E27" s="7">
         <f t="array" ref="E27">INDEX(LINEST($C8:$C27,$A8:$A27,TRUE,TRUE),1,2)</f>
-        <v>212.89951879699254</v>
+        <v>213.03666917293239</v>
       </c>
       <c r="F27" s="7">
         <f t="array" ref="F27">INDEX(LINEST($C8:$C27,$A8:$A27,TRUE,TRUE),3,1)</f>
@@ -3468,7 +3481,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>42775</v>
@@ -3482,7 +3495,7 @@
       </c>
       <c r="E28" s="7">
         <f t="array" ref="E28">INDEX(LINEST($C9:$C28,$A9:$A28,TRUE,TRUE),1,2)</f>
-        <v>212.42273684210528</v>
+        <v>212.58875187969929</v>
       </c>
       <c r="F28" s="7">
         <f t="array" ref="F28">INDEX(LINEST($C9:$C28,$A9:$A28,TRUE,TRUE),3,1)</f>
@@ -3509,7 +3522,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>42776</v>
@@ -3523,7 +3536,7 @@
       </c>
       <c r="E29" s="7">
         <f t="array" ref="E29">INDEX(LINEST($C10:$C29,$A10:$A29,TRUE,TRUE),1,2)</f>
-        <v>211.97733834586469</v>
+        <v>212.17115789473689</v>
       </c>
       <c r="F29" s="7">
         <f t="array" ref="F29">INDEX(LINEST($C10:$C29,$A10:$A29,TRUE,TRUE),3,1)</f>
@@ -3550,7 +3563,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>42779</v>
@@ -3564,7 +3577,7 @@
       </c>
       <c r="E30" s="7">
         <f t="array" ref="E30">INDEX(LINEST($C11:$C30,$A11:$A30,TRUE,TRUE),1,2)</f>
-        <v>211.16678195488726</v>
+        <v>211.40607518796995</v>
       </c>
       <c r="F30" s="7">
         <f t="array" ref="F30">INDEX(LINEST($C11:$C30,$A11:$A30,TRUE,TRUE),3,1)</f>
@@ -3591,7 +3604,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>42780</v>
@@ -3605,7 +3618,7 @@
       </c>
       <c r="E31" s="7">
         <f t="array" ref="E31">INDEX(LINEST($C12:$C31,$A12:$A31,TRUE,TRUE),1,2)</f>
-        <v>210.502030075188</v>
+        <v>210.77924812030079</v>
       </c>
       <c r="F31" s="7">
         <f t="array" ref="F31">INDEX(LINEST($C12:$C31,$A12:$A31,TRUE,TRUE),3,1)</f>
@@ -3632,7 +3645,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>42781</v>
@@ -3646,7 +3659,7 @@
       </c>
       <c r="E32" s="7">
         <f t="array" ref="E32">INDEX(LINEST($C13:$C32,$A13:$A32,TRUE,TRUE),1,2)</f>
-        <v>209.51027067669173</v>
+        <v>209.83867669172932</v>
       </c>
       <c r="F32" s="7">
         <f t="array" ref="F32">INDEX(LINEST($C13:$C32,$A13:$A32,TRUE,TRUE),3,1)</f>
@@ -3673,7 +3686,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>42782</v>
@@ -3687,7 +3700,7 @@
       </c>
       <c r="E33" s="7">
         <f t="array" ref="E33">INDEX(LINEST($C14:$C33,$A14:$A33,TRUE,TRUE),1,2)</f>
-        <v>209.04906766917293</v>
+        <v>209.40186466165412</v>
       </c>
       <c r="F33" s="7">
         <f t="array" ref="F33">INDEX(LINEST($C14:$C33,$A14:$A33,TRUE,TRUE),3,1)</f>
@@ -3714,7 +3727,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>42783</v>
@@ -3728,7 +3741,7 @@
       </c>
       <c r="E34" s="7">
         <f t="array" ref="E34">INDEX(LINEST($C15:$C34,$A15:$A34,TRUE,TRUE),1,2)</f>
-        <v>208.40467669172932</v>
+        <v>208.78666917293233</v>
       </c>
       <c r="F34" s="7">
         <f t="array" ref="F34">INDEX(LINEST($C15:$C34,$A15:$A34,TRUE,TRUE),3,1)</f>
@@ -3755,7 +3768,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>42787</v>
@@ -3769,7 +3782,7 @@
       </c>
       <c r="E35" s="7">
         <f t="array" ref="E35">INDEX(LINEST($C16:$C35,$A16:$A35,TRUE,TRUE),1,2)</f>
-        <v>207.83384210526319</v>
+        <v>208.24348120300755</v>
       </c>
       <c r="F35" s="7">
         <f t="array" ref="F35">INDEX(LINEST($C16:$C35,$A16:$A35,TRUE,TRUE),3,1)</f>
@@ -3796,7 +3809,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>42788</v>
@@ -3810,7 +3823,7 @@
       </c>
       <c r="E36" s="7">
         <f t="array" ref="E36">INDEX(LINEST($C17:$C36,$A17:$A36,TRUE,TRUE),1,2)</f>
-        <v>207.02510526315785</v>
+        <v>207.46647368421048</v>
       </c>
       <c r="F36" s="7">
         <f t="array" ref="F36">INDEX(LINEST($C17:$C36,$A17:$A36,TRUE,TRUE),3,1)</f>
@@ -3837,7 +3850,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>42789</v>
@@ -3851,7 +3864,7 @@
       </c>
       <c r="E37" s="7">
         <f t="array" ref="E37">INDEX(LINEST($C18:$C37,$A18:$A37,TRUE,TRUE),1,2)</f>
-        <v>205.55912781954885</v>
+        <v>206.05140601503757</v>
       </c>
       <c r="F37" s="7">
         <f t="array" ref="F37">INDEX(LINEST($C18:$C37,$A18:$A37,TRUE,TRUE),3,1)</f>
@@ -3878,7 +3891,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>42790</v>
@@ -3892,7 +3905,7 @@
       </c>
       <c r="E38" s="7">
         <f t="array" ref="E38">INDEX(LINEST($C19:$C38,$A19:$A38,TRUE,TRUE),1,2)</f>
-        <v>204.27508270676688</v>
+        <v>204.80887969924811</v>
       </c>
       <c r="F38" s="7">
         <f t="array" ref="F38">INDEX(LINEST($C19:$C38,$A19:$A38,TRUE,TRUE),3,1)</f>
@@ -3919,7 +3932,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>42793</v>
@@ -3933,7 +3946,7 @@
       </c>
       <c r="E39" s="7">
         <f t="array" ref="E39">INDEX(LINEST($C20:$C39,$A20:$A39,TRUE,TRUE),1,2)</f>
-        <v>203.25300000000001</v>
+        <v>203.81742105263157</v>
       </c>
       <c r="F39" s="7">
         <f t="array" ref="F39">INDEX(LINEST($C20:$C39,$A20:$A39,TRUE,TRUE),3,1)</f>
@@ -3960,7 +3973,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>42794</v>
@@ -3974,7 +3987,7 @@
       </c>
       <c r="E40" s="7">
         <f t="array" ref="E40">INDEX(LINEST($C21:$C40,$A21:$A40,TRUE,TRUE),1,2)</f>
-        <v>203.42481954887219</v>
+        <v>203.97857142857146</v>
       </c>
       <c r="F40" s="7">
         <f t="array" ref="F40">INDEX(LINEST($C21:$C40,$A21:$A40,TRUE,TRUE),3,1)</f>
@@ -4001,7 +4014,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>42795</v>
@@ -4015,7 +4028,7 @@
       </c>
       <c r="E41" s="7">
         <f t="array" ref="E41">INDEX(LINEST($C22:$C41,$A22:$A41,TRUE,TRUE),1,2)</f>
-        <v>202.81181954887219</v>
+        <v>203.38648120300752</v>
       </c>
       <c r="F41" s="7">
         <f t="array" ref="F41">INDEX(LINEST($C22:$C41,$A22:$A41,TRUE,TRUE),3,1)</f>
@@ -4042,7 +4055,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>42796</v>
@@ -4056,7 +4069,7 @@
       </c>
       <c r="E42" s="7">
         <f t="array" ref="E42">INDEX(LINEST($C23:$C42,$A23:$A42,TRUE,TRUE),1,2)</f>
-        <v>203.22378947368418</v>
+        <v>203.78309774436087</v>
       </c>
       <c r="F42" s="7">
         <f t="array" ref="F42">INDEX(LINEST($C23:$C42,$A23:$A42,TRUE,TRUE),3,1)</f>
@@ -4083,7 +4096,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>42797</v>
@@ -4097,7 +4110,7 @@
       </c>
       <c r="E43" s="7">
         <f t="array" ref="E43">INDEX(LINEST($C24:$C43,$A24:$A43,TRUE,TRUE),1,2)</f>
-        <v>204.02127819548869</v>
+        <v>204.55431578947366</v>
       </c>
       <c r="F43" s="7">
         <f t="array" ref="F43">INDEX(LINEST($C24:$C43,$A24:$A43,TRUE,TRUE),3,1)</f>
@@ -4124,7 +4137,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>42800</v>
@@ -4138,7 +4151,7 @@
       </c>
       <c r="E44" s="7">
         <f t="array" ref="E44">INDEX(LINEST($C25:$C44,$A25:$A44,TRUE,TRUE),1,2)</f>
-        <v>204.80839097744362</v>
+        <v>205.31382706766919</v>
       </c>
       <c r="F44" s="7">
         <f t="array" ref="F44">INDEX(LINEST($C25:$C44,$A25:$A44,TRUE,TRUE),3,1)</f>
@@ -4165,7 +4178,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>42801</v>
@@ -4179,7 +4192,7 @@
       </c>
       <c r="E45" s="7">
         <f t="array" ref="E45">INDEX(LINEST($C26:$C45,$A26:$A45,TRUE,TRUE),1,2)</f>
-        <v>206.58973684210525</v>
+        <v>207.03994736842102</v>
       </c>
       <c r="F45" s="7">
         <f t="array" ref="F45">INDEX(LINEST($C26:$C45,$A26:$A45,TRUE,TRUE),3,1)</f>
@@ -4206,7 +4219,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>42802</v>
@@ -4220,7 +4233,7 @@
       </c>
       <c r="E46" s="7">
         <f t="array" ref="E46">INDEX(LINEST($C27:$C46,$A27:$A46,TRUE,TRUE),1,2)</f>
-        <v>209.07474436090223</v>
+        <v>209.45241353383454</v>
       </c>
       <c r="F46" s="7">
         <f t="array" ref="F46">INDEX(LINEST($C27:$C46,$A27:$A46,TRUE,TRUE),3,1)</f>
@@ -4247,7 +4260,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>42803</v>
@@ -4261,7 +4274,7 @@
       </c>
       <c r="E47" s="7">
         <f t="array" ref="E47">INDEX(LINEST($C28:$C47,$A28:$A47,TRUE,TRUE),1,2)</f>
-        <v>211.78167669172927</v>
+        <v>212.08469924812024</v>
       </c>
       <c r="F47" s="7">
         <f t="array" ref="F47">INDEX(LINEST($C28:$C47,$A28:$A47,TRUE,TRUE),3,1)</f>
@@ -4288,7 +4301,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>42804</v>
@@ -4302,7 +4315,7 @@
       </c>
       <c r="E48" s="7">
         <f t="array" ref="E48">INDEX(LINEST($C29:$C48,$A29:$A48,TRUE,TRUE),1,2)</f>
-        <v>213.8431654135338</v>
+        <v>214.09206766917291</v>
       </c>
       <c r="F48" s="7">
         <f t="array" ref="F48">INDEX(LINEST($C29:$C48,$A29:$A48,TRUE,TRUE),3,1)</f>
@@ -4329,7 +4342,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>42807</v>
@@ -4343,7 +4356,7 @@
       </c>
       <c r="E49" s="7">
         <f t="array" ref="E49">INDEX(LINEST($C30:$C49,$A30:$A49,TRUE,TRUE),1,2)</f>
-        <v>215.78000000000003</v>
+        <v>215.97985714285716</v>
       </c>
       <c r="F49" s="7">
         <f t="array" ref="F49">INDEX(LINEST($C30:$C49,$A30:$A49,TRUE,TRUE),3,1)</f>
@@ -4370,7 +4383,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>42808</v>
@@ -4384,7 +4397,7 @@
       </c>
       <c r="E50" s="7">
         <f t="array" ref="E50">INDEX(LINEST($C31:$C50,$A31:$A50,TRUE,TRUE),1,2)</f>
-        <v>217.80894736842106</v>
+        <v>217.95731578947371</v>
       </c>
       <c r="F50" s="7">
         <f t="array" ref="F50">INDEX(LINEST($C31:$C50,$A31:$A50,TRUE,TRUE),3,1)</f>
@@ -4411,7 +4424,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>42809</v>
@@ -4425,7 +4438,7 @@
       </c>
       <c r="E51" s="7">
         <f t="array" ref="E51">INDEX(LINEST($C32:$C51,$A32:$A51,TRUE,TRUE),1,2)</f>
-        <v>218.54622556390979</v>
+        <v>218.67884962406015</v>
       </c>
       <c r="F51" s="7">
         <f t="array" ref="F51">INDEX(LINEST($C32:$C51,$A32:$A51,TRUE,TRUE),3,1)</f>
@@ -4452,7 +4465,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>42810</v>
@@ -4466,7 +4479,7 @@
       </c>
       <c r="E52" s="7">
         <f t="array" ref="E52">INDEX(LINEST($C33:$C52,$A33:$A52,TRUE,TRUE),1,2)</f>
-        <v>219.05233082706766</v>
+        <v>219.17362406015039</v>
       </c>
       <c r="F52" s="7">
         <f t="array" ref="F52">INDEX(LINEST($C33:$C52,$A33:$A52,TRUE,TRUE),3,1)</f>
@@ -4493,7 +4506,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>42811</v>
@@ -4507,7 +4520,7 @@
       </c>
       <c r="E53" s="7">
         <f t="array" ref="E53">INDEX(LINEST($C34:$C53,$A34:$A53,TRUE,TRUE),1,2)</f>
-        <v>220.15633082706765</v>
+        <v>220.25251127819547</v>
       </c>
       <c r="F53" s="7">
         <f t="array" ref="F53">INDEX(LINEST($C34:$C53,$A34:$A53,TRUE,TRUE),3,1)</f>
@@ -4534,7 +4547,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>42814</v>
@@ -4548,7 +4561,7 @@
       </c>
       <c r="E54" s="7">
         <f t="array" ref="E54">INDEX(LINEST($C35:$C54,$A35:$A54,TRUE,TRUE),1,2)</f>
-        <v>221.40222556390975</v>
+        <v>221.47049624060148</v>
       </c>
       <c r="F54" s="7">
         <f t="array" ref="F54">INDEX(LINEST($C35:$C54,$A35:$A54,TRUE,TRUE),3,1)</f>
@@ -4575,7 +4588,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>42815</v>
@@ -4589,7 +4602,7 @@
       </c>
       <c r="E55" s="7">
         <f t="array" ref="E55">INDEX(LINEST($C36:$C55,$A36:$A55,TRUE,TRUE),1,2)</f>
-        <v>223.56110526315783</v>
+        <v>223.57747368421047</v>
       </c>
       <c r="F55" s="7">
         <f t="array" ref="F55">INDEX(LINEST($C36:$C55,$A36:$A55,TRUE,TRUE),3,1)</f>
@@ -4616,7 +4629,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>42816</v>
@@ -4630,7 +4643,7 @@
       </c>
       <c r="E56" s="7">
         <f t="array" ref="E56">INDEX(LINEST($C37:$C56,$A37:$A56,TRUE,TRUE),1,2)</f>
-        <v>225.5525789473684</v>
+        <v>225.52379699248118</v>
       </c>
       <c r="F56" s="7">
         <f t="array" ref="F56">INDEX(LINEST($C37:$C56,$A37:$A56,TRUE,TRUE),3,1)</f>
@@ -4657,7 +4670,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>42817</v>
@@ -4671,7 +4684,7 @@
       </c>
       <c r="E57" s="7">
         <f t="array" ref="E57">INDEX(LINEST($C38:$C57,$A38:$A57,TRUE,TRUE),1,2)</f>
-        <v>227.59912030075188</v>
+        <v>227.52552631578945</v>
       </c>
       <c r="F57" s="7">
         <f t="array" ref="F57">INDEX(LINEST($C38:$C57,$A38:$A57,TRUE,TRUE),3,1)</f>
@@ -4698,7 +4711,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>42818</v>
@@ -4712,7 +4725,7 @@
       </c>
       <c r="E58" s="7">
         <f t="array" ref="E58">INDEX(LINEST($C39:$C58,$A39:$A58,TRUE,TRUE),1,2)</f>
-        <v>229.51757142857142</v>
+        <v>229.40328571428572</v>
       </c>
       <c r="F58" s="7">
         <f t="array" ref="F58">INDEX(LINEST($C39:$C58,$A39:$A58,TRUE,TRUE),3,1)</f>
@@ -4739,7 +4752,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>42821</v>
@@ -4753,7 +4766,7 @@
       </c>
       <c r="E59" s="7">
         <f t="array" ref="E59">INDEX(LINEST($C40:$C59,$A40:$A59,TRUE,TRUE),1,2)</f>
-        <v>231.25137593984962</v>
+        <v>231.10128571428569</v>
       </c>
       <c r="F59" s="7">
         <f t="array" ref="F59">INDEX(LINEST($C40:$C59,$A40:$A59,TRUE,TRUE),3,1)</f>
@@ -4780,7 +4793,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>42822</v>
@@ -4794,7 +4807,7 @@
       </c>
       <c r="E60" s="7">
         <f t="array" ref="E60">INDEX(LINEST($C41:$C60,$A41:$A60,TRUE,TRUE),1,2)</f>
-        <v>232.31698496240602</v>
+        <v>232.14827819548873</v>
       </c>
       <c r="F60" s="7">
         <f t="array" ref="F60">INDEX(LINEST($C41:$C60,$A41:$A60,TRUE,TRUE),3,1)</f>
@@ -4821,7 +4834,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>42823</v>
@@ -4835,7 +4848,7 @@
       </c>
       <c r="E61" s="7">
         <f t="array" ref="E61">INDEX(LINEST($C42:$C61,$A42:$A61,TRUE,TRUE),1,2)</f>
-        <v>230.62592481203012</v>
+        <v>230.49104511278199</v>
       </c>
       <c r="F61" s="7">
         <f t="array" ref="F61">INDEX(LINEST($C42:$C61,$A42:$A61,TRUE,TRUE),3,1)</f>
@@ -4862,7 +4875,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>42824</v>
@@ -4876,7 +4889,7 @@
       </c>
       <c r="E62" s="7">
         <f t="array" ref="E62">INDEX(LINEST($C43:$C62,$A43:$A62,TRUE,TRUE),1,2)</f>
-        <v>229.37138345864665</v>
+        <v>229.26260902255643</v>
       </c>
       <c r="F62" s="7">
         <f t="array" ref="F62">INDEX(LINEST($C43:$C62,$A43:$A62,TRUE,TRUE),3,1)</f>
@@ -4903,7 +4916,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>42825</v>
@@ -4917,7 +4930,7 @@
       </c>
       <c r="E63" s="7">
         <f t="array" ref="E63">INDEX(LINEST($C44:$C63,$A44:$A63,TRUE,TRUE),1,2)</f>
-        <v>228.23452631578948</v>
+        <v>228.147992481203</v>
       </c>
       <c r="F63" s="7">
         <f t="array" ref="F63">INDEX(LINEST($C44:$C63,$A44:$A63,TRUE,TRUE),3,1)</f>
@@ -4944,7 +4957,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>42828</v>
@@ -4958,7 +4971,7 @@
       </c>
       <c r="E64" s="7">
         <f t="array" ref="E64">INDEX(LINEST($C45:$C64,$A45:$A64,TRUE,TRUE),1,2)</f>
-        <v>227.80572932330827</v>
+        <v>227.72763157894735</v>
       </c>
       <c r="F64" s="7">
         <f t="array" ref="F64">INDEX(LINEST($C45:$C64,$A45:$A64,TRUE,TRUE),3,1)</f>
@@ -4985,7 +4998,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>42829</v>
@@ -4999,7 +5012,7 @@
       </c>
       <c r="E65" s="7">
         <f t="array" ref="E65">INDEX(LINEST($C46:$C65,$A46:$A65,TRUE,TRUE),1,2)</f>
-        <v>227.76321052631579</v>
+        <v>227.68689473684208</v>
       </c>
       <c r="F65" s="7">
         <f t="array" ref="F65">INDEX(LINEST($C46:$C65,$A46:$A65,TRUE,TRUE),3,1)</f>
@@ -5026,7 +5039,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>42830</v>
@@ -5040,7 +5053,7 @@
       </c>
       <c r="E66" s="7">
         <f t="array" ref="E66">INDEX(LINEST($C47:$C66,$A47:$A66,TRUE,TRUE),1,2)</f>
-        <v>228.55724060150376</v>
+        <v>228.46735338345863</v>
       </c>
       <c r="F66" s="7">
         <f t="array" ref="F66">INDEX(LINEST($C47:$C66,$A47:$A66,TRUE,TRUE),3,1)</f>
@@ -5067,7 +5080,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>42831</v>
@@ -5081,7 +5094,7 @@
       </c>
       <c r="E67" s="7">
         <f t="array" ref="E67">INDEX(LINEST($C48:$C67,$A48:$A67,TRUE,TRUE),1,2)</f>
-        <v>228.57545112781952</v>
+        <v>228.4864962406015</v>
       </c>
       <c r="F67" s="7">
         <f t="array" ref="F67">INDEX(LINEST($C48:$C67,$A48:$A67,TRUE,TRUE),3,1)</f>
@@ -5108,7 +5121,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>42832</v>
@@ -5122,7 +5135,7 @@
       </c>
       <c r="E68" s="7">
         <f t="array" ref="E68">INDEX(LINEST($C49:$C68,$A49:$A68,TRUE,TRUE),1,2)</f>
-        <v>227.98921052631582</v>
+        <v>227.91078947368422</v>
       </c>
       <c r="F68" s="7">
         <f t="array" ref="F68">INDEX(LINEST($C49:$C68,$A49:$A68,TRUE,TRUE),3,1)</f>
@@ -5149,7 +5162,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>42835</v>
@@ -5163,7 +5176,7 @@
       </c>
       <c r="E69" s="7">
         <f t="array" ref="E69">INDEX(LINEST($C50:$C69,$A50:$A69,TRUE,TRUE),1,2)</f>
-        <v>227.04251879699251</v>
+        <v>226.98045864661657</v>
       </c>
       <c r="F69" s="7">
         <f t="array" ref="F69">INDEX(LINEST($C50:$C69,$A50:$A69,TRUE,TRUE),3,1)</f>
@@ -5190,7 +5203,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>42836</v>
@@ -5204,7 +5217,7 @@
       </c>
       <c r="E70" s="7">
         <f t="array" ref="E70">INDEX(LINEST($C51:$C70,$A51:$A70,TRUE,TRUE),1,2)</f>
-        <v>227.00836842105269</v>
+        <v>226.94727819548879</v>
       </c>
       <c r="F70" s="7">
         <f t="array" ref="F70">INDEX(LINEST($C51:$C70,$A51:$A70,TRUE,TRUE),3,1)</f>
@@ -5231,7 +5244,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <v>42837</v>
@@ -5245,7 +5258,7 @@
       </c>
       <c r="E71" s="7">
         <f t="array" ref="E71">INDEX(LINEST($C52:$C71,$A52:$A71,TRUE,TRUE),1,2)</f>
-        <v>225.75001503759407</v>
+        <v>225.70768421052639</v>
       </c>
       <c r="F71" s="7">
         <f t="array" ref="F71">INDEX(LINEST($C52:$C71,$A52:$A71,TRUE,TRUE),3,1)</f>
@@ -5272,7 +5285,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>42838</v>
@@ -5286,7 +5299,7 @@
       </c>
       <c r="E72" s="7">
         <f t="array" ref="E72">INDEX(LINEST($C53:$C72,$A53:$A72,TRUE,TRUE),1,2)</f>
-        <v>225.75529323308277</v>
+        <v>225.7097518796993</v>
       </c>
       <c r="F72" s="7">
         <f t="array" ref="F72">INDEX(LINEST($C53:$C72,$A53:$A72,TRUE,TRUE),3,1)</f>
@@ -5313,7 +5326,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <v>42842</v>
@@ -5327,7 +5340,7 @@
       </c>
       <c r="E73" s="7">
         <f t="array" ref="E73">INDEX(LINEST($C54:$C73,$A54:$A73,TRUE,TRUE),1,2)</f>
-        <v>224.08893984962407</v>
+        <v>224.0689248120301</v>
       </c>
       <c r="F73" s="7">
         <f t="array" ref="F73">INDEX(LINEST($C54:$C73,$A54:$A73,TRUE,TRUE),3,1)</f>
@@ -5354,7 +5367,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>42843</v>
@@ -5368,7 +5381,7 @@
       </c>
       <c r="E74" s="7">
         <f t="array" ref="E74">INDEX(LINEST($C55:$C74,$A55:$A74,TRUE,TRUE),1,2)</f>
-        <v>222.98648872180451</v>
+        <v>222.98198496240602</v>
       </c>
       <c r="F74" s="7">
         <f t="array" ref="F74">INDEX(LINEST($C55:$C74,$A55:$A74,TRUE,TRUE),3,1)</f>
@@ -5395,7 +5408,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>42844</v>
@@ -5409,7 +5422,7 @@
       </c>
       <c r="E75" s="7">
         <f t="array" ref="E75">INDEX(LINEST($C56:$C75,$A56:$A75,TRUE,TRUE),1,2)</f>
-        <v>225.0206240601504</v>
+        <v>224.98443609022559</v>
       </c>
       <c r="F75" s="7">
         <f t="array" ref="F75">INDEX(LINEST($C56:$C75,$A56:$A75,TRUE,TRUE),3,1)</f>
@@ -5436,7 +5449,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>42845</v>
@@ -5450,7 +5463,7 @@
       </c>
       <c r="E76" s="7">
         <f t="array" ref="E76">INDEX(LINEST($C57:$C76,$A57:$A76,TRUE,TRUE),1,2)</f>
-        <v>224.9236165413534</v>
+        <v>224.89023308270677</v>
       </c>
       <c r="F76" s="7">
         <f t="array" ref="F76">INDEX(LINEST($C57:$C76,$A57:$A76,TRUE,TRUE),3,1)</f>
@@ -5477,7 +5490,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>42846</v>
@@ -5491,7 +5504,7 @@
       </c>
       <c r="E77" s="7">
         <f t="array" ref="E77">INDEX(LINEST($C58:$C77,$A58:$A77,TRUE,TRUE),1,2)</f>
-        <v>225.82499999999999</v>
+        <v>225.778969924812</v>
       </c>
       <c r="F77" s="7">
         <f t="array" ref="F77">INDEX(LINEST($C58:$C77,$A58:$A77,TRUE,TRUE),3,1)</f>
@@ -5518,7 +5531,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>42849</v>
@@ -5532,7 +5545,7 @@
       </c>
       <c r="E78" s="7">
         <f t="array" ref="E78">INDEX(LINEST($C59:$C78,$A59:$A78,TRUE,TRUE),1,2)</f>
-        <v>224.75415789473684</v>
+        <v>224.72699999999998</v>
       </c>
       <c r="F78" s="7">
         <f t="array" ref="F78">INDEX(LINEST($C59:$C78,$A59:$A78,TRUE,TRUE),3,1)</f>
@@ -5559,7 +5572,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>42850</v>
@@ -5573,7 +5586,7 @@
       </c>
       <c r="E79" s="7">
         <f t="array" ref="E79">INDEX(LINEST($C60:$C79,$A60:$A79,TRUE,TRUE),1,2)</f>
-        <v>223.01284962406018</v>
+        <v>223.01492481203013</v>
       </c>
       <c r="F79" s="7">
         <f t="array" ref="F79">INDEX(LINEST($C60:$C79,$A60:$A79,TRUE,TRUE),3,1)</f>
@@ -5600,7 +5613,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <v>42851</v>
@@ -5614,7 +5627,7 @@
       </c>
       <c r="E80" s="7">
         <f t="array" ref="E80">INDEX(LINEST($C61:$C80,$A61:$A80,TRUE,TRUE),1,2)</f>
-        <v>219.97545112781955</v>
+        <v>220.0233007518797</v>
       </c>
       <c r="F80" s="7">
         <f t="array" ref="F80">INDEX(LINEST($C61:$C80,$A61:$A80,TRUE,TRUE),3,1)</f>
@@ -5641,7 +5654,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <v>42852</v>
@@ -5655,7 +5668,7 @@
       </c>
       <c r="E81" s="7">
         <f t="array" ref="E81">INDEX(LINEST($C62:$C81,$A62:$A81,TRUE,TRUE),1,2)</f>
-        <v>216.72994736842102</v>
+        <v>216.82521052631577</v>
       </c>
       <c r="F81" s="7">
         <f t="array" ref="F81">INDEX(LINEST($C62:$C81,$A62:$A81,TRUE,TRUE),3,1)</f>
@@ -5682,7 +5695,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>42853</v>
@@ -5696,7 +5709,7 @@
       </c>
       <c r="E82" s="7">
         <f t="array" ref="E82">INDEX(LINEST($C63:$C82,$A63:$A82,TRUE,TRUE),1,2)</f>
-        <v>213.34036842105257</v>
+        <v>213.48289473684207</v>
       </c>
       <c r="F82" s="7">
         <f t="array" ref="F82">INDEX(LINEST($C63:$C82,$A63:$A82,TRUE,TRUE),3,1)</f>
@@ -5723,7 +5736,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>42856</v>
@@ -5737,7 +5750,7 @@
       </c>
       <c r="E83" s="7">
         <f t="array" ref="E83">INDEX(LINEST($C64:$C83,$A64:$A83,TRUE,TRUE),1,2)</f>
-        <v>210.10100751879696</v>
+        <v>210.28817293233078</v>
       </c>
       <c r="F83" s="7">
         <f t="array" ref="F83">INDEX(LINEST($C64:$C83,$A64:$A83,TRUE,TRUE),3,1)</f>
@@ -5764,7 +5777,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <v>42857</v>
@@ -5778,7 +5791,7 @@
       </c>
       <c r="E84" s="7">
         <f t="array" ref="E84">INDEX(LINEST($C65:$C84,$A65:$A84,TRUE,TRUE),1,2)</f>
-        <v>207.47284210526311</v>
+        <v>207.69543609022554</v>
       </c>
       <c r="F84" s="7">
         <f t="array" ref="F84">INDEX(LINEST($C65:$C84,$A65:$A84,TRUE,TRUE),3,1)</f>
@@ -5805,7 +5818,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
         <v>42858</v>
@@ -5819,7 +5832,7 @@
       </c>
       <c r="E85" s="7">
         <f t="array" ref="E85">INDEX(LINEST($C66:$C85,$A66:$A85,TRUE,TRUE),1,2)</f>
-        <v>205.24121052631577</v>
+        <v>205.49268421052631</v>
       </c>
       <c r="F85" s="7">
         <f t="array" ref="F85">INDEX(LINEST($C66:$C85,$A66:$A85,TRUE,TRUE),3,1)</f>
@@ -5846,7 +5859,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
         <v>42859</v>
@@ -5860,7 +5873,7 @@
       </c>
       <c r="E86" s="7">
         <f t="array" ref="E86">INDEX(LINEST($C67:$C86,$A67:$A86,TRUE,TRUE),1,2)</f>
-        <v>203.82775187969926</v>
+        <v>204.09711278195488</v>
       </c>
       <c r="F86" s="7">
         <f t="array" ref="F86">INDEX(LINEST($C67:$C86,$A67:$A86,TRUE,TRUE),3,1)</f>
@@ -5887,7 +5900,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2">
         <v>42860</v>
@@ -5901,7 +5914,7 @@
       </c>
       <c r="E87" s="7">
         <f t="array" ref="E87">INDEX(LINEST($C68:$C87,$A68:$A87,TRUE,TRUE),1,2)</f>
-        <v>201.10417293233075</v>
+        <v>201.40825563909769</v>
       </c>
       <c r="F87" s="7">
         <f t="array" ref="F87">INDEX(LINEST($C68:$C87,$A68:$A87,TRUE,TRUE),3,1)</f>
@@ -5928,7 +5941,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
         <v>42863</v>
@@ -5942,7 +5955,7 @@
       </c>
       <c r="E88" s="7">
         <f t="array" ref="E88">INDEX(LINEST($C69:$C88,$A69:$A88,TRUE,TRUE),1,2)</f>
-        <v>199.10663909774436</v>
+        <v>199.43530827067667</v>
       </c>
       <c r="F88" s="7">
         <f t="array" ref="F88">INDEX(LINEST($C69:$C88,$A69:$A88,TRUE,TRUE),3,1)</f>
@@ -5969,7 +5982,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2">
         <v>42864</v>
@@ -5983,7 +5996,7 @@
       </c>
       <c r="E89" s="7">
         <f t="array" ref="E89">INDEX(LINEST($C70:$C89,$A70:$A89,TRUE,TRUE),1,2)</f>
-        <v>197.60491729323309</v>
+        <v>197.95100751879701</v>
       </c>
       <c r="F89" s="7">
         <f t="array" ref="F89">INDEX(LINEST($C70:$C89,$A70:$A89,TRUE,TRUE),3,1)</f>
@@ -6010,7 +6023,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
         <v>42865</v>
@@ -6024,7 +6037,7 @@
       </c>
       <c r="E90" s="7">
         <f t="array" ref="E90">INDEX(LINEST($C71:$C90,$A71:$A90,TRUE,TRUE),1,2)</f>
-        <v>196.44067669172932</v>
+        <v>196.79993233082706</v>
       </c>
       <c r="F90" s="7">
         <f t="array" ref="F90">INDEX(LINEST($C71:$C90,$A71:$A90,TRUE,TRUE),3,1)</f>
@@ -6051,7 +6064,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
         <v>42866</v>
@@ -6065,7 +6078,7 @@
       </c>
       <c r="E91" s="7">
         <f t="array" ref="E91">INDEX(LINEST($C72:$C91,$A72:$A91,TRUE,TRUE),1,2)</f>
-        <v>197.61494736842104</v>
+        <v>197.9583082706767</v>
       </c>
       <c r="F91" s="7">
         <f t="array" ref="F91">INDEX(LINEST($C72:$C91,$A72:$A91,TRUE,TRUE),3,1)</f>
@@ -6092,7 +6105,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2">
         <v>42867</v>
@@ -6106,7 +6119,7 @@
       </c>
       <c r="E92" s="7">
         <f t="array" ref="E92">INDEX(LINEST($C73:$C92,$A73:$A92,TRUE,TRUE),1,2)</f>
-        <v>201.79207518796994</v>
+        <v>202.08373684210528</v>
       </c>
       <c r="F92" s="7">
         <f t="array" ref="F92">INDEX(LINEST($C73:$C92,$A73:$A92,TRUE,TRUE),3,1)</f>
@@ -6133,7 +6146,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
         <v>42870</v>
@@ -6147,7 +6160,7 @@
       </c>
       <c r="E93" s="7">
         <f t="array" ref="E93">INDEX(LINEST($C74:$C93,$A74:$A93,TRUE,TRUE),1,2)</f>
-        <v>202.77245864661657</v>
+        <v>203.05199248120303</v>
       </c>
       <c r="F93" s="7">
         <f t="array" ref="F93">INDEX(LINEST($C74:$C93,$A74:$A93,TRUE,TRUE),3,1)</f>
@@ -6174,7 +6187,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2">
         <v>42871</v>
@@ -6188,7 +6201,7 @@
       </c>
       <c r="E94" s="7">
         <f t="array" ref="E94">INDEX(LINEST($C75:$C94,$A75:$A94,TRUE,TRUE),1,2)</f>
-        <v>205.6157518796993</v>
+        <v>205.86141353383462</v>
       </c>
       <c r="F94" s="7">
         <f t="array" ref="F94">INDEX(LINEST($C75:$C94,$A75:$A94,TRUE,TRUE),3,1)</f>
@@ -6215,7 +6228,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
         <v>42872</v>
@@ -6229,7 +6242,7 @@
       </c>
       <c r="E95" s="7">
         <f t="array" ref="E95">INDEX(LINEST($C76:$C95,$A76:$A95,TRUE,TRUE),1,2)</f>
-        <v>214.51760150375944</v>
+        <v>214.65634586466169</v>
       </c>
       <c r="F95" s="7">
         <f t="array" ref="F95">INDEX(LINEST($C76:$C95,$A76:$A95,TRUE,TRUE),3,1)</f>
@@ -6256,7 +6269,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
         <v>42873</v>
@@ -6270,7 +6283,7 @@
       </c>
       <c r="E96" s="7">
         <f t="array" ref="E96">INDEX(LINEST($C77:$C96,$A77:$A96,TRUE,TRUE),1,2)</f>
-        <v>220.33557142857146</v>
+        <v>220.40543609022561</v>
       </c>
       <c r="F96" s="7">
         <f t="array" ref="F96">INDEX(LINEST($C77:$C96,$A77:$A96,TRUE,TRUE),3,1)</f>
@@ -6297,7 +6310,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2">
         <v>42874</v>
@@ -6311,7 +6324,7 @@
       </c>
       <c r="E97" s="7">
         <f t="array" ref="E97">INDEX(LINEST($C78:$C97,$A78:$A97,TRUE,TRUE),1,2)</f>
-        <v>225.74096992481202</v>
+        <v>225.74957142857141</v>
       </c>
       <c r="F97" s="7">
         <f t="array" ref="F97">INDEX(LINEST($C78:$C97,$A78:$A97,TRUE,TRUE),3,1)</f>
@@ -6338,7 +6351,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2">
         <v>42877</v>
@@ -6352,7 +6365,7 @@
       </c>
       <c r="E98" s="7">
         <f t="array" ref="E98">INDEX(LINEST($C79:$C98,$A79:$A98,TRUE,TRUE),1,2)</f>
-        <v>226.85900000000001</v>
+        <v>226.85600000000002</v>
       </c>
       <c r="F98" s="7">
         <f t="array" ref="F98">INDEX(LINEST($C79:$C98,$A79:$A98,TRUE,TRUE),3,1)</f>
@@ -6379,7 +6392,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
         <v>42878</v>
@@ -6393,7 +6406,7 @@
       </c>
       <c r="E99" s="7">
         <f t="array" ref="E99">INDEX(LINEST($C80:$C99,$A80:$A99,TRUE,TRUE),1,2)</f>
-        <v>225.78166917293237</v>
+        <v>225.79168421052634</v>
       </c>
       <c r="F99" s="7">
         <f t="array" ref="F99">INDEX(LINEST($C80:$C99,$A80:$A99,TRUE,TRUE),3,1)</f>
@@ -6420,7 +6433,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
         <v>42879</v>
@@ -6434,7 +6447,7 @@
       </c>
       <c r="E100" s="7">
         <f t="array" ref="E100">INDEX(LINEST($C81:$C100,$A81:$A100,TRUE,TRUE),1,2)</f>
-        <v>224.42446616541358</v>
+        <v>224.45070676691734</v>
       </c>
       <c r="F100" s="7">
         <f t="array" ref="F100">INDEX(LINEST($C81:$C100,$A81:$A100,TRUE,TRUE),3,1)</f>
@@ -6461,7 +6474,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2">
         <v>42880</v>
@@ -6475,7 +6488,7 @@
       </c>
       <c r="E101" s="7">
         <f t="array" ref="E101">INDEX(LINEST($C82:$C101,$A82:$A101,TRUE,TRUE),1,2)</f>
-        <v>221.68488721804513</v>
+        <v>221.74276691729327</v>
       </c>
       <c r="F101" s="7">
         <f t="array" ref="F101">INDEX(LINEST($C82:$C101,$A82:$A101,TRUE,TRUE),3,1)</f>
@@ -6502,7 +6515,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2">
         <v>42881</v>
@@ -6516,7 +6529,7 @@
       </c>
       <c r="E102" s="7">
         <f t="array" ref="E102">INDEX(LINEST($C83:$C102,$A83:$A102,TRUE,TRUE),1,2)</f>
-        <v>220.0900902255639</v>
+        <v>220.16664661654136</v>
       </c>
       <c r="F102" s="7">
         <f t="array" ref="F102">INDEX(LINEST($C83:$C102,$A83:$A102,TRUE,TRUE),3,1)</f>
@@ -6543,7 +6556,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2">
         <v>42885</v>
@@ -6557,7 +6570,7 @@
       </c>
       <c r="E103" s="7">
         <f t="array" ref="E103">INDEX(LINEST($C84:$C103,$A84:$A103,TRUE,TRUE),1,2)</f>
-        <v>218.32972180451128</v>
+        <v>218.42592481203008</v>
       </c>
       <c r="F103" s="7">
         <f t="array" ref="F103">INDEX(LINEST($C84:$C103,$A84:$A103,TRUE,TRUE),3,1)</f>
@@ -6584,7 +6597,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2">
         <v>42886</v>
@@ -6598,7 +6611,7 @@
       </c>
       <c r="E104" s="7">
         <f t="array" ref="E104">INDEX(LINEST($C85:$C104,$A85:$A104,TRUE,TRUE),1,2)</f>
-        <v>216.86050375939848</v>
+        <v>216.97274436090225</v>
       </c>
       <c r="F104" s="7">
         <f t="array" ref="F104">INDEX(LINEST($C85:$C104,$A85:$A104,TRUE,TRUE),3,1)</f>
@@ -6625,7 +6638,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
         <v>42887</v>
@@ -6639,7 +6652,7 @@
       </c>
       <c r="E105" s="7">
         <f t="array" ref="E105">INDEX(LINEST($C86:$C105,$A86:$A105,TRUE,TRUE),1,2)</f>
-        <v>213.75610526315785</v>
+        <v>213.90245864661651</v>
       </c>
       <c r="F105" s="7">
         <f t="array" ref="F105">INDEX(LINEST($C86:$C105,$A86:$A105,TRUE,TRUE),3,1)</f>
@@ -6666,7 +6679,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2">
         <v>42888</v>
@@ -6680,7 +6693,7 @@
       </c>
       <c r="E106" s="7">
         <f t="array" ref="E106">INDEX(LINEST($C87:$C106,$A87:$A106,TRUE,TRUE),1,2)</f>
-        <v>209.83133834586465</v>
+        <v>210.01994736842104</v>
       </c>
       <c r="F106" s="7">
         <f t="array" ref="F106">INDEX(LINEST($C87:$C106,$A87:$A106,TRUE,TRUE),3,1)</f>
@@ -6707,7 +6720,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2">
         <v>42891</v>
@@ -6721,7 +6734,7 @@
       </c>
       <c r="E107" s="7">
         <f t="array" ref="E107">INDEX(LINEST($C88:$C107,$A88:$A107,TRUE,TRUE),1,2)</f>
-        <v>205.40650375939845</v>
+        <v>205.64112030075185</v>
       </c>
       <c r="F107" s="7">
         <f t="array" ref="F107">INDEX(LINEST($C88:$C107,$A88:$A107,TRUE,TRUE),3,1)</f>
@@ -6748,7 +6761,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2">
         <v>42892</v>
@@ -6762,7 +6775,7 @@
       </c>
       <c r="E108" s="7">
         <f t="array" ref="E108">INDEX(LINEST($C89:$C108,$A89:$A108,TRUE,TRUE),1,2)</f>
-        <v>202.52778195488725</v>
+        <v>202.7912406015038</v>
       </c>
       <c r="F108" s="7">
         <f t="array" ref="F108">INDEX(LINEST($C89:$C108,$A89:$A108,TRUE,TRUE),3,1)</f>
@@ -6789,7 +6802,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2">
         <v>42893</v>
@@ -6803,7 +6816,7 @@
       </c>
       <c r="E109" s="7">
         <f t="array" ref="E109">INDEX(LINEST($C90:$C109,$A90:$A109,TRUE,TRUE),1,2)</f>
-        <v>199.84259398496246</v>
+        <v>200.1326691729324</v>
       </c>
       <c r="F109" s="7">
         <f t="array" ref="F109">INDEX(LINEST($C90:$C109,$A90:$A109,TRUE,TRUE),3,1)</f>
@@ -6830,7 +6843,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2">
         <v>42894</v>
@@ -6844,7 +6857,7 @@
       </c>
       <c r="E110" s="7">
         <f t="array" ref="E110">INDEX(LINEST($C91:$C110,$A91:$A110,TRUE,TRUE),1,2)</f>
-        <v>196.87346616541356</v>
+        <v>197.19233082706768</v>
       </c>
       <c r="F110" s="7">
         <f t="array" ref="F110">INDEX(LINEST($C91:$C110,$A91:$A110,TRUE,TRUE),3,1)</f>
@@ -6871,7 +6884,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2">
         <v>42895</v>
@@ -6885,7 +6898,7 @@
       </c>
       <c r="E111" s="7">
         <f t="array" ref="E111">INDEX(LINEST($C92:$C111,$A92:$A111,TRUE,TRUE),1,2)</f>
-        <v>195.67561654135335</v>
+        <v>196.00512781954885</v>
       </c>
       <c r="F111" s="7">
         <f t="array" ref="F111">INDEX(LINEST($C92:$C111,$A92:$A111,TRUE,TRUE),3,1)</f>
@@ -6912,7 +6925,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2">
         <v>42898</v>
@@ -6926,7 +6939,7 @@
       </c>
       <c r="E112" s="7">
         <f t="array" ref="E112">INDEX(LINEST($C93:$C112,$A93:$A112,TRUE,TRUE),1,2)</f>
-        <v>195.72352631578954</v>
+        <v>196.0513684210527</v>
       </c>
       <c r="F112" s="7">
         <f t="array" ref="F112">INDEX(LINEST($C93:$C112,$A93:$A112,TRUE,TRUE),3,1)</f>
@@ -6953,7 +6966,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2">
         <v>42899</v>
@@ -6967,7 +6980,7 @@
       </c>
       <c r="E113" s="7">
         <f t="array" ref="E113">INDEX(LINEST($C94:$C113,$A94:$A113,TRUE,TRUE),1,2)</f>
-        <v>192.73230827067675</v>
+        <v>193.08810526315796</v>
       </c>
       <c r="F113" s="7">
         <f t="array" ref="F113">INDEX(LINEST($C94:$C113,$A94:$A113,TRUE,TRUE),3,1)</f>
@@ -6994,7 +7007,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
         <v>42900</v>
@@ -7008,7 +7021,7 @@
       </c>
       <c r="E114" s="7">
         <f t="array" ref="E114">INDEX(LINEST($C95:$C114,$A95:$A114,TRUE,TRUE),1,2)</f>
-        <v>191.09621804511283</v>
+        <v>191.46629323308275</v>
       </c>
       <c r="F114" s="7">
         <f t="array" ref="F114">INDEX(LINEST($C95:$C114,$A95:$A114,TRUE,TRUE),3,1)</f>
@@ -7035,7 +7048,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
         <v>42901</v>
@@ -7049,7 +7062,7 @@
       </c>
       <c r="E115" s="7">
         <f t="array" ref="E115">INDEX(LINEST($C96:$C115,$A96:$A115,TRUE,TRUE),1,2)</f>
-        <v>197.55514285714287</v>
+        <v>197.86348120300755</v>
       </c>
       <c r="F115" s="7">
         <f t="array" ref="F115">INDEX(LINEST($C96:$C115,$A96:$A115,TRUE,TRUE),3,1)</f>
@@ -7076,7 +7089,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2">
         <v>42902</v>
@@ -7090,7 +7103,7 @@
       </c>
       <c r="E116" s="7">
         <f t="array" ref="E116">INDEX(LINEST($C97:$C116,$A97:$A116,TRUE,TRUE),1,2)</f>
-        <v>203.71825563909778</v>
+        <v>203.9684285714286</v>
       </c>
       <c r="F116" s="7">
         <f t="array" ref="F116">INDEX(LINEST($C97:$C116,$A97:$A116,TRUE,TRUE),3,1)</f>
@@ -7117,7 +7130,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2">
         <v>42905</v>
@@ -7131,7 +7144,7 @@
       </c>
       <c r="E117" s="7">
         <f t="array" ref="E117">INDEX(LINEST($C98:$C117,$A98:$A117,TRUE,TRUE),1,2)</f>
-        <v>205.71745864661656</v>
+        <v>205.94987218045114</v>
       </c>
       <c r="F117" s="7">
         <f t="array" ref="F117">INDEX(LINEST($C98:$C117,$A98:$A117,TRUE,TRUE),3,1)</f>
@@ -7158,7 +7171,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2">
         <v>42906</v>
@@ -7172,7 +7185,7 @@
       </c>
       <c r="E118" s="7">
         <f t="array" ref="E118">INDEX(LINEST($C99:$C118,$A99:$A118,TRUE,TRUE),1,2)</f>
-        <v>209.23272180451124</v>
+        <v>209.43233834586462</v>
       </c>
       <c r="F118" s="7">
         <f t="array" ref="F118">INDEX(LINEST($C99:$C118,$A99:$A118,TRUE,TRUE),3,1)</f>
@@ -7199,7 +7212,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2">
         <v>42907</v>
@@ -7213,7 +7226,7 @@
       </c>
       <c r="E119" s="7">
         <f t="array" ref="E119">INDEX(LINEST($C100:$C119,$A100:$A119,TRUE,TRUE),1,2)</f>
-        <v>212.72878947368417</v>
+        <v>212.89612781954884</v>
       </c>
       <c r="F119" s="7">
         <f t="array" ref="F119">INDEX(LINEST($C100:$C119,$A100:$A119,TRUE,TRUE),3,1)</f>
@@ -7240,7 +7253,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2">
         <v>42908</v>
@@ -7254,7 +7267,7 @@
       </c>
       <c r="E120" s="7">
         <f t="array" ref="E120">INDEX(LINEST($C101:$C120,$A101:$A120,TRUE,TRUE),1,2)</f>
-        <v>216.13524060150371</v>
+        <v>216.27142105263155</v>
       </c>
       <c r="F120" s="7">
         <f t="array" ref="F120">INDEX(LINEST($C101:$C120,$A101:$A120,TRUE,TRUE),3,1)</f>
@@ -7281,7 +7294,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2">
         <v>42909</v>
@@ -7295,7 +7308,7 @@
       </c>
       <c r="E121" s="7">
         <f t="array" ref="E121">INDEX(LINEST($C102:$C121,$A102:$A121,TRUE,TRUE),1,2)</f>
-        <v>217.77340601503758</v>
+        <v>217.89462406015036</v>
       </c>
       <c r="F121" s="7">
         <f t="array" ref="F121">INDEX(LINEST($C102:$C121,$A102:$A121,TRUE,TRUE),3,1)</f>
@@ -7322,7 +7335,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2">
         <v>42912</v>
@@ -7336,7 +7349,7 @@
       </c>
       <c r="E122" s="7">
         <f t="array" ref="E122">INDEX(LINEST($C103:$C122,$A103:$A122,TRUE,TRUE),1,2)</f>
-        <v>219.69092481203003</v>
+        <v>219.79503759398494</v>
       </c>
       <c r="F122" s="7">
         <f t="array" ref="F122">INDEX(LINEST($C103:$C122,$A103:$A122,TRUE,TRUE),3,1)</f>
@@ -7363,7 +7376,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2">
         <v>42913</v>
@@ -7377,7 +7390,7 @@
       </c>
       <c r="E123" s="7">
         <f t="array" ref="E123">INDEX(LINEST($C104:$C123,$A104:$A123,TRUE,TRUE),1,2)</f>
-        <v>225.36469924812025</v>
+        <v>225.41787969924806</v>
       </c>
       <c r="F123" s="7">
         <f t="array" ref="F123">INDEX(LINEST($C104:$C123,$A104:$A123,TRUE,TRUE),3,1)</f>
@@ -7404,7 +7417,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2">
         <v>42914</v>
@@ -7418,7 +7431,7 @@
       </c>
       <c r="E124" s="7">
         <f t="array" ref="E124">INDEX(LINEST($C105:$C124,$A105:$A124,TRUE,TRUE),1,2)</f>
-        <v>228.17757142857141</v>
+        <v>228.20685714285713</v>
       </c>
       <c r="F124" s="7">
         <f t="array" ref="F124">INDEX(LINEST($C105:$C124,$A105:$A124,TRUE,TRUE),3,1)</f>
@@ -7445,7 +7458,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2">
         <v>42915</v>
@@ -7459,7 +7472,7 @@
       </c>
       <c r="E125" s="7">
         <f t="array" ref="E125">INDEX(LINEST($C106:$C125,$A106:$A125,TRUE,TRUE),1,2)</f>
-        <v>231.40345864661657</v>
+        <v>231.40396992481206</v>
       </c>
       <c r="F125" s="7">
         <f t="array" ref="F125">INDEX(LINEST($C106:$C125,$A106:$A125,TRUE,TRUE),3,1)</f>
@@ -7486,7 +7499,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2">
         <v>42916</v>
@@ -7500,7 +7513,7 @@
       </c>
       <c r="E126" s="7">
         <f t="array" ref="E126">INDEX(LINEST($C107:$C126,$A107:$A126,TRUE,TRUE),1,2)</f>
-        <v>232.41894736842113</v>
+        <v>232.41017293233088</v>
       </c>
       <c r="F126" s="7">
         <f t="array" ref="F126">INDEX(LINEST($C107:$C126,$A107:$A126,TRUE,TRUE),3,1)</f>
@@ -7527,7 +7540,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2">
         <v>42919</v>
@@ -7541,7 +7554,7 @@
       </c>
       <c r="E127" s="7">
         <f t="array" ref="E127">INDEX(LINEST($C108:$C127,$A108:$A127,TRUE,TRUE),1,2)</f>
-        <v>232.9655789473685</v>
+        <v>232.95194736842114</v>
       </c>
       <c r="F127" s="7">
         <f t="array" ref="F127">INDEX(LINEST($C108:$C127,$A108:$A127,TRUE,TRUE),3,1)</f>
@@ -7568,7 +7581,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2">
         <v>42921</v>
@@ -7582,7 +7595,7 @@
       </c>
       <c r="E128" s="7">
         <f t="array" ref="E128">INDEX(LINEST($C109:$C128,$A109:$A128,TRUE,TRUE),1,2)</f>
-        <v>233.96972932330831</v>
+        <v>233.94796992481207</v>
       </c>
       <c r="F128" s="7">
         <f t="array" ref="F128">INDEX(LINEST($C109:$C128,$A109:$A128,TRUE,TRUE),3,1)</f>
@@ -7609,7 +7622,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2">
         <v>42922</v>
@@ -7623,7 +7636,7 @@
       </c>
       <c r="E129" s="7">
         <f t="array" ref="E129">INDEX(LINEST($C110:$C129,$A110:$A129,TRUE,TRUE),1,2)</f>
-        <v>237.77345864661658</v>
+        <v>237.71900751879701</v>
       </c>
       <c r="F129" s="7">
         <f t="array" ref="F129">INDEX(LINEST($C110:$C129,$A110:$A129,TRUE,TRUE),3,1)</f>
@@ -7650,7 +7663,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2">
         <v>42923</v>
@@ -7664,7 +7677,7 @@
       </c>
       <c r="E130" s="7">
         <f t="array" ref="E130">INDEX(LINEST($C111:$C130,$A111:$A130,TRUE,TRUE),1,2)</f>
-        <v>238.61036090225568</v>
+        <v>238.54916541353387</v>
       </c>
       <c r="F130" s="7">
         <f t="array" ref="F130">INDEX(LINEST($C111:$C130,$A111:$A130,TRUE,TRUE),3,1)</f>
@@ -7691,7 +7704,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2">
         <v>42926</v>
@@ -7705,7 +7718,7 @@
       </c>
       <c r="E131" s="7">
         <f t="array" ref="E131">INDEX(LINEST($C112:$C131,$A112:$A131,TRUE,TRUE),1,2)</f>
-        <v>239.66067669172941</v>
+        <v>239.59133082706776</v>
       </c>
       <c r="F131" s="7">
         <f t="array" ref="F131">INDEX(LINEST($C112:$C131,$A112:$A131,TRUE,TRUE),3,1)</f>
@@ -7732,7 +7745,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2">
         <v>42927</v>
@@ -7746,7 +7759,7 @@
       </c>
       <c r="E132" s="7">
         <f t="array" ref="E132">INDEX(LINEST($C113:$C132,$A113:$A132,TRUE,TRUE),1,2)</f>
-        <v>241.11818045112796</v>
+        <v>241.03741353383472</v>
       </c>
       <c r="F132" s="7">
         <f t="array" ref="F132">INDEX(LINEST($C113:$C132,$A113:$A132,TRUE,TRUE),3,1)</f>
@@ -7773,7 +7786,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2">
         <v>42928</v>
@@ -7787,7 +7800,7 @@
       </c>
       <c r="E133" s="7">
         <f t="array" ref="E133">INDEX(LINEST($C114:$C133,$A114:$A133,TRUE,TRUE),1,2)</f>
-        <v>237.41721052631584</v>
+        <v>237.36756390977447</v>
       </c>
       <c r="F133" s="7">
         <f t="array" ref="F133">INDEX(LINEST($C114:$C133,$A114:$A133,TRUE,TRUE),3,1)</f>
@@ -7814,7 +7827,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2">
         <v>42929</v>
@@ -7828,7 +7841,7 @@
       </c>
       <c r="E134" s="7">
         <f t="array" ref="E134">INDEX(LINEST($C115:$C134,$A115:$A134,TRUE,TRUE),1,2)</f>
-        <v>233.69871428571435</v>
+        <v>233.68010526315794</v>
       </c>
       <c r="F134" s="7">
         <f t="array" ref="F134">INDEX(LINEST($C115:$C134,$A115:$A134,TRUE,TRUE),3,1)</f>
@@ -7855,7 +7868,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2">
         <v>42930</v>
@@ -7869,7 +7882,7 @@
       </c>
       <c r="E135" s="7">
         <f t="array" ref="E135">INDEX(LINEST($C116:$C135,$A116:$A135,TRUE,TRUE),1,2)</f>
-        <v>229.16433082706772</v>
+        <v>229.18342857142864</v>
       </c>
       <c r="F135" s="7">
         <f t="array" ref="F135">INDEX(LINEST($C116:$C135,$A116:$A135,TRUE,TRUE),3,1)</f>
@@ -7896,7 +7909,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2">
         <v>42933</v>
@@ -7910,7 +7923,7 @@
       </c>
       <c r="E136" s="7">
         <f t="array" ref="E136">INDEX(LINEST($C117:$C136,$A117:$A136,TRUE,TRUE),1,2)</f>
-        <v>225.03932330827064</v>
+        <v>225.09223308270674</v>
       </c>
       <c r="F136" s="7">
         <f t="array" ref="F136">INDEX(LINEST($C117:$C136,$A117:$A136,TRUE,TRUE),3,1)</f>
@@ -7937,7 +7950,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2">
         <v>42934</v>
@@ -7951,7 +7964,7 @@
       </c>
       <c r="E137" s="7">
         <f t="array" ref="E137">INDEX(LINEST($C118:$C137,$A118:$A137,TRUE,TRUE),1,2)</f>
-        <v>217.21043609022553</v>
+        <v>217.32519548872176</v>
       </c>
       <c r="F137" s="7">
         <f t="array" ref="F137">INDEX(LINEST($C118:$C137,$A118:$A137,TRUE,TRUE),3,1)</f>
@@ -7978,7 +7991,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
         <v>42935</v>
@@ -7992,7 +8005,7 @@
       </c>
       <c r="E138" s="7">
         <f t="array" ref="E138">INDEX(LINEST($C119:$C138,$A119:$A138,TRUE,TRUE),1,2)</f>
-        <v>210.44906766917288</v>
+        <v>210.6174436090225</v>
       </c>
       <c r="F138" s="7">
         <f t="array" ref="F138">INDEX(LINEST($C119:$C138,$A119:$A138,TRUE,TRUE),3,1)</f>
@@ -8019,7 +8032,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2">
         <v>42936</v>
@@ -8033,7 +8046,7 @@
       </c>
       <c r="E139" s="7">
         <f t="array" ref="E139">INDEX(LINEST($C120:$C139,$A120:$A139,TRUE,TRUE),1,2)</f>
-        <v>204.24112781954875</v>
+        <v>204.45804511278186</v>
       </c>
       <c r="F139" s="7">
         <f t="array" ref="F139">INDEX(LINEST($C120:$C139,$A120:$A139,TRUE,TRUE),3,1)</f>
@@ -8060,7 +8073,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2">
         <v>42937</v>
@@ -8074,7 +8087,7 @@
       </c>
       <c r="E140" s="7">
         <f t="array" ref="E140">INDEX(LINEST($C121:$C140,$A121:$A140,TRUE,TRUE),1,2)</f>
-        <v>199.29473684210512</v>
+        <v>199.54966165413521</v>
       </c>
       <c r="F140" s="7">
         <f t="array" ref="F140">INDEX(LINEST($C121:$C140,$A121:$A140,TRUE,TRUE),3,1)</f>
@@ -8101,7 +8114,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2">
         <v>42940</v>
@@ -8115,7 +8128,7 @@
       </c>
       <c r="E141" s="7">
         <f t="array" ref="E141">INDEX(LINEST($C122:$C141,$A122:$A141,TRUE,TRUE),1,2)</f>
-        <v>194.56687218045101</v>
+        <v>194.85742105263148</v>
       </c>
       <c r="F141" s="7">
         <f t="array" ref="F141">INDEX(LINEST($C122:$C141,$A122:$A141,TRUE,TRUE),3,1)</f>
@@ -8142,7 +8155,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2">
         <v>42941</v>
@@ -8156,7 +8169,7 @@
       </c>
       <c r="E142" s="7">
         <f t="array" ref="E142">INDEX(LINEST($C123:$C142,$A123:$A142,TRUE,TRUE),1,2)</f>
-        <v>189.08132330827061</v>
+        <v>189.41287218045107</v>
       </c>
       <c r="F142" s="7">
         <f t="array" ref="F142">INDEX(LINEST($C123:$C142,$A123:$A142,TRUE,TRUE),3,1)</f>
@@ -8183,7 +8196,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2">
         <v>42942</v>
@@ -8197,7 +8210,7 @@
       </c>
       <c r="E143" s="7">
         <f t="array" ref="E143">INDEX(LINEST($C124:$C143,$A124:$A143,TRUE,TRUE),1,2)</f>
-        <v>188.28412781954881</v>
+        <v>188.62138345864656</v>
       </c>
       <c r="F143" s="7">
         <f t="array" ref="F143">INDEX(LINEST($C124:$C143,$A124:$A143,TRUE,TRUE),3,1)</f>
@@ -8224,7 +8237,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2">
         <v>42943</v>
@@ -8238,7 +8251,7 @@
       </c>
       <c r="E144" s="7">
         <f t="array" ref="E144">INDEX(LINEST($C125:$C144,$A125:$A144,TRUE,TRUE),1,2)</f>
-        <v>184.60519548872182</v>
+        <v>184.96880451127822</v>
       </c>
       <c r="F144" s="7">
         <f t="array" ref="F144">INDEX(LINEST($C125:$C144,$A125:$A144,TRUE,TRUE),3,1)</f>
@@ -8265,7 +8278,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2">
         <v>42944</v>
@@ -8279,7 +8292,7 @@
       </c>
       <c r="E145" s="7">
         <f t="array" ref="E145">INDEX(LINEST($C126:$C145,$A126:$A145,TRUE,TRUE),1,2)</f>
-        <v>186.5271203007519</v>
+        <v>186.87570676691732</v>
       </c>
       <c r="F145" s="7">
         <f t="array" ref="F145">INDEX(LINEST($C126:$C145,$A126:$A145,TRUE,TRUE),3,1)</f>
@@ -8306,7 +8319,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2">
         <v>42947</v>
@@ -8320,7 +8333,7 @@
       </c>
       <c r="E146" s="7">
         <f t="array" ref="E146">INDEX(LINEST($C127:$C146,$A127:$A146,TRUE,TRUE),1,2)</f>
-        <v>188.88154135338345</v>
+        <v>189.21192481203008</v>
       </c>
       <c r="F146" s="7">
         <f t="array" ref="F146">INDEX(LINEST($C127:$C146,$A127:$A146,TRUE,TRUE),3,1)</f>
@@ -8347,7 +8360,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2">
         <v>42948</v>
@@ -8361,7 +8374,7 @@
       </c>
       <c r="E147" s="7">
         <f t="array" ref="E147">INDEX(LINEST($C128:$C147,$A128:$A147,TRUE,TRUE),1,2)</f>
-        <v>190.37621052631582</v>
+        <v>190.69500751879701</v>
       </c>
       <c r="F147" s="7">
         <f t="array" ref="F147">INDEX(LINEST($C128:$C147,$A128:$A147,TRUE,TRUE),3,1)</f>
@@ -8388,7 +8401,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2">
         <v>42949</v>
@@ -8402,7 +8415,7 @@
       </c>
       <c r="E148" s="7">
         <f t="array" ref="E148">INDEX(LINEST($C129:$C148,$A129:$A148,TRUE,TRUE),1,2)</f>
-        <v>191.51327819548882</v>
+        <v>191.82310526315797</v>
       </c>
       <c r="F148" s="7">
         <f t="array" ref="F148">INDEX(LINEST($C129:$C148,$A129:$A148,TRUE,TRUE),3,1)</f>
@@ -8429,7 +8442,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2">
         <v>42950</v>
@@ -8443,7 +8456,7 @@
       </c>
       <c r="E149" s="7">
         <f t="array" ref="E149">INDEX(LINEST($C130:$C149,$A130:$A149,TRUE,TRUE),1,2)</f>
-        <v>199.20505263157898</v>
+        <v>199.45931578947372</v>
       </c>
       <c r="F149" s="7">
         <f t="array" ref="F149">INDEX(LINEST($C130:$C149,$A130:$A149,TRUE,TRUE),3,1)</f>
@@ -8470,7 +8483,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2">
         <v>42951</v>
@@ -8484,7 +8497,7 @@
       </c>
       <c r="E150" s="7">
         <f t="array" ref="E150">INDEX(LINEST($C131:$C150,$A131:$A150,TRUE,TRUE),1,2)</f>
-        <v>204.11935338345864</v>
+        <v>204.33837593984961</v>
       </c>
       <c r="F150" s="7">
         <f t="array" ref="F150">INDEX(LINEST($C131:$C150,$A131:$A150,TRUE,TRUE),3,1)</f>
@@ -8511,7 +8524,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2">
         <v>42954</v>
@@ -8525,7 +8538,7 @@
       </c>
       <c r="E151" s="7">
         <f t="array" ref="E151">INDEX(LINEST($C132:$C151,$A132:$A151,TRUE,TRUE),1,2)</f>
-        <v>208.74284210526321</v>
+        <v>208.92926315789481</v>
       </c>
       <c r="F151" s="7">
         <f t="array" ref="F151">INDEX(LINEST($C132:$C151,$A132:$A151,TRUE,TRUE),3,1)</f>
@@ -8552,7 +8565,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2">
         <v>42955</v>
@@ -8566,7 +8579,7 @@
       </c>
       <c r="E152" s="7">
         <f t="array" ref="E152">INDEX(LINEST($C133:$C152,$A133:$A152,TRUE,TRUE),1,2)</f>
-        <v>216.07825563909779</v>
+        <v>216.21322556390982</v>
       </c>
       <c r="F152" s="7">
         <f t="array" ref="F152">INDEX(LINEST($C133:$C152,$A133:$A152,TRUE,TRUE),3,1)</f>
@@ -8593,7 +8606,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2">
         <v>42956</v>
@@ -8607,7 +8620,7 @@
       </c>
       <c r="E153" s="7">
         <f t="array" ref="E153">INDEX(LINEST($C134:$C153,$A134:$A153,TRUE,TRUE),1,2)</f>
-        <v>220.59242857142863</v>
+        <v>220.69585714285719</v>
       </c>
       <c r="F153" s="7">
         <f t="array" ref="F153">INDEX(LINEST($C134:$C153,$A134:$A153,TRUE,TRUE),3,1)</f>
@@ -8634,7 +8647,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2">
         <v>42957</v>
@@ -8648,7 +8661,7 @@
       </c>
       <c r="E154" s="7">
         <f t="array" ref="E154">INDEX(LINEST($C135:$C154,$A135:$A154,TRUE,TRUE),1,2)</f>
-        <v>231.59331578947376</v>
+        <v>231.61914285714292</v>
       </c>
       <c r="F154" s="7">
         <f t="array" ref="F154">INDEX(LINEST($C135:$C154,$A135:$A154,TRUE,TRUE),3,1)</f>
@@ -8675,7 +8688,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2">
         <v>42958</v>
@@ -8689,7 +8702,7 @@
       </c>
       <c r="E155" s="7">
         <f t="array" ref="E155">INDEX(LINEST($C136:$C155,$A136:$A155,TRUE,TRUE),1,2)</f>
-        <v>239.36609022556402</v>
+        <v>239.33747368421066</v>
       </c>
       <c r="F155" s="7">
         <f t="array" ref="F155">INDEX(LINEST($C136:$C155,$A136:$A155,TRUE,TRUE),3,1)</f>
@@ -8716,7 +8729,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2">
         <v>42961</v>
@@ -8730,7 +8743,7 @@
       </c>
       <c r="E156" s="7">
         <f t="array" ref="E156">INDEX(LINEST($C137:$C156,$A137:$A156,TRUE,TRUE),1,2)</f>
-        <v>242.35270676691741</v>
+        <v>242.30409022556401</v>
       </c>
       <c r="F156" s="7">
         <f t="array" ref="F156">INDEX(LINEST($C137:$C156,$A137:$A156,TRUE,TRUE),3,1)</f>
@@ -8757,7 +8770,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2">
         <v>42962</v>
@@ -8771,7 +8784,7 @@
       </c>
       <c r="E157" s="7">
         <f t="array" ref="E157">INDEX(LINEST($C138:$C157,$A138:$A157,TRUE,TRUE),1,2)</f>
-        <v>245.32445864661662</v>
+        <v>245.25616541353392</v>
       </c>
       <c r="F157" s="7">
         <f t="array" ref="F157">INDEX(LINEST($C138:$C157,$A138:$A157,TRUE,TRUE),3,1)</f>
@@ -8798,7 +8811,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2">
         <v>42963</v>
@@ -8812,7 +8825,7 @@
       </c>
       <c r="E158" s="7">
         <f t="array" ref="E158">INDEX(LINEST($C139:$C158,$A139:$A158,TRUE,TRUE),1,2)</f>
-        <v>244.67432330827069</v>
+        <v>244.61088721804512</v>
       </c>
       <c r="F158" s="7">
         <f t="array" ref="F158">INDEX(LINEST($C139:$C158,$A139:$A158,TRUE,TRUE),3,1)</f>
@@ -8839,7 +8852,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2">
         <v>42964</v>
@@ -8853,7 +8866,7 @@
       </c>
       <c r="E159" s="7">
         <f t="array" ref="E159">INDEX(LINEST($C140:$C159,$A140:$A159,TRUE,TRUE),1,2)</f>
-        <v>251.34426315789474</v>
+        <v>251.23505263157895</v>
       </c>
       <c r="F159" s="7">
         <f t="array" ref="F159">INDEX(LINEST($C140:$C159,$A140:$A159,TRUE,TRUE),3,1)</f>
@@ -8880,7 +8893,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2">
         <v>42965</v>
@@ -8894,7 +8907,7 @@
       </c>
       <c r="E160" s="7">
         <f t="array" ref="E160">INDEX(LINEST($C141:$C160,$A141:$A160,TRUE,TRUE),1,2)</f>
-        <v>258.5248947368421</v>
+        <v>258.36705263157893</v>
       </c>
       <c r="F160" s="7">
         <f t="array" ref="F160">INDEX(LINEST($C141:$C160,$A141:$A160,TRUE,TRUE),3,1)</f>
@@ -8921,7 +8934,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2">
         <v>42968</v>
@@ -8935,7 +8948,7 @@
       </c>
       <c r="E161" s="7">
         <f t="array" ref="E161">INDEX(LINEST($C142:$C161,$A142:$A161,TRUE,TRUE),1,2)</f>
-        <v>264.66963157894742</v>
+        <v>264.47076691729325</v>
       </c>
       <c r="F161" s="7">
         <f t="array" ref="F161">INDEX(LINEST($C142:$C161,$A142:$A161,TRUE,TRUE),3,1)</f>
@@ -8962,7 +8975,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2">
         <v>42969</v>
@@ -8976,7 +8989,7 @@
       </c>
       <c r="E162" s="7">
         <f t="array" ref="E162">INDEX(LINEST($C143:$C162,$A143:$A162,TRUE,TRUE),1,2)</f>
-        <v>263.51465413533833</v>
+        <v>263.32410526315789</v>
       </c>
       <c r="F162" s="7">
         <f t="array" ref="F162">INDEX(LINEST($C143:$C162,$A143:$A162,TRUE,TRUE),3,1)</f>
@@ -9003,7 +9016,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2">
         <v>42970</v>
@@ -9017,7 +9030,7 @@
       </c>
       <c r="E163" s="7">
         <f t="array" ref="E163">INDEX(LINEST($C144:$C163,$A144:$A163,TRUE,TRUE),1,2)</f>
-        <v>263.67533834586465</v>
+        <v>263.48409022556388</v>
       </c>
       <c r="F163" s="7">
         <f t="array" ref="F163">INDEX(LINEST($C144:$C163,$A144:$A163,TRUE,TRUE),3,1)</f>
@@ -9044,7 +9057,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2">
         <v>42971</v>
@@ -9058,7 +9071,7 @@
       </c>
       <c r="E164" s="7">
         <f t="array" ref="E164">INDEX(LINEST($C145:$C164,$A145:$A164,TRUE,TRUE),1,2)</f>
-        <v>264.93004511278201</v>
+        <v>264.73087218045117</v>
       </c>
       <c r="F164" s="7">
         <f t="array" ref="F164">INDEX(LINEST($C145:$C164,$A145:$A164,TRUE,TRUE),3,1)</f>
@@ -9085,7 +9098,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2">
         <v>42972</v>
@@ -9099,7 +9112,7 @@
       </c>
       <c r="E165" s="7">
         <f t="array" ref="E165">INDEX(LINEST($C146:$C165,$A146:$A165,TRUE,TRUE),1,2)</f>
-        <v>264.97539849624064</v>
+        <v>264.77649624060155</v>
       </c>
       <c r="F165" s="7">
         <f t="array" ref="F165">INDEX(LINEST($C146:$C165,$A146:$A165,TRUE,TRUE),3,1)</f>
@@ -9126,7 +9139,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2">
         <v>42975</v>
@@ -9140,7 +9153,7 @@
       </c>
       <c r="E166" s="7">
         <f t="array" ref="E166">INDEX(LINEST($C147:$C166,$A147:$A166,TRUE,TRUE),1,2)</f>
-        <v>264.82544360902261</v>
+        <v>264.628112781955</v>
       </c>
       <c r="F166" s="7">
         <f t="array" ref="F166">INDEX(LINEST($C147:$C166,$A147:$A166,TRUE,TRUE),3,1)</f>
@@ -9167,7 +9180,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2">
         <v>42976</v>
@@ -9181,7 +9194,7 @@
       </c>
       <c r="E167" s="7">
         <f t="array" ref="E167">INDEX(LINEST($C148:$C167,$A148:$A167,TRUE,TRUE),1,2)</f>
-        <v>262.27604511278196</v>
+        <v>262.09551127819549</v>
       </c>
       <c r="F167" s="7">
         <f t="array" ref="F167">INDEX(LINEST($C148:$C167,$A148:$A167,TRUE,TRUE),3,1)</f>
@@ -9208,7 +9221,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2">
         <v>42977</v>
@@ -9222,7 +9235,7 @@
       </c>
       <c r="E168" s="7">
         <f t="array" ref="E168">INDEX(LINEST($C149:$C168,$A149:$A168,TRUE,TRUE),1,2)</f>
-        <v>256.41305263157898</v>
+        <v>256.27045864661659</v>
       </c>
       <c r="F168" s="7">
         <f t="array" ref="F168">INDEX(LINEST($C149:$C168,$A149:$A168,TRUE,TRUE),3,1)</f>
@@ -9249,7 +9262,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2">
         <v>42978</v>
@@ -9263,7 +9276,7 @@
       </c>
       <c r="E169" s="7">
         <f t="array" ref="E169">INDEX(LINEST($C150:$C169,$A150:$A169,TRUE,TRUE),1,2)</f>
-        <v>248.17657142857146</v>
+        <v>248.08700000000005</v>
       </c>
       <c r="F169" s="7">
         <f t="array" ref="F169">INDEX(LINEST($C150:$C169,$A150:$A169,TRUE,TRUE),3,1)</f>
@@ -9290,7 +9303,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2">
         <v>42979</v>
@@ -9304,7 +9317,7 @@
       </c>
       <c r="E170" s="7">
         <f t="array" ref="E170">INDEX(LINEST($C151:$C170,$A151:$A170,TRUE,TRUE),1,2)</f>
-        <v>238.13980451127821</v>
+        <v>238.11384962406018</v>
       </c>
       <c r="F170" s="7">
         <f t="array" ref="F170">INDEX(LINEST($C151:$C170,$A151:$A170,TRUE,TRUE),3,1)</f>
@@ -9331,7 +9344,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2">
         <v>42983</v>
@@ -9345,7 +9358,7 @@
       </c>
       <c r="E171" s="7">
         <f t="array" ref="E171">INDEX(LINEST($C152:$C171,$A152:$A171,TRUE,TRUE),1,2)</f>
-        <v>230.72813533834585</v>
+        <v>230.74798496240601</v>
       </c>
       <c r="F171" s="7">
         <f t="array" ref="F171">INDEX(LINEST($C152:$C171,$A152:$A171,TRUE,TRUE),3,1)</f>
@@ -9372,7 +9385,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2">
         <v>42984</v>
@@ -9386,7 +9399,7 @@
       </c>
       <c r="E172" s="7">
         <f t="array" ref="E172">INDEX(LINEST($C153:$C172,$A153:$A172,TRUE,TRUE),1,2)</f>
-        <v>222.50942857142863</v>
+        <v>222.57993984962411</v>
       </c>
       <c r="F172" s="7">
         <f t="array" ref="F172">INDEX(LINEST($C153:$C172,$A153:$A172,TRUE,TRUE),3,1)</f>
@@ -9413,7 +9426,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2">
         <v>42985</v>
@@ -9427,7 +9440,7 @@
       </c>
       <c r="E173" s="7">
         <f t="array" ref="E173">INDEX(LINEST($C154:$C173,$A154:$A173,TRUE,TRUE),1,2)</f>
-        <v>214.2006165413535</v>
+        <v>214.32171428571439</v>
       </c>
       <c r="F173" s="7">
         <f t="array" ref="F173">INDEX(LINEST($C154:$C173,$A154:$A173,TRUE,TRUE),3,1)</f>
@@ -9454,7 +9467,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2">
         <v>42986</v>
@@ -9468,7 +9481,7 @@
       </c>
       <c r="E174" s="7">
         <f t="array" ref="E174">INDEX(LINEST($C155:$C174,$A155:$A174,TRUE,TRUE),1,2)</f>
-        <v>215.10527819548872</v>
+        <v>215.22092481203009</v>
       </c>
       <c r="F174" s="7">
         <f t="array" ref="F174">INDEX(LINEST($C155:$C174,$A155:$A174,TRUE,TRUE),3,1)</f>
@@ -9495,7 +9508,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2">
         <v>42989</v>
@@ -9509,7 +9522,7 @@
       </c>
       <c r="E175" s="7">
         <f t="array" ref="E175">INDEX(LINEST($C156:$C175,$A156:$A175,TRUE,TRUE),1,2)</f>
-        <v>209.98668421052631</v>
+        <v>210.13421804511276</v>
       </c>
       <c r="F175" s="7">
         <f t="array" ref="F175">INDEX(LINEST($C156:$C175,$A156:$A175,TRUE,TRUE),3,1)</f>
@@ -9536,7 +9549,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2">
         <v>42990</v>
@@ -9550,7 +9563,7 @@
       </c>
       <c r="E176" s="7">
         <f t="array" ref="E176">INDEX(LINEST($C157:$C176,$A157:$A176,TRUE,TRUE),1,2)</f>
-        <v>198.03465413533834</v>
+        <v>198.25452631578946</v>
       </c>
       <c r="F176" s="7">
         <f t="array" ref="F176">INDEX(LINEST($C157:$C176,$A157:$A176,TRUE,TRUE),3,1)</f>
@@ -9577,7 +9590,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2">
         <v>42991</v>
@@ -9591,7 +9604,7 @@
       </c>
       <c r="E177" s="7">
         <f t="array" ref="E177">INDEX(LINEST($C158:$C177,$A158:$A177,TRUE,TRUE),1,2)</f>
-        <v>186.55085714285718</v>
+        <v>186.83942857142858</v>
       </c>
       <c r="F177" s="7">
         <f t="array" ref="F177">INDEX(LINEST($C158:$C177,$A158:$A177,TRUE,TRUE),3,1)</f>
@@ -9618,7 +9631,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2">
         <v>42992</v>
@@ -9632,7 +9645,7 @@
       </c>
       <c r="E178" s="7">
         <f t="array" ref="E178">INDEX(LINEST($C159:$C178,$A159:$A178,TRUE,TRUE),1,2)</f>
-        <v>174.89130827067663</v>
+        <v>175.24866165413528</v>
       </c>
       <c r="F178" s="7">
         <f t="array" ref="F178">INDEX(LINEST($C159:$C178,$A159:$A178,TRUE,TRUE),3,1)</f>
@@ -9659,7 +9672,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2">
         <v>42993</v>
@@ -9673,7 +9686,7 @@
       </c>
       <c r="E179" s="7">
         <f t="array" ref="E179">INDEX(LINEST($C160:$C179,$A160:$A179,TRUE,TRUE),1,2)</f>
-        <v>173.04769172932325</v>
+        <v>173.41593984962401</v>
       </c>
       <c r="F179" s="7">
         <f t="array" ref="F179">INDEX(LINEST($C160:$C179,$A160:$A179,TRUE,TRUE),3,1)</f>
@@ -9700,7 +9713,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2">
         <v>42996</v>
@@ -9714,7 +9727,7 @@
       </c>
       <c r="E180" s="7">
         <f t="array" ref="E180">INDEX(LINEST($C161:$C180,$A161:$A180,TRUE,TRUE),1,2)</f>
-        <v>172.76325563909765</v>
+        <v>173.13333082706757</v>
       </c>
       <c r="F180" s="7">
         <f t="array" ref="F180">INDEX(LINEST($C161:$C180,$A161:$A180,TRUE,TRUE),3,1)</f>
@@ -9741,7 +9754,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2">
         <v>42997</v>
@@ -9755,7 +9768,7 @@
       </c>
       <c r="E181" s="7">
         <f t="array" ref="E181">INDEX(LINEST($C162:$C181,$A162:$A181,TRUE,TRUE),1,2)</f>
-        <v>173.42681203007515</v>
+        <v>173.79315037593983</v>
       </c>
       <c r="F181" s="7">
         <f t="array" ref="F181">INDEX(LINEST($C162:$C181,$A162:$A181,TRUE,TRUE),3,1)</f>
@@ -9782,7 +9795,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2">
         <v>42998</v>
@@ -9796,7 +9809,7 @@
       </c>
       <c r="E182" s="7">
         <f t="array" ref="E182">INDEX(LINEST($C163:$C182,$A163:$A182,TRUE,TRUE),1,2)</f>
-        <v>169.2492631578946</v>
+        <v>169.63945112781943</v>
       </c>
       <c r="F182" s="7">
         <f t="array" ref="F182">INDEX(LINEST($C163:$C182,$A163:$A182,TRUE,TRUE),3,1)</f>
@@ -9823,7 +9836,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2">
         <v>42999</v>
@@ -9837,7 +9850,7 @@
       </c>
       <c r="E183" s="7">
         <f t="array" ref="E183">INDEX(LINEST($C164:$C183,$A164:$A183,TRUE,TRUE),1,2)</f>
-        <v>170.3464962406014</v>
+        <v>170.72973684210518</v>
       </c>
       <c r="F183" s="7">
         <f t="array" ref="F183">INDEX(LINEST($C164:$C183,$A164:$A183,TRUE,TRUE),3,1)</f>
@@ -9864,7 +9877,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2">
         <v>43000</v>
@@ -9878,7 +9891,7 @@
       </c>
       <c r="E184" s="7">
         <f t="array" ref="E184">INDEX(LINEST($C165:$C184,$A165:$A184,TRUE,TRUE),1,2)</f>
-        <v>174.37842105263155</v>
+        <v>174.73805263157891</v>
       </c>
       <c r="F184" s="7">
         <f t="array" ref="F184">INDEX(LINEST($C165:$C184,$A165:$A184,TRUE,TRUE),3,1)</f>
@@ -9905,7 +9918,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2">
         <v>43003</v>
@@ -9919,7 +9932,7 @@
       </c>
       <c r="E185" s="7">
         <f t="array" ref="E185">INDEX(LINEST($C166:$C185,$A166:$A185,TRUE,TRUE),1,2)</f>
-        <v>179.78581954887213</v>
+        <v>180.11393233082703</v>
       </c>
       <c r="F185" s="7">
         <f t="array" ref="F185">INDEX(LINEST($C166:$C185,$A166:$A185,TRUE,TRUE),3,1)</f>
@@ -9946,7 +9959,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2">
         <v>43004</v>
@@ -9960,7 +9973,7 @@
       </c>
       <c r="E186" s="7">
         <f t="array" ref="E186">INDEX(LINEST($C167:$C186,$A167:$A186,TRUE,TRUE),1,2)</f>
-        <v>186.26875187969918</v>
+        <v>186.55961654135331</v>
       </c>
       <c r="F186" s="7">
         <f t="array" ref="F186">INDEX(LINEST($C167:$C186,$A167:$A186,TRUE,TRUE),3,1)</f>
@@ -9987,7 +10000,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2">
         <v>43005</v>
@@ -10001,7 +10014,7 @@
       </c>
       <c r="E187" s="7">
         <f t="array" ref="E187">INDEX(LINEST($C168:$C187,$A168:$A187,TRUE,TRUE),1,2)</f>
-        <v>191.26935338345859</v>
+        <v>191.53197744360898</v>
       </c>
       <c r="F187" s="7">
         <f t="array" ref="F187">INDEX(LINEST($C168:$C187,$A168:$A187,TRUE,TRUE),3,1)</f>
@@ -10028,7 +10041,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2">
         <v>43006</v>
@@ -10042,7 +10055,7 @@
       </c>
       <c r="E188" s="7">
         <f t="array" ref="E188">INDEX(LINEST($C169:$C188,$A169:$A188,TRUE,TRUE),1,2)</f>
-        <v>194.078030075188</v>
+        <v>194.32484962406019</v>
       </c>
       <c r="F188" s="7">
         <f t="array" ref="F188">INDEX(LINEST($C169:$C188,$A169:$A188,TRUE,TRUE),3,1)</f>
@@ -10069,7 +10082,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2">
         <v>43007</v>
@@ -10083,7 +10096,7 @@
       </c>
       <c r="E189" s="7">
         <f t="array" ref="E189">INDEX(LINEST($C170:$C189,$A170:$A189,TRUE,TRUE),1,2)</f>
-        <v>192.17684210526318</v>
+        <v>192.43426315789475</v>
       </c>
       <c r="F189" s="7">
         <f t="array" ref="F189">INDEX(LINEST($C170:$C189,$A170:$A189,TRUE,TRUE),3,1)</f>
@@ -10110,7 +10123,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2">
         <v>43010</v>
@@ -10124,7 +10137,7 @@
       </c>
       <c r="E190" s="7">
         <f t="array" ref="E190">INDEX(LINEST($C171:$C190,$A171:$A190,TRUE,TRUE),1,2)</f>
-        <v>187.97264661654131</v>
+        <v>188.25357894736837</v>
       </c>
       <c r="F190" s="7">
         <f t="array" ref="F190">INDEX(LINEST($C171:$C190,$A171:$A190,TRUE,TRUE),3,1)</f>
@@ -10151,7 +10164,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2">
         <v>43011</v>
@@ -10165,7 +10178,7 @@
       </c>
       <c r="E191" s="7">
         <f t="array" ref="E191">INDEX(LINEST($C172:$C191,$A172:$A191,TRUE,TRUE),1,2)</f>
-        <v>188.79228571428564</v>
+        <v>189.06924812030067</v>
       </c>
       <c r="F191" s="7">
         <f t="array" ref="F191">INDEX(LINEST($C172:$C191,$A172:$A191,TRUE,TRUE),3,1)</f>
@@ -10192,7 +10205,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2">
         <v>43012</v>
@@ -10206,7 +10219,7 @@
       </c>
       <c r="E192" s="7">
         <f t="array" ref="E192">INDEX(LINEST($C173:$C192,$A173:$A192,TRUE,TRUE),1,2)</f>
-        <v>188.67135338345855</v>
+        <v>188.94942857142848</v>
       </c>
       <c r="F192" s="7">
         <f t="array" ref="F192">INDEX(LINEST($C173:$C192,$A173:$A192,TRUE,TRUE),3,1)</f>
@@ -10233,7 +10246,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2">
         <v>43013</v>
@@ -10247,7 +10260,7 @@
       </c>
       <c r="E193" s="7">
         <f t="array" ref="E193">INDEX(LINEST($C174:$C193,$A174:$A193,TRUE,TRUE),1,2)</f>
-        <v>186.91881954887208</v>
+        <v>187.20733834586457</v>
       </c>
       <c r="F193" s="7">
         <f t="array" ref="F193">INDEX(LINEST($C174:$C193,$A174:$A193,TRUE,TRUE),3,1)</f>
@@ -10274,7 +10287,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2">
         <v>43014</v>
@@ -10288,7 +10301,7 @@
       </c>
       <c r="E194" s="7">
         <f t="array" ref="E194">INDEX(LINEST($C175:$C194,$A175:$A194,TRUE,TRUE),1,2)</f>
-        <v>189.07202255639089</v>
+        <v>189.34958646616533</v>
       </c>
       <c r="F194" s="7">
         <f t="array" ref="F194">INDEX(LINEST($C175:$C194,$A175:$A194,TRUE,TRUE),3,1)</f>
@@ -10315,7 +10328,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2">
         <v>43017</v>
@@ -10329,7 +10342,7 @@
       </c>
       <c r="E195" s="7">
         <f t="array" ref="E195">INDEX(LINEST($C176:$C195,$A176:$A195,TRUE,TRUE),1,2)</f>
-        <v>187.23823308270667</v>
+        <v>187.52578195488712</v>
       </c>
       <c r="F195" s="7">
         <f t="array" ref="F195">INDEX(LINEST($C176:$C195,$A176:$A195,TRUE,TRUE),3,1)</f>
@@ -10356,7 +10369,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2">
         <v>43018</v>
@@ -10370,7 +10383,7 @@
       </c>
       <c r="E196" s="7">
         <f t="array" ref="E196">INDEX(LINEST($C177:$C196,$A177:$A196,TRUE,TRUE),1,2)</f>
-        <v>182.93289473684203</v>
+        <v>183.24360150375932</v>
       </c>
       <c r="F196" s="7">
         <f t="array" ref="F196">INDEX(LINEST($C177:$C196,$A177:$A196,TRUE,TRUE),3,1)</f>
@@ -10397,7 +10410,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2">
         <v>43019</v>
@@ -10411,7 +10424,7 @@
       </c>
       <c r="E197" s="7">
         <f t="array" ref="E197">INDEX(LINEST($C178:$C197,$A178:$A197,TRUE,TRUE),1,2)</f>
-        <v>178.76160902255634</v>
+        <v>179.09457894736835</v>
       </c>
       <c r="F197" s="7">
         <f t="array" ref="F197">INDEX(LINEST($C178:$C197,$A178:$A197,TRUE,TRUE),3,1)</f>
@@ -10438,7 +10451,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2">
         <v>43020</v>
@@ -10452,7 +10465,7 @@
       </c>
       <c r="E198" s="7">
         <f t="array" ref="E198">INDEX(LINEST($C179:$C198,$A179:$A198,TRUE,TRUE),1,2)</f>
-        <v>177.40300751879695</v>
+        <v>177.74292481203003</v>
       </c>
       <c r="F198" s="7">
         <f t="array" ref="F198">INDEX(LINEST($C179:$C198,$A179:$A198,TRUE,TRUE),3,1)</f>
@@ -10479,7 +10492,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2">
         <v>43021</v>
@@ -10493,7 +10506,7 @@
       </c>
       <c r="E199" s="7">
         <f t="array" ref="E199">INDEX(LINEST($C180:$C199,$A180:$A199,TRUE,TRUE),1,2)</f>
-        <v>175.83959398496239</v>
+        <v>176.18746616541353</v>
       </c>
       <c r="F199" s="7">
         <f t="array" ref="F199">INDEX(LINEST($C180:$C199,$A180:$A199,TRUE,TRUE),3,1)</f>
@@ -10520,7 +10533,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2">
         <v>43024</v>
@@ -10534,7 +10547,7 @@
       </c>
       <c r="E200" s="7">
         <f t="array" ref="E200">INDEX(LINEST($C181:$C200,$A181:$A200,TRUE,TRUE),1,2)</f>
-        <v>173.40493233082708</v>
+        <v>173.76522556390981</v>
       </c>
       <c r="F200" s="7">
         <f t="array" ref="F200">INDEX(LINEST($C181:$C200,$A181:$A200,TRUE,TRUE),3,1)</f>
@@ -10561,7 +10574,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2">
         <v>43025</v>
@@ -10575,7 +10588,7 @@
       </c>
       <c r="E201" s="7">
         <f t="array" ref="E201">INDEX(LINEST($C182:$C201,$A182:$A201,TRUE,TRUE),1,2)</f>
-        <v>171.28712030075189</v>
+        <v>171.65802255639102</v>
       </c>
       <c r="F201" s="7">
         <f t="array" ref="F201">INDEX(LINEST($C182:$C201,$A182:$A201,TRUE,TRUE),3,1)</f>
@@ -10602,7 +10615,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2">
         <v>43026</v>
@@ -10616,7 +10629,7 @@
       </c>
       <c r="E202" s="7">
         <f t="array" ref="E202">INDEX(LINEST($C183:$C202,$A183:$A202,TRUE,TRUE),1,2)</f>
-        <v>169.7752255639098</v>
+        <v>170.15350375939852</v>
       </c>
       <c r="F202" s="7">
         <f t="array" ref="F202">INDEX(LINEST($C183:$C202,$A183:$A202,TRUE,TRUE),3,1)</f>
@@ -10643,7 +10656,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2">
         <v>43027</v>
@@ -10657,7 +10670,7 @@
       </c>
       <c r="E203" s="7">
         <f t="array" ref="E203">INDEX(LINEST($C184:$C203,$A184:$A203,TRUE,TRUE),1,2)</f>
-        <v>171.63568421052639</v>
+        <v>172.00392481203014</v>
       </c>
       <c r="F203" s="7">
         <f t="array" ref="F203">INDEX(LINEST($C184:$C203,$A184:$A203,TRUE,TRUE),3,1)</f>
@@ -10684,7 +10697,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2">
         <v>43028</v>
@@ -10698,7 +10711,7 @@
       </c>
       <c r="E204" s="7">
         <f t="array" ref="E204">INDEX(LINEST($C185:$C204,$A185:$A204,TRUE,TRUE),1,2)</f>
-        <v>171.6975037593985</v>
+        <v>172.06542105263159</v>
       </c>
       <c r="F204" s="7">
         <f t="array" ref="F204">INDEX(LINEST($C185:$C204,$A185:$A204,TRUE,TRUE),3,1)</f>
@@ -10725,7 +10738,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2">
         <v>43031</v>
@@ -10739,7 +10752,7 @@
       </c>
       <c r="E205" s="7">
         <f t="array" ref="E205">INDEX(LINEST($C186:$C205,$A186:$A205,TRUE,TRUE),1,2)</f>
-        <v>178.05845112781961</v>
+        <v>178.39354135338351</v>
       </c>
       <c r="F205" s="7">
         <f t="array" ref="F205">INDEX(LINEST($C186:$C205,$A186:$A205,TRUE,TRUE),3,1)</f>
@@ -10766,7 +10779,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2">
         <v>43032</v>
@@ -10780,7 +10793,7 @@
       </c>
       <c r="E206" s="7">
         <f t="array" ref="E206">INDEX(LINEST($C187:$C206,$A187:$A206,TRUE,TRUE),1,2)</f>
-        <v>184.85771428571431</v>
+        <v>185.15814285714288</v>
       </c>
       <c r="F206" s="7">
         <f t="array" ref="F206">INDEX(LINEST($C187:$C206,$A187:$A206,TRUE,TRUE),3,1)</f>
@@ -10807,7 +10820,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2">
         <v>43033</v>
@@ -10821,7 +10834,7 @@
       </c>
       <c r="E207" s="7">
         <f t="array" ref="E207">INDEX(LINEST($C188:$C207,$A188:$A207,TRUE,TRUE),1,2)</f>
-        <v>194.27772180451134</v>
+        <v>194.5299624060151</v>
       </c>
       <c r="F207" s="7">
         <f t="array" ref="F207">INDEX(LINEST($C188:$C207,$A188:$A207,TRUE,TRUE),3,1)</f>
@@ -10848,7 +10861,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2">
         <v>43034</v>
@@ -10862,7 +10875,7 @@
       </c>
       <c r="E208" s="7">
         <f t="array" ref="E208">INDEX(LINEST($C189:$C208,$A189:$A208,TRUE,TRUE),1,2)</f>
-        <v>203.50999248120314</v>
+        <v>203.71548872180463</v>
       </c>
       <c r="F208" s="7">
         <f t="array" ref="F208">INDEX(LINEST($C189:$C208,$A189:$A208,TRUE,TRUE),3,1)</f>
@@ -10889,7 +10902,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2">
         <v>43035</v>
@@ -10903,7 +10916,7 @@
       </c>
       <c r="E209" s="7">
         <f t="array" ref="E209">INDEX(LINEST($C190:$C209,$A190:$A209,TRUE,TRUE),1,2)</f>
-        <v>206.06515037593996</v>
+        <v>206.2583007518798</v>
       </c>
       <c r="F209" s="7">
         <f t="array" ref="F209">INDEX(LINEST($C190:$C209,$A190:$A209,TRUE,TRUE),3,1)</f>
@@ -10930,7 +10943,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2">
         <v>43038</v>
@@ -10944,7 +10957,7 @@
       </c>
       <c r="E210" s="7">
         <f t="array" ref="E210">INDEX(LINEST($C191:$C210,$A191:$A210,TRUE,TRUE),1,2)</f>
-        <v>209.7530000000001</v>
+        <v>209.92775939849633</v>
       </c>
       <c r="F210" s="7">
         <f t="array" ref="F210">INDEX(LINEST($C191:$C210,$A191:$A210,TRUE,TRUE),3,1)</f>
@@ -10971,7 +10984,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2">
         <v>43039</v>
@@ -10985,7 +10998,7 @@
       </c>
       <c r="E211" s="7">
         <f t="array" ref="E211">INDEX(LINEST($C192:$C211,$A192:$A211,TRUE,TRUE),1,2)</f>
-        <v>211.98622556390987</v>
+        <v>212.15000000000009</v>
       </c>
       <c r="F211" s="7">
         <f t="array" ref="F211">INDEX(LINEST($C192:$C211,$A192:$A211,TRUE,TRUE),3,1)</f>
@@ -11012,7 +11025,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2">
         <v>43040</v>
@@ -11026,7 +11039,7 @@
       </c>
       <c r="E212" s="7">
         <f t="array" ref="E212">INDEX(LINEST($C193:$C212,$A193:$A212,TRUE,TRUE),1,2)</f>
-        <v>213.67679699248129</v>
+        <v>213.83239849624067</v>
       </c>
       <c r="F212" s="7">
         <f t="array" ref="F212">INDEX(LINEST($C193:$C212,$A193:$A212,TRUE,TRUE),3,1)</f>
@@ -11053,7 +11066,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2">
         <v>43041</v>
@@ -11067,7 +11080,7 @@
       </c>
       <c r="E213" s="7">
         <f t="array" ref="E213">INDEX(LINEST($C194:$C213,$A194:$A213,TRUE,TRUE),1,2)</f>
-        <v>211.68693984962408</v>
+        <v>211.85229323308272</v>
       </c>
       <c r="F213" s="7">
         <f t="array" ref="F213">INDEX(LINEST($C194:$C213,$A194:$A213,TRUE,TRUE),3,1)</f>
@@ -11094,7 +11107,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2">
         <v>43042</v>
@@ -11108,7 +11121,7 @@
       </c>
       <c r="E214" s="7">
         <f t="array" ref="E214">INDEX(LINEST($C195:$C214,$A195:$A214,TRUE,TRUE),1,2)</f>
-        <v>209.10830827067662</v>
+        <v>209.28648120300747</v>
       </c>
       <c r="F214" s="7">
         <f t="array" ref="F214">INDEX(LINEST($C195:$C214,$A195:$A214,TRUE,TRUE),3,1)</f>
@@ -11135,7 +11148,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2">
         <v>43045</v>
@@ -11149,7 +11162,7 @@
       </c>
       <c r="E215" s="7">
         <f t="array" ref="E215">INDEX(LINEST($C196:$C215,$A196:$A215,TRUE,TRUE),1,2)</f>
-        <v>207.89815789473684</v>
+        <v>208.08252631578947</v>
       </c>
       <c r="F215" s="7">
         <f t="array" ref="F215">INDEX(LINEST($C196:$C215,$A196:$A215,TRUE,TRUE),3,1)</f>
@@ -11176,7 +11189,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2">
         <v>43046</v>
@@ -11190,7 +11203,7 @@
       </c>
       <c r="E216" s="7">
         <f t="array" ref="E216">INDEX(LINEST($C197:$C216,$A197:$A216,TRUE,TRUE),1,2)</f>
-        <v>206.5388195488722</v>
+        <v>206.72984962406014</v>
       </c>
       <c r="F216" s="7">
         <f t="array" ref="F216">INDEX(LINEST($C197:$C216,$A197:$A216,TRUE,TRUE),3,1)</f>
@@ -11217,7 +11230,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2">
         <v>43047</v>
@@ -11231,7 +11244,7 @@
       </c>
       <c r="E217" s="7">
         <f t="array" ref="E217">INDEX(LINEST($C198:$C217,$A198:$A217,TRUE,TRUE),1,2)</f>
-        <v>203.83289473684204</v>
+        <v>204.03705263157889</v>
       </c>
       <c r="F217" s="7">
         <f t="array" ref="F217">INDEX(LINEST($C198:$C217,$A198:$A217,TRUE,TRUE),3,1)</f>
@@ -11258,7 +11271,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2">
         <v>43048</v>
@@ -11272,7 +11285,7 @@
       </c>
       <c r="E218" s="7">
         <f t="array" ref="E218">INDEX(LINEST($C199:$C218,$A199:$A218,TRUE,TRUE),1,2)</f>
-        <v>206.17746616541359</v>
+        <v>206.37015789473691</v>
       </c>
       <c r="F218" s="7">
         <f t="array" ref="F218">INDEX(LINEST($C199:$C218,$A199:$A218,TRUE,TRUE),3,1)</f>
@@ -11299,7 +11312,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2">
         <v>43049</v>
@@ -11313,7 +11326,7 @@
       </c>
       <c r="E219" s="7">
         <f t="array" ref="E219">INDEX(LINEST($C200:$C219,$A200:$A219,TRUE,TRUE),1,2)</f>
-        <v>208.83950375939853</v>
+        <v>209.0192255639098</v>
       </c>
       <c r="F219" s="7">
         <f t="array" ref="F219">INDEX(LINEST($C200:$C219,$A200:$A219,TRUE,TRUE),3,1)</f>
@@ -11340,7 +11353,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2">
         <v>43052</v>
@@ -11354,7 +11367,7 @@
       </c>
       <c r="E220" s="7">
         <f t="array" ref="E220">INDEX(LINEST($C201:$C220,$A201:$A220,TRUE,TRUE),1,2)</f>
-        <v>210.69078195488731</v>
+        <v>210.8615037593986</v>
       </c>
       <c r="F220" s="7">
         <f t="array" ref="F220">INDEX(LINEST($C201:$C220,$A201:$A220,TRUE,TRUE),3,1)</f>
@@ -11381,7 +11394,7 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2">
         <v>43053</v>
@@ -11395,7 +11408,7 @@
       </c>
       <c r="E221" s="7">
         <f t="array" ref="E221">INDEX(LINEST($C202:$C221,$A202:$A221,TRUE,TRUE),1,2)</f>
-        <v>214.62281203007515</v>
+        <v>214.77455639097741</v>
       </c>
       <c r="F221" s="7">
         <f t="array" ref="F221">INDEX(LINEST($C202:$C221,$A202:$A221,TRUE,TRUE),3,1)</f>
@@ -11422,7 +11435,7 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2">
         <v>43054</v>
@@ -11436,7 +11449,7 @@
       </c>
       <c r="E222" s="7">
         <f t="array" ref="E222">INDEX(LINEST($C203:$C222,$A203:$A222,TRUE,TRUE),1,2)</f>
-        <v>222.12115789473685</v>
+        <v>222.23689473684212</v>
       </c>
       <c r="F222" s="7">
         <f t="array" ref="F222">INDEX(LINEST($C203:$C222,$A203:$A222,TRUE,TRUE),3,1)</f>
@@ -11463,7 +11476,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2">
         <v>43055</v>
@@ -11477,7 +11490,7 @@
       </c>
       <c r="E223" s="7">
         <f t="array" ref="E223">INDEX(LINEST($C204:$C223,$A204:$A223,TRUE,TRUE),1,2)</f>
-        <v>223.46754887218046</v>
+        <v>223.57704511278197</v>
       </c>
       <c r="F223" s="7">
         <f t="array" ref="F223">INDEX(LINEST($C204:$C223,$A204:$A223,TRUE,TRUE),3,1)</f>
@@ -11504,7 +11517,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2">
         <v>43056</v>
@@ -11518,7 +11531,7 @@
       </c>
       <c r="E224" s="7">
         <f t="array" ref="E224">INDEX(LINEST($C205:$C224,$A205:$A224,TRUE,TRUE),1,2)</f>
-        <v>223.54494736842105</v>
+        <v>223.65373684210527</v>
       </c>
       <c r="F224" s="7">
         <f t="array" ref="F224">INDEX(LINEST($C205:$C224,$A205:$A224,TRUE,TRUE),3,1)</f>
@@ -11545,7 +11558,7 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2">
         <v>43059</v>
@@ -11559,7 +11572,7 @@
       </c>
       <c r="E225" s="7">
         <f t="array" ref="E225">INDEX(LINEST($C206:$C225,$A206:$A225,TRUE,TRUE),1,2)</f>
-        <v>225.88936842105269</v>
+        <v>225.98721052631583</v>
       </c>
       <c r="F225" s="7">
         <f t="array" ref="F225">INDEX(LINEST($C206:$C225,$A206:$A225,TRUE,TRUE),3,1)</f>
@@ -11586,7 +11599,7 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2">
         <v>43060</v>
@@ -11600,7 +11613,7 @@
       </c>
       <c r="E226" s="7">
         <f t="array" ref="E226">INDEX(LINEST($C207:$C226,$A207:$A226,TRUE,TRUE),1,2)</f>
-        <v>222.54529323308279</v>
+        <v>222.65896240601512</v>
       </c>
       <c r="F226" s="7">
         <f t="array" ref="F226">INDEX(LINEST($C207:$C226,$A207:$A226,TRUE,TRUE),3,1)</f>
@@ -11627,7 +11640,7 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2">
         <v>43061</v>
@@ -11641,7 +11654,7 @@
       </c>
       <c r="E227" s="7">
         <f t="array" ref="E227">INDEX(LINEST($C208:$C227,$A208:$A227,TRUE,TRUE),1,2)</f>
-        <v>225.10688721804522</v>
+        <v>225.2091879699249</v>
       </c>
       <c r="F227" s="7">
         <f t="array" ref="F227">INDEX(LINEST($C208:$C227,$A208:$A227,TRUE,TRUE),3,1)</f>
@@ -11668,7 +11681,7 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2">
         <v>43063</v>
@@ -11682,7 +11695,7 @@
       </c>
       <c r="E228" s="7">
         <f t="array" ref="E228">INDEX(LINEST($C209:$C228,$A209:$A228,TRUE,TRUE),1,2)</f>
-        <v>226.26839097744369</v>
+        <v>226.36592481203016</v>
       </c>
       <c r="F228" s="7">
         <f t="array" ref="F228">INDEX(LINEST($C209:$C228,$A209:$A228,TRUE,TRUE),3,1)</f>
@@ -11709,7 +11722,7 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2">
         <v>43066</v>
@@ -11723,7 +11736,7 @@
       </c>
       <c r="E229" s="7">
         <f t="array" ref="E229">INDEX(LINEST($C210:$C229,$A210:$A229,TRUE,TRUE),1,2)</f>
-        <v>222.29971428571432</v>
+        <v>222.4155187969925</v>
       </c>
       <c r="F229" s="7">
         <f t="array" ref="F229">INDEX(LINEST($C210:$C229,$A210:$A229,TRUE,TRUE),3,1)</f>
@@ -11750,7 +11763,7 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2">
         <v>43067</v>
@@ -11764,7 +11777,7 @@
       </c>
       <c r="E230" s="7">
         <f t="array" ref="E230">INDEX(LINEST($C211:$C230,$A211:$A230,TRUE,TRUE),1,2)</f>
-        <v>214.52094736842108</v>
+        <v>214.67300000000003</v>
       </c>
       <c r="F230" s="7">
         <f t="array" ref="F230">INDEX(LINEST($C211:$C230,$A211:$A230,TRUE,TRUE),3,1)</f>
@@ -11791,7 +11804,7 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2">
         <v>43068</v>
@@ -11805,7 +11818,7 @@
       </c>
       <c r="E231" s="7">
         <f t="array" ref="E231">INDEX(LINEST($C212:$C231,$A212:$A231,TRUE,TRUE),1,2)</f>
-        <v>207.70373684210523</v>
+        <v>207.88722556390974</v>
       </c>
       <c r="F231" s="7">
         <f t="array" ref="F231">INDEX(LINEST($C212:$C231,$A212:$A231,TRUE,TRUE),3,1)</f>
@@ -11832,7 +11845,7 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2">
         <v>43069</v>
@@ -11846,7 +11859,7 @@
       </c>
       <c r="E232" s="7">
         <f t="array" ref="E232">INDEX(LINEST($C213:$C232,$A213:$A232,TRUE,TRUE),1,2)</f>
-        <v>194.61239849624067</v>
+        <v>194.8557894736843</v>
       </c>
       <c r="F232" s="7">
         <f t="array" ref="F232">INDEX(LINEST($C213:$C232,$A213:$A232,TRUE,TRUE),3,1)</f>
@@ -11873,7 +11886,7 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2">
         <v>43070</v>
@@ -11887,7 +11900,7 @@
       </c>
       <c r="E233" s="7">
         <f t="array" ref="E233">INDEX(LINEST($C214:$C233,$A214:$A233,TRUE,TRUE),1,2)</f>
-        <v>185.1154511278196</v>
+        <v>185.40190977443612</v>
       </c>
       <c r="F233" s="7">
         <f t="array" ref="F233">INDEX(LINEST($C214:$C233,$A214:$A233,TRUE,TRUE),3,1)</f>
@@ -11914,7 +11927,7 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2">
         <v>43073</v>
@@ -11928,7 +11941,7 @@
       </c>
       <c r="E234" s="7">
         <f t="array" ref="E234">INDEX(LINEST($C215:$C234,$A215:$A234,TRUE,TRUE),1,2)</f>
-        <v>175.75196240601491</v>
+        <v>176.08025563909763</v>
       </c>
       <c r="F234" s="7">
         <f t="array" ref="F234">INDEX(LINEST($C215:$C234,$A215:$A234,TRUE,TRUE),3,1)</f>
@@ -11955,7 +11968,7 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2">
         <v>43074</v>
@@ -11969,7 +11982,7 @@
       </c>
       <c r="E235" s="7">
         <f t="array" ref="E235">INDEX(LINEST($C216:$C235,$A216:$A235,TRUE,TRUE),1,2)</f>
-        <v>169.61912030075183</v>
+        <v>169.97419548872173</v>
       </c>
       <c r="F235" s="7">
         <f t="array" ref="F235">INDEX(LINEST($C216:$C235,$A216:$A235,TRUE,TRUE),3,1)</f>
@@ -11996,7 +12009,7 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2">
         <v>43075</v>
@@ -12010,7 +12023,7 @@
       </c>
       <c r="E236" s="7">
         <f t="array" ref="E236">INDEX(LINEST($C217:$C236,$A217:$A236,TRUE,TRUE),1,2)</f>
-        <v>165.36639849624044</v>
+        <v>165.7397293233081</v>
       </c>
       <c r="F236" s="7">
         <f t="array" ref="F236">INDEX(LINEST($C217:$C236,$A217:$A236,TRUE,TRUE),3,1)</f>
@@ -12037,7 +12050,7 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2">
         <v>43076</v>
@@ -12051,7 +12064,7 @@
       </c>
       <c r="E237" s="7">
         <f t="array" ref="E237">INDEX(LINEST($C218:$C237,$A218:$A237,TRUE,TRUE),1,2)</f>
-        <v>158.46111278195474</v>
+        <v>158.86433082706753</v>
       </c>
       <c r="F237" s="7">
         <f t="array" ref="F237">INDEX(LINEST($C218:$C237,$A218:$A237,TRUE,TRUE),3,1)</f>
@@ -12078,7 +12091,7 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2">
         <v>43077</v>
@@ -12092,7 +12105,7 @@
       </c>
       <c r="E238" s="7">
         <f t="array" ref="E238">INDEX(LINEST($C219:$C238,$A219:$A238,TRUE,TRUE),1,2)</f>
-        <v>151.98294736842104</v>
+        <v>152.41441353383459</v>
       </c>
       <c r="F238" s="7">
         <f t="array" ref="F238">INDEX(LINEST($C219:$C238,$A219:$A238,TRUE,TRUE),3,1)</f>
@@ -12119,7 +12132,7 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2">
         <v>43080</v>
@@ -12133,7 +12146,7 @@
       </c>
       <c r="E239" s="7">
         <f t="array" ref="E239">INDEX(LINEST($C220:$C239,$A220:$A239,TRUE,TRUE),1,2)</f>
-        <v>145.68148872180447</v>
+        <v>146.14036842105259</v>
       </c>
       <c r="F239" s="7">
         <f t="array" ref="F239">INDEX(LINEST($C220:$C239,$A220:$A239,TRUE,TRUE),3,1)</f>
@@ -12160,7 +12173,7 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2">
         <v>43081</v>
@@ -12174,7 +12187,7 @@
       </c>
       <c r="E240" s="7">
         <f t="array" ref="E240">INDEX(LINEST($C221:$C240,$A221:$A240,TRUE,TRUE),1,2)</f>
-        <v>139.74688721804509</v>
+        <v>140.2313909774436</v>
       </c>
       <c r="F240" s="7">
         <f t="array" ref="F240">INDEX(LINEST($C221:$C240,$A221:$A240,TRUE,TRUE),3,1)</f>
@@ -12201,7 +12214,7 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2">
         <v>43082</v>
@@ -12215,7 +12228,7 @@
       </c>
       <c r="E241" s="7">
         <f t="array" ref="E241">INDEX(LINEST($C222:$C241,$A222:$A241,TRUE,TRUE),1,2)</f>
-        <v>138.80581203007512</v>
+        <v>139.29417293233075</v>
       </c>
       <c r="F241" s="7">
         <f t="array" ref="F241">INDEX(LINEST($C222:$C241,$A222:$A241,TRUE,TRUE),3,1)</f>
@@ -12242,7 +12255,7 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2">
         <v>43083</v>
@@ -12256,7 +12269,7 @@
       </c>
       <c r="E242" s="7">
         <f t="array" ref="E242">INDEX(LINEST($C223:$C242,$A223:$A242,TRUE,TRUE),1,2)</f>
-        <v>148.84573684210523</v>
+        <v>149.29052631578944</v>
       </c>
       <c r="F242" s="7">
         <f t="array" ref="F242">INDEX(LINEST($C223:$C242,$A223:$A242,TRUE,TRUE),3,1)</f>
@@ -12283,7 +12296,7 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2">
         <v>43084</v>
@@ -12297,7 +12310,7 @@
       </c>
       <c r="E243" s="7">
         <f t="array" ref="E243">INDEX(LINEST($C224:$C243,$A224:$A243,TRUE,TRUE),1,2)</f>
-        <v>147.34755639097736</v>
+        <v>147.79878195488715</v>
       </c>
       <c r="F243" s="7">
         <f t="array" ref="F243">INDEX(LINEST($C224:$C243,$A224:$A243,TRUE,TRUE),3,1)</f>
@@ -12324,7 +12337,7 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2">
         <v>43087</v>
@@ -12338,7 +12351,7 @@
       </c>
       <c r="E244" s="7">
         <f t="array" ref="E244">INDEX(LINEST($C225:$C244,$A225:$A244,TRUE,TRUE),1,2)</f>
-        <v>146.31967669172928</v>
+        <v>146.77577443609019</v>
       </c>
       <c r="F244" s="7">
         <f t="array" ref="F244">INDEX(LINEST($C225:$C244,$A225:$A244,TRUE,TRUE),3,1)</f>
@@ -12365,7 +12378,7 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2">
         <v>43088</v>
@@ -12379,7 +12392,7 @@
       </c>
       <c r="E245" s="7">
         <f t="array" ref="E245">INDEX(LINEST($C226:$C245,$A226:$A245,TRUE,TRUE),1,2)</f>
-        <v>150.92947368421051</v>
+        <v>151.36606015037592</v>
       </c>
       <c r="F245" s="7">
         <f t="array" ref="F245">INDEX(LINEST($C226:$C245,$A226:$A245,TRUE,TRUE),3,1)</f>
@@ -12406,7 +12419,7 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2">
         <v>43089</v>
@@ -12420,7 +12433,7 @@
       </c>
       <c r="E246" s="7">
         <f t="array" ref="E246">INDEX(LINEST($C227:$C246,$A227:$A246,TRUE,TRUE),1,2)</f>
-        <v>153.41151879699245</v>
+        <v>153.83742105263156</v>
       </c>
       <c r="F246" s="7">
         <f t="array" ref="F246">INDEX(LINEST($C227:$C246,$A227:$A246,TRUE,TRUE),3,1)</f>
@@ -12447,7 +12460,7 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2">
         <v>43090</v>
@@ -12461,7 +12474,7 @@
       </c>
       <c r="E247" s="7">
         <f t="array" ref="E247">INDEX(LINEST($C228:$C247,$A228:$A247,TRUE,TRUE),1,2)</f>
-        <v>157.84621052631582</v>
+        <v>158.25342105263161</v>
       </c>
       <c r="F247" s="7">
         <f t="array" ref="F247">INDEX(LINEST($C228:$C247,$A228:$A247,TRUE,TRUE),3,1)</f>
@@ -12488,7 +12501,7 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2">
         <v>43091</v>
@@ -12502,7 +12515,7 @@
       </c>
       <c r="E248" s="7">
         <f t="array" ref="E248">INDEX(LINEST($C229:$C248,$A229:$A248,TRUE,TRUE),1,2)</f>
-        <v>163.49571428571443</v>
+        <v>163.87914285714299</v>
       </c>
       <c r="F248" s="7">
         <f t="array" ref="F248">INDEX(LINEST($C229:$C248,$A229:$A248,TRUE,TRUE),3,1)</f>
@@ -12529,7 +12542,7 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2">
         <v>43095</v>
@@ -12543,7 +12556,7 @@
       </c>
       <c r="E249" s="7">
         <f t="array" ref="E249">INDEX(LINEST($C230:$C249,$A230:$A249,TRUE,TRUE),1,2)</f>
-        <v>173.62153383458661</v>
+        <v>173.96257142857155</v>
       </c>
       <c r="F249" s="7">
         <f t="array" ref="F249">INDEX(LINEST($C230:$C249,$A230:$A249,TRUE,TRUE),3,1)</f>
@@ -12570,7 +12583,7 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2">
         <v>43096</v>
@@ -12584,7 +12597,7 @@
       </c>
       <c r="E250" s="7">
         <f t="array" ref="E250">INDEX(LINEST($C231:$C250,$A231:$A250,TRUE,TRUE),1,2)</f>
-        <v>176.60766917293256</v>
+        <v>176.93597744360926</v>
       </c>
       <c r="F250" s="7">
         <f t="array" ref="F250">INDEX(LINEST($C231:$C250,$A231:$A250,TRUE,TRUE),3,1)</f>
@@ -12611,7 +12624,7 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2">
         <v>43097</v>
@@ -12625,7 +12638,7 @@
       </c>
       <c r="E251" s="10">
         <f t="array" ref="E251">INDEX(LINEST($C232:$C251,$A232:$A251,TRUE,TRUE),1,2)</f>
-        <v>180.41635338345884</v>
+        <v>180.72875939849644</v>
       </c>
       <c r="F251" s="10">
         <f t="array" ref="F251">INDEX(LINEST($C232:$C251,$A232:$A251,TRUE,TRUE),3,1)</f>
@@ -12652,7 +12665,7 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2">
         <v>43098</v>
@@ -12666,7 +12679,7 @@
       </c>
       <c r="E252" s="7">
         <f t="array" ref="E252">INDEX(LINEST($C233:$C252,$A233:$A252,TRUE,TRUE),1,2)</f>
-        <v>181.32563157894757</v>
+        <v>181.63361654135358</v>
       </c>
       <c r="F252" s="7">
         <f t="array" ref="F252">INDEX(LINEST($C233:$C252,$A233:$A252,TRUE,TRUE),3,1)</f>
@@ -12693,7 +12706,7 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2">
         <v>43102</v>
@@ -12707,7 +12720,7 @@
       </c>
       <c r="E253" s="7">
         <f t="array" ref="E253">INDEX(LINEST($C234:$C253,$A234:$A253,TRUE,TRUE),1,2)</f>
-        <v>179.14046616541367</v>
+        <v>179.4573157894738</v>
       </c>
       <c r="F253" s="7">
         <f t="array" ref="F253">INDEX(LINEST($C234:$C253,$A234:$A253,TRUE,TRUE),3,1)</f>
@@ -12734,7 +12747,7 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2">
         <v>43103</v>
@@ -12748,7 +12761,7 @@
       </c>
       <c r="E254" s="7">
         <f t="array" ref="E254">INDEX(LINEST($C235:$C254,$A235:$A254,TRUE,TRUE),1,2)</f>
-        <v>174.47873684210526</v>
+        <v>174.81494736842109</v>
       </c>
       <c r="F254" s="7">
         <f t="array" ref="F254">INDEX(LINEST($C235:$C254,$A235:$A254,TRUE,TRUE),3,1)</f>
@@ -12775,7 +12788,7 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2">
         <v>43104</v>
@@ -12789,7 +12802,7 @@
       </c>
       <c r="E255" s="7">
         <f t="array" ref="E255">INDEX(LINEST($C236:$C255,$A236:$A255,TRUE,TRUE),1,2)</f>
-        <v>172.30122556390995</v>
+        <v>172.64688721804526</v>
       </c>
       <c r="F255" s="7">
         <f t="array" ref="F255">INDEX(LINEST($C236:$C255,$A236:$A255,TRUE,TRUE),3,1)</f>
@@ -12816,7 +12829,7 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2">
         <v>43105</v>
@@ -12830,7 +12843,7 @@
       </c>
       <c r="E256" s="7">
         <f t="array" ref="E256">INDEX(LINEST($C237:$C256,$A237:$A256,TRUE,TRUE),1,2)</f>
-        <v>167.36429323308292</v>
+        <v>167.73091729323329</v>
       </c>
       <c r="F256" s="7">
         <f t="array" ref="F256">INDEX(LINEST($C237:$C256,$A237:$A256,TRUE,TRUE),3,1)</f>
@@ -12857,7 +12870,7 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2">
         <v>43108</v>
@@ -12871,7 +12884,7 @@
       </c>
       <c r="E257" s="7">
         <f t="array" ref="E257">INDEX(LINEST($C238:$C257,$A238:$A257,TRUE,TRUE),1,2)</f>
-        <v>161.6799774436092</v>
+        <v>162.07036090225583</v>
       </c>
       <c r="F257" s="7">
         <f t="array" ref="F257">INDEX(LINEST($C238:$C257,$A238:$A257,TRUE,TRUE),3,1)</f>
@@ -12898,7 +12911,7 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2">
         <v>43109</v>
@@ -12912,7 +12925,7 @@
       </c>
       <c r="E258" s="7">
         <f t="array" ref="E258">INDEX(LINEST($C239:$C258,$A239:$A258,TRUE,TRUE),1,2)</f>
-        <v>152.40692481203018</v>
+        <v>152.8352180451129</v>
       </c>
       <c r="F258" s="7">
         <f t="array" ref="F258">INDEX(LINEST($C239:$C258,$A239:$A258,TRUE,TRUE),3,1)</f>
@@ -12939,7 +12952,7 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2">
         <v>43110</v>
@@ -12953,7 +12966,7 @@
       </c>
       <c r="E259" s="7">
         <f t="array" ref="E259">INDEX(LINEST($C240:$C259,$A240:$A259,TRUE,TRUE),1,2)</f>
-        <v>145.17015789473697</v>
+        <v>145.62762406015048</v>
       </c>
       <c r="F259" s="7">
         <f t="array" ref="F259">INDEX(LINEST($C240:$C259,$A240:$A259,TRUE,TRUE),3,1)</f>
@@ -12980,7 +12993,7 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2">
         <v>43111</v>
@@ -12994,7 +13007,7 @@
       </c>
       <c r="E260" s="7">
         <f t="array" ref="E260">INDEX(LINEST($C241:$C260,$A241:$A260,TRUE,TRUE),1,2)</f>
-        <v>132.60636842105276</v>
+        <v>133.11442105263171</v>
       </c>
       <c r="F260" s="7">
         <f t="array" ref="F260">INDEX(LINEST($C241:$C260,$A241:$A260,TRUE,TRUE),3,1)</f>
@@ -13021,7 +13034,7 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2">
         <v>43112</v>
@@ -13035,7 +13048,7 @@
       </c>
       <c r="E261" s="7">
         <f t="array" ref="E261">INDEX(LINEST($C242:$C261,$A242:$A261,TRUE,TRUE),1,2)</f>
-        <v>117.83706015037589</v>
+        <v>118.4044511278195</v>
       </c>
       <c r="F261" s="7">
         <f t="array" ref="F261">INDEX(LINEST($C242:$C261,$A242:$A261,TRUE,TRUE),3,1)</f>
@@ -13062,7 +13075,7 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2">
         <v>43116</v>
@@ -13076,7 +13089,7 @@
       </c>
       <c r="E262" s="7">
         <f t="array" ref="E262">INDEX(LINEST($C243:$C262,$A243:$A262,TRUE,TRUE),1,2)</f>
-        <v>114.95621804511268</v>
+        <v>115.53523308270667</v>
       </c>
       <c r="F262" s="7">
         <f t="array" ref="F262">INDEX(LINEST($C243:$C262,$A243:$A262,TRUE,TRUE),3,1)</f>
@@ -13103,7 +13116,7 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2">
         <v>43117</v>
@@ -13117,7 +13130,7 @@
       </c>
       <c r="E263" s="7">
         <f t="array" ref="E263">INDEX(LINEST($C244:$C263,$A244:$A263,TRUE,TRUE),1,2)</f>
-        <v>99.091210526315677</v>
+        <v>99.73326315789464</v>
       </c>
       <c r="F263" s="7">
         <f t="array" ref="F263">INDEX(LINEST($C244:$C263,$A244:$A263,TRUE,TRUE),3,1)</f>
@@ -13144,7 +13157,7 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2">
         <v>43118</v>
@@ -13158,7 +13171,7 @@
       </c>
       <c r="E264" s="7">
         <f t="array" ref="E264">INDEX(LINEST($C245:$C264,$A245:$A264,TRUE,TRUE),1,2)</f>
-        <v>82.912263157894557</v>
+        <v>83.617684210526136</v>
       </c>
       <c r="F264" s="7">
         <f t="array" ref="F264">INDEX(LINEST($C245:$C264,$A245:$A264,TRUE,TRUE),3,1)</f>
@@ -13185,7 +13198,7 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2">
         <v>43119</v>
@@ -13199,7 +13212,7 @@
       </c>
       <c r="E265" s="7">
         <f t="array" ref="E265">INDEX(LINEST($C246:$C265,$A246:$A265,TRUE,TRUE),1,2)</f>
-        <v>70.293473684210284</v>
+        <v>71.048210526315557</v>
       </c>
       <c r="F265" s="7">
         <f t="array" ref="F265">INDEX(LINEST($C246:$C265,$A246:$A265,TRUE,TRUE),3,1)</f>
@@ -13226,7 +13239,7 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2">
         <v>43122</v>
@@ -13240,7 +13253,7 @@
       </c>
       <c r="E266" s="7">
         <f t="array" ref="E266">INDEX(LINEST($C247:$C266,$A247:$A266,TRUE,TRUE),1,2)</f>
-        <v>55.126526315789164</v>
+        <v>55.940624060150071</v>
       </c>
       <c r="F266" s="7">
         <f t="array" ref="F266">INDEX(LINEST($C247:$C266,$A247:$A266,TRUE,TRUE),3,1)</f>
@@ -13267,7 +13280,7 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2">
         <v>43123</v>
@@ -13281,7 +13294,7 @@
       </c>
       <c r="E267" s="7">
         <f t="array" ref="E267">INDEX(LINEST($C248:$C267,$A248:$A267,TRUE,TRUE),1,2)</f>
-        <v>41.428142857142745</v>
+        <v>42.295421052631468</v>
       </c>
       <c r="F267" s="7">
         <f t="array" ref="F267">INDEX(LINEST($C248:$C267,$A248:$A267,TRUE,TRUE),3,1)</f>
@@ -13308,7 +13321,7 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2">
         <v>43124</v>
@@ -13322,7 +13335,7 @@
       </c>
       <c r="E268" s="7">
         <f t="array" ref="E268">INDEX(LINEST($C249:$C268,$A249:$A268,TRUE,TRUE),1,2)</f>
-        <v>34.091812030075033</v>
+        <v>34.987142857142715</v>
       </c>
       <c r="F268" s="7">
         <f t="array" ref="F268">INDEX(LINEST($C249:$C268,$A249:$A268,TRUE,TRUE),3,1)</f>
@@ -13349,7 +13362,7 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2">
         <v>43125</v>
@@ -13363,7 +13376,7 @@
       </c>
       <c r="E269" s="7">
         <f t="array" ref="E269">INDEX(LINEST($C250:$C269,$A250:$A269,TRUE,TRUE),1,2)</f>
-        <v>33.44526315789463</v>
+        <v>34.342631578947277</v>
       </c>
       <c r="F269" s="7">
         <f t="array" ref="F269">INDEX(LINEST($C250:$C269,$A250:$A269,TRUE,TRUE),3,1)</f>
@@ -13390,7 +13403,7 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2">
         <v>43126</v>
@@ -13404,7 +13417,7 @@
       </c>
       <c r="E270" s="7">
         <f t="array" ref="E270">INDEX(LINEST($C251:$C270,$A251:$A270,TRUE,TRUE),1,2)</f>
-        <v>26.792781954887147</v>
+        <v>27.715902255639008</v>
       </c>
       <c r="F270" s="7">
         <f t="array" ref="F270">INDEX(LINEST($C251:$C270,$A251:$A270,TRUE,TRUE),3,1)</f>
@@ -13431,7 +13444,7 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2">
         <v>43129</v>
@@ -13445,7 +13458,7 @@
       </c>
       <c r="E271" s="7">
         <f t="array" ref="E271">INDEX(LINEST($C252:$C271,$A252:$A271,TRUE,TRUE),1,2)</f>
-        <v>31.8676165413533</v>
+        <v>32.770819548872112</v>
       </c>
       <c r="F271" s="7">
         <f t="array" ref="F271">INDEX(LINEST($C252:$C271,$A252:$A271,TRUE,TRUE),3,1)</f>
@@ -13472,7 +13485,7 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2">
         <v>43130</v>
@@ -13486,7 +13499,7 @@
       </c>
       <c r="E272" s="7">
         <f t="array" ref="E272">INDEX(LINEST($C253:$C272,$A253:$A272,TRUE,TRUE),1,2)</f>
-        <v>57.759165413533793</v>
+        <v>58.562646616541315</v>
       </c>
       <c r="F272" s="7">
         <f t="array" ref="F272">INDEX(LINEST($C253:$C272,$A253:$A272,TRUE,TRUE),3,1)</f>
@@ -13513,7 +13526,7 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2">
         <v>43131</v>
@@ -13527,7 +13540,7 @@
       </c>
       <c r="E273" s="7">
         <f t="array" ref="E273">INDEX(LINEST($C254:$C273,$A254:$A273,TRUE,TRUE),1,2)</f>
-        <v>81.278315789473595</v>
+        <v>81.991548872180346</v>
       </c>
       <c r="F273" s="7">
         <f t="array" ref="F273">INDEX(LINEST($C254:$C273,$A254:$A273,TRUE,TRUE),3,1)</f>
@@ -13554,7 +13567,7 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2">
         <v>43132</v>
@@ -13568,7 +13581,7 @@
       </c>
       <c r="E274" s="7">
         <f t="array" ref="E274">INDEX(LINEST($C255:$C274,$A255:$A274,TRUE,TRUE),1,2)</f>
-        <v>104.23657142857135</v>
+        <v>104.86199999999991</v>
       </c>
       <c r="F274" s="7">
         <f t="array" ref="F274">INDEX(LINEST($C255:$C274,$A255:$A274,TRUE,TRUE),3,1)</f>
@@ -13595,7 +13608,7 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2">
         <v>43133</v>
@@ -13609,7 +13622,7 @@
       </c>
       <c r="E275" s="7">
         <f t="array" ref="E275">INDEX(LINEST($C256:$C275,$A256:$A275,TRUE,TRUE),1,2)</f>
-        <v>149.05547368421043</v>
+        <v>149.50978947368412</v>
       </c>
       <c r="F275" s="7">
         <f t="array" ref="F275">INDEX(LINEST($C256:$C275,$A256:$A275,TRUE,TRUE),3,1)</f>
@@ -13636,7 +13649,7 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2">
         <v>43136</v>
@@ -13650,7 +13663,7 @@
       </c>
       <c r="E276" s="7">
         <f t="array" ref="E276">INDEX(LINEST($C257:$C276,$A257:$A276,TRUE,TRUE),1,2)</f>
-        <v>229.77842105263159</v>
+        <v>229.92526315789473</v>
       </c>
       <c r="F276" s="7">
         <f t="array" ref="F276">INDEX(LINEST($C257:$C276,$A257:$A276,TRUE,TRUE),3,1)</f>
@@ -13677,7 +13690,7 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2">
         <v>43137</v>
@@ -13691,7 +13704,7 @@
       </c>
       <c r="E277" s="7">
         <f t="array" ref="E277">INDEX(LINEST($C258:$C277,$A258:$A277,TRUE,TRUE),1,2)</f>
-        <v>286.58636842105278</v>
+        <v>286.51863157894752</v>
       </c>
       <c r="F277" s="7">
         <f t="array" ref="F277">INDEX(LINEST($C258:$C277,$A258:$A277,TRUE,TRUE),3,1)</f>
@@ -13718,7 +13731,7 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2">
         <v>43138</v>
@@ -13732,7 +13745,7 @@
       </c>
       <c r="E278" s="7">
         <f t="array" ref="E278">INDEX(LINEST($C259:$C278,$A259:$A278,TRUE,TRUE),1,2)</f>
-        <v>344.72257894736845</v>
+        <v>344.43652631578948</v>
       </c>
       <c r="F278" s="7">
         <f t="array" ref="F278">INDEX(LINEST($C259:$C278,$A259:$A278,TRUE,TRUE),3,1)</f>
@@ -13759,7 +13772,7 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2">
         <v>43139</v>
@@ -13773,7 +13786,7 @@
       </c>
       <c r="E279" s="7">
         <f t="array" ref="E279">INDEX(LINEST($C260:$C279,$A260:$A279,TRUE,TRUE),1,2)</f>
-        <v>438.98907518797</v>
+        <v>438.35004511278203</v>
       </c>
       <c r="F279" s="7">
         <f t="array" ref="F279">INDEX(LINEST($C260:$C279,$A260:$A279,TRUE,TRUE),3,1)</f>
@@ -13800,7 +13813,7 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2">
         <v>43140</v>
@@ -13814,7 +13827,7 @@
       </c>
       <c r="E280" s="7">
         <f t="array" ref="E280">INDEX(LINEST($C261:$C280,$A261:$A280,TRUE,TRUE),1,2)</f>
-        <v>505.04278947368414</v>
+        <v>504.15842105263152</v>
       </c>
       <c r="F280" s="7">
         <f t="array" ref="F280">INDEX(LINEST($C261:$C280,$A261:$A280,TRUE,TRUE),3,1)</f>
@@ -13841,7 +13854,7 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2">
         <v>43143</v>
@@ -13855,7 +13868,7 @@
       </c>
       <c r="E281" s="7">
         <f t="array" ref="E281">INDEX(LINEST($C262:$C281,$A262:$A281,TRUE,TRUE),1,2)</f>
-        <v>544.27162406015032</v>
+        <v>543.24326315789472</v>
       </c>
       <c r="F281" s="7">
         <f t="array" ref="F281">INDEX(LINEST($C262:$C281,$A262:$A281,TRUE,TRUE),3,1)</f>
@@ -13882,7 +13895,7 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2">
         <v>43144</v>
@@ -13896,7 +13909,7 @@
       </c>
       <c r="E282" s="7">
         <f t="array" ref="E282">INDEX(LINEST($C263:$C282,$A263:$A282,TRUE,TRUE),1,2)</f>
-        <v>580.3788120300751</v>
+        <v>579.2193007518797</v>
       </c>
       <c r="F282" s="7">
         <f t="array" ref="F282">INDEX(LINEST($C263:$C282,$A263:$A282,TRUE,TRUE),3,1)</f>
@@ -13923,7 +13936,7 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2">
         <v>43145</v>
@@ -13937,7 +13950,7 @@
       </c>
       <c r="E283" s="7">
         <f t="array" ref="E283">INDEX(LINEST($C264:$C283,$A264:$A283,TRUE,TRUE),1,2)</f>
-        <v>588.06501503759398</v>
+        <v>586.87978195488722</v>
       </c>
       <c r="F283" s="7">
         <f t="array" ref="F283">INDEX(LINEST($C264:$C283,$A264:$A283,TRUE,TRUE),3,1)</f>
@@ -13964,7 +13977,7 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2">
         <v>43146</v>
@@ -13978,7 +13991,7 @@
       </c>
       <c r="E284" s="7">
         <f t="array" ref="E284">INDEX(LINEST($C265:$C284,$A265:$A284,TRUE,TRUE),1,2)</f>
-        <v>581.03247368421046</v>
+        <v>579.87621052631573</v>
       </c>
       <c r="F284" s="7">
         <f t="array" ref="F284">INDEX(LINEST($C265:$C284,$A265:$A284,TRUE,TRUE),3,1)</f>
@@ -14005,7 +14018,7 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2">
         <v>43147</v>
@@ -14019,7 +14032,7 @@
       </c>
       <c r="E285" s="7">
         <f t="array" ref="E285">INDEX(LINEST($C266:$C285,$A266:$A285,TRUE,TRUE),1,2)</f>
-        <v>565.85225563909762</v>
+        <v>564.75422556390959</v>
       </c>
       <c r="F285" s="7">
         <f t="array" ref="F285">INDEX(LINEST($C266:$C285,$A266:$A285,TRUE,TRUE),3,1)</f>
@@ -14046,7 +14059,7 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2">
         <v>43151</v>
@@ -14060,7 +14073,7 @@
       </c>
       <c r="E286" s="7">
         <f t="array" ref="E286">INDEX(LINEST($C267:$C286,$A267:$A286,TRUE,TRUE),1,2)</f>
-        <v>544.37457142857147</v>
+        <v>543.35651127819551</v>
       </c>
       <c r="F286" s="7">
         <f t="array" ref="F286">INDEX(LINEST($C267:$C286,$A267:$A286,TRUE,TRUE),3,1)</f>
@@ -14087,7 +14100,7 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2">
         <v>43152</v>
@@ -14101,7 +14114,7 @@
       </c>
       <c r="E287" s="7">
         <f t="array" ref="E287">INDEX(LINEST($C268:$C287,$A268:$A287,TRUE,TRUE),1,2)</f>
-        <v>520.76615789473715</v>
+        <v>519.83485714285746</v>
       </c>
       <c r="F287" s="7">
         <f t="array" ref="F287">INDEX(LINEST($C268:$C287,$A268:$A287,TRUE,TRUE),3,1)</f>
@@ -14128,7 +14141,7 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2">
         <v>43153</v>
@@ -14142,7 +14155,7 @@
       </c>
       <c r="E288" s="7">
         <f t="array" ref="E288">INDEX(LINEST($C269:$C288,$A269:$A288,TRUE,TRUE),1,2)</f>
-        <v>490.77603759398522</v>
+        <v>489.95394736842127</v>
       </c>
       <c r="F288" s="7">
         <f t="array" ref="F288">INDEX(LINEST($C269:$C288,$A269:$A288,TRUE,TRUE),3,1)</f>
@@ -14169,7 +14182,7 @@
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2">
         <v>43154</v>
@@ -14183,7 +14196,7 @@
       </c>
       <c r="E289" s="7">
         <f t="array" ref="E289">INDEX(LINEST($C270:$C289,$A270:$A289,TRUE,TRUE),1,2)</f>
-        <v>438.61932330827096</v>
+        <v>437.98597744360927</v>
       </c>
       <c r="F289" s="7">
         <f t="array" ref="F289">INDEX(LINEST($C270:$C289,$A270:$A289,TRUE,TRUE),3,1)</f>
@@ -14210,7 +14223,7 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2">
         <v>43157</v>
@@ -14224,7 +14237,7 @@
       </c>
       <c r="E290" s="7">
         <f t="array" ref="E290">INDEX(LINEST($C271:$C290,$A271:$A290,TRUE,TRUE),1,2)</f>
-        <v>356.40108270676717</v>
+        <v>356.0626691729326</v>
       </c>
       <c r="F290" s="7">
         <f t="array" ref="F290">INDEX(LINEST($C271:$C290,$A271:$A290,TRUE,TRUE),3,1)</f>
@@ -14251,7 +14264,7 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2">
         <v>43158</v>
@@ -14265,7 +14278,7 @@
       </c>
       <c r="E291" s="7">
         <f t="array" ref="E291">INDEX(LINEST($C272:$C291,$A272:$A291,TRUE,TRUE),1,2)</f>
-        <v>291.48002255639113</v>
+        <v>291.37250375939868</v>
       </c>
       <c r="F291" s="7">
         <f t="array" ref="F291">INDEX(LINEST($C272:$C291,$A272:$A291,TRUE,TRUE),3,1)</f>
@@ -14292,7 +14305,7 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2">
         <v>43159</v>
@@ -14306,7 +14319,7 @@
       </c>
       <c r="E292" s="7">
         <f t="array" ref="E292">INDEX(LINEST($C273:$C292,$A273:$A292,TRUE,TRUE),1,2)</f>
-        <v>245.19275939849638</v>
+        <v>245.24832330827081</v>
       </c>
       <c r="F292" s="7">
         <f t="array" ref="F292">INDEX(LINEST($C273:$C292,$A273:$A292,TRUE,TRUE),3,1)</f>
@@ -14333,7 +14346,7 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2">
         <v>43160</v>
@@ -14347,7 +14360,7 @@
       </c>
       <c r="E293" s="7">
         <f t="array" ref="E293">INDEX(LINEST($C274:$C293,$A274:$A293,TRUE,TRUE),1,2)</f>
-        <v>208.95590225563924</v>
+        <v>209.13712030075203</v>
       </c>
       <c r="F293" s="7">
         <f t="array" ref="F293">INDEX(LINEST($C274:$C293,$A274:$A293,TRUE,TRUE),3,1)</f>
@@ -14374,7 +14387,7 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2">
         <v>43161</v>
@@ -14388,7 +14401,7 @@
       </c>
       <c r="E294" s="7">
         <f t="array" ref="E294">INDEX(LINEST($C275:$C294,$A275:$A294,TRUE,TRUE),1,2)</f>
-        <v>162.71889473684223</v>
+        <v>163.06044360902268</v>
       </c>
       <c r="F294" s="7">
         <f t="array" ref="F294">INDEX(LINEST($C275:$C294,$A275:$A294,TRUE,TRUE),3,1)</f>
@@ -14415,7 +14428,7 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2">
         <v>43164</v>
@@ -14429,7 +14442,7 @@
       </c>
       <c r="E295" s="7">
         <f t="array" ref="E295">INDEX(LINEST($C276:$C295,$A276:$A295,TRUE,TRUE),1,2)</f>
-        <v>125.85140601503761</v>
+        <v>126.32078947368421</v>
       </c>
       <c r="F295" s="7">
         <f t="array" ref="F295">INDEX(LINEST($C276:$C295,$A276:$A295,TRUE,TRUE),3,1)</f>
@@ -14456,7 +14469,7 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2">
         <v>43165</v>
@@ -14470,7 +14483,7 @@
       </c>
       <c r="E296" s="7">
         <f t="array" ref="E296">INDEX(LINEST($C277:$C296,$A277:$A296,TRUE,TRUE),1,2)</f>
-        <v>135.22808270676688</v>
+        <v>135.6644887218045</v>
       </c>
       <c r="F296" s="7">
         <f t="array" ref="F296">INDEX(LINEST($C277:$C296,$A277:$A296,TRUE,TRUE),3,1)</f>
@@ -14497,7 +14510,7 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2">
         <v>43166</v>
@@ -14511,7 +14524,7 @@
       </c>
       <c r="E297" s="7">
         <f t="array" ref="E297">INDEX(LINEST($C278:$C297,$A278:$A297,TRUE,TRUE),1,2)</f>
-        <v>125.87457142857139</v>
+        <v>126.34271428571424</v>
       </c>
       <c r="F297" s="7">
         <f t="array" ref="F297">INDEX(LINEST($C278:$C297,$A278:$A297,TRUE,TRUE),3,1)</f>
@@ -14538,7 +14551,7 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2">
         <v>43167</v>
@@ -14552,7 +14565,7 @@
       </c>
       <c r="E298" s="7">
         <f t="array" ref="E298">INDEX(LINEST($C279:$C298,$A279:$A298,TRUE,TRUE),1,2)</f>
-        <v>119.29365413533819</v>
+        <v>119.78413533834569</v>
       </c>
       <c r="F298" s="7">
         <f t="array" ref="F298">INDEX(LINEST($C279:$C298,$A279:$A298,TRUE,TRUE),3,1)</f>
@@ -14579,7 +14592,7 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2">
         <v>43168</v>
@@ -14593,7 +14606,7 @@
       </c>
       <c r="E299" s="7">
         <f t="array" ref="E299">INDEX(LINEST($C280:$C299,$A280:$A299,TRUE,TRUE),1,2)</f>
-        <v>141.15781954887214</v>
+        <v>141.57436090225559</v>
       </c>
       <c r="F299" s="7">
         <f t="array" ref="F299">INDEX(LINEST($C280:$C299,$A280:$A299,TRUE,TRUE),3,1)</f>
@@ -14620,7 +14633,7 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2">
         <v>43171</v>
@@ -14634,7 +14647,7 @@
       </c>
       <c r="E300" s="7">
         <f t="array" ref="E300">INDEX(LINEST($C281:$C300,$A281:$A300,TRUE,TRUE),1,2)</f>
-        <v>156.22950375939837</v>
+        <v>156.59537593984948</v>
       </c>
       <c r="F300" s="7">
         <f t="array" ref="F300">INDEX(LINEST($C281:$C300,$A281:$A300,TRUE,TRUE),3,1)</f>
@@ -14661,7 +14674,7 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2">
         <v>43172</v>
@@ -14675,7 +14688,7 @@
       </c>
       <c r="E301" s="7">
         <f t="array" ref="E301">INDEX(LINEST($C282:$C301,$A282:$A301,TRUE,TRUE),1,2)</f>
-        <v>168.49905263157888</v>
+        <v>168.82331578947361</v>
       </c>
       <c r="F301" s="7">
         <f t="array" ref="F301">INDEX(LINEST($C282:$C301,$A282:$A301,TRUE,TRUE),3,1)</f>
@@ -14702,7 +14715,7 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2">
         <v>43173</v>
@@ -14716,7 +14729,7 @@
       </c>
       <c r="E302" s="7">
         <f t="array" ref="E302">INDEX(LINEST($C283:$C302,$A283:$A302,TRUE,TRUE),1,2)</f>
-        <v>188.36150375939843</v>
+        <v>188.61805263157885</v>
       </c>
       <c r="F302" s="7">
         <f t="array" ref="F302">INDEX(LINEST($C283:$C302,$A283:$A302,TRUE,TRUE),3,1)</f>
@@ -14743,7 +14756,7 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2">
         <v>43174</v>
@@ -14757,7 +14770,7 @@
       </c>
       <c r="E303" s="7">
         <f t="array" ref="E303">INDEX(LINEST($C284:$C303,$A284:$A303,TRUE,TRUE),1,2)</f>
-        <v>197.34498496240596</v>
+        <v>197.57083458646611</v>
       </c>
       <c r="F303" s="7">
         <f t="array" ref="F303">INDEX(LINEST($C284:$C303,$A284:$A303,TRUE,TRUE),3,1)</f>
@@ -14784,7 +14797,7 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2">
         <v>43175</v>
@@ -14798,7 +14811,7 @@
       </c>
       <c r="E304" s="7">
         <f t="array" ref="E304">INDEX(LINEST($C285:$C304,$A285:$A304,TRUE,TRUE),1,2)</f>
-        <v>191.98315037593983</v>
+        <v>192.2268721804511</v>
       </c>
       <c r="F304" s="7">
         <f t="array" ref="F304">INDEX(LINEST($C285:$C304,$A285:$A304,TRUE,TRUE),3,1)</f>
@@ -14825,7 +14838,7 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2">
         <v>43178</v>
@@ -14839,7 +14852,7 @@
       </c>
       <c r="E305" s="7">
         <f t="array" ref="E305">INDEX(LINEST($C286:$C305,$A286:$A305,TRUE,TRUE),1,2)</f>
-        <v>202.10357142857137</v>
+        <v>202.31184962406007</v>
       </c>
       <c r="F305" s="7">
         <f t="array" ref="F305">INDEX(LINEST($C286:$C305,$A286:$A305,TRUE,TRUE),3,1)</f>
@@ -14866,7 +14879,7 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2">
         <v>43179</v>
@@ -14880,7 +14893,7 @@
       </c>
       <c r="E306" s="7">
         <f t="array" ref="E306">INDEX(LINEST($C287:$C306,$A287:$A306,TRUE,TRUE),1,2)</f>
-        <v>217.58284962406003</v>
+        <v>217.73814285714275</v>
       </c>
       <c r="F306" s="7">
         <f t="array" ref="F306">INDEX(LINEST($C287:$C306,$A287:$A306,TRUE,TRUE),3,1)</f>
@@ -14907,7 +14920,7 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2">
         <v>43180</v>
@@ -14921,7 +14934,7 @@
       </c>
       <c r="E307" s="7">
         <f t="array" ref="E307">INDEX(LINEST($C288:$C307,$A288:$A307,TRUE,TRUE),1,2)</f>
-        <v>241.68398496240596</v>
+        <v>241.75770676691724</v>
       </c>
       <c r="F307" s="7">
         <f t="array" ref="F307">INDEX(LINEST($C288:$C307,$A288:$A307,TRUE,TRUE),3,1)</f>
@@ -14948,7 +14961,7 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2">
         <v>43181</v>
@@ -14962,7 +14975,7 @@
       </c>
       <c r="E308" s="7">
         <f t="array" ref="E308">INDEX(LINEST($C289:$C308,$A289:$A308,TRUE,TRUE),1,2)</f>
-        <v>292.43294736842103</v>
+        <v>292.33491729323305</v>
       </c>
       <c r="F308" s="7">
         <f t="array" ref="F308">INDEX(LINEST($C289:$C308,$A289:$A308,TRUE,TRUE),3,1)</f>
@@ -14989,7 +15002,7 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2">
         <v>43182</v>
@@ -15003,7 +15016,7 @@
       </c>
       <c r="E309" s="7">
         <f t="array" ref="E309">INDEX(LINEST($C290:$C309,$A290:$A309,TRUE,TRUE),1,2)</f>
-        <v>344.18654887218042</v>
+        <v>343.91294736842104</v>
       </c>
       <c r="F309" s="7">
         <f t="array" ref="F309">INDEX(LINEST($C290:$C309,$A290:$A309,TRUE,TRUE),3,1)</f>
@@ -15030,7 +15043,7 @@
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2">
         <v>43185</v>
@@ -15044,7 +15057,7 @@
       </c>
       <c r="E310" s="7">
         <f t="array" ref="E310">INDEX(LINEST($C291:$C310,$A291:$A310,TRUE,TRUE),1,2)</f>
-        <v>345.96062406015028</v>
+        <v>345.68012781954883</v>
       </c>
       <c r="F310" s="7">
         <f t="array" ref="F310">INDEX(LINEST($C291:$C310,$A291:$A310,TRUE,TRUE),3,1)</f>
@@ -15071,7 +15084,7 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2">
         <v>43186</v>
@@ -15085,7 +15098,7 @@
       </c>
       <c r="E311" s="7">
         <f t="array" ref="E311">INDEX(LINEST($C292:$C311,$A292:$A311,TRUE,TRUE),1,2)</f>
-        <v>377.1600451127818</v>
+        <v>376.77460902255626</v>
       </c>
       <c r="F311" s="7">
         <f t="array" ref="F311">INDEX(LINEST($C292:$C311,$A292:$A311,TRUE,TRUE),3,1)</f>
@@ -15112,7 +15125,7 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2">
         <v>43187</v>
@@ -15126,7 +15139,7 @@
       </c>
       <c r="E312" s="7">
         <f t="array" ref="E312">INDEX(LINEST($C293:$C312,$A293:$A312,TRUE,TRUE),1,2)</f>
-        <v>419.07326315789464</v>
+        <v>418.54836842105249</v>
       </c>
       <c r="F312" s="7">
         <f t="array" ref="F312">INDEX(LINEST($C293:$C312,$A293:$A312,TRUE,TRUE),3,1)</f>
@@ -15153,7 +15166,7 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2">
         <v>43188</v>
@@ -15167,7 +15180,7 @@
       </c>
       <c r="E313" s="7">
         <f t="array" ref="E313">INDEX(LINEST($C294:$C313,$A294:$A313,TRUE,TRUE),1,2)</f>
-        <v>461.17238345864655</v>
+        <v>460.50949624060144</v>
       </c>
       <c r="F313" s="7">
         <f t="array" ref="F313">INDEX(LINEST($C294:$C313,$A294:$A313,TRUE,TRUE),3,1)</f>
@@ -15194,7 +15207,7 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2">
         <v>43192</v>
@@ -15208,7 +15221,7 @@
       </c>
       <c r="E314" s="7">
         <f t="array" ref="E314">INDEX(LINEST($C295:$C314,$A295:$A314,TRUE,TRUE),1,2)</f>
-        <v>519.09802255639079</v>
+        <v>518.244781954887</v>
       </c>
       <c r="F314" s="7">
         <f t="array" ref="F314">INDEX(LINEST($C295:$C314,$A295:$A314,TRUE,TRUE),3,1)</f>
@@ -15235,7 +15248,7 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2">
         <v>43193</v>
@@ -15249,7 +15262,7 @@
       </c>
       <c r="E315" s="7">
         <f t="array" ref="E315">INDEX(LINEST($C296:$C315,$A296:$A315,TRUE,TRUE),1,2)</f>
-        <v>544.49631578947356</v>
+        <v>543.56082706766915</v>
       </c>
       <c r="F315" s="7">
         <f t="array" ref="F315">INDEX(LINEST($C296:$C315,$A296:$A315,TRUE,TRUE),3,1)</f>
@@ -15276,7 +15289,7 @@
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2">
         <v>43194</v>
@@ -15290,7 +15303,7 @@
       </c>
       <c r="E316" s="7">
         <f t="array" ref="E316">INDEX(LINEST($C297:$C316,$A297:$A316,TRUE,TRUE),1,2)</f>
-        <v>550.55577443609013</v>
+        <v>549.60221052631573</v>
       </c>
       <c r="F316" s="7">
         <f t="array" ref="F316">INDEX(LINEST($C297:$C316,$A297:$A316,TRUE,TRUE),3,1)</f>
@@ -15317,7 +15330,7 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2">
         <v>43195</v>
@@ -15331,7 +15344,7 @@
       </c>
       <c r="E317" s="7">
         <f t="array" ref="E317">INDEX(LINEST($C298:$C317,$A298:$A317,TRUE,TRUE),1,2)</f>
-        <v>544.77112030075159</v>
+        <v>543.83858646616511</v>
       </c>
       <c r="F317" s="7">
         <f t="array" ref="F317">INDEX(LINEST($C298:$C317,$A298:$A317,TRUE,TRUE),3,1)</f>
@@ -15358,7 +15371,7 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2">
         <v>43196</v>
@@ -15372,7 +15385,7 @@
       </c>
       <c r="E318" s="7">
         <f t="array" ref="E318">INDEX(LINEST($C299:$C318,$A299:$A318,TRUE,TRUE),1,2)</f>
-        <v>554.89421804511255</v>
+        <v>553.92970676691709</v>
       </c>
       <c r="F318" s="7">
         <f t="array" ref="F318">INDEX(LINEST($C299:$C318,$A299:$A318,TRUE,TRUE),3,1)</f>
@@ -15399,7 +15412,7 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2">
         <v>43199</v>
@@ -15413,7 +15426,7 @@
       </c>
       <c r="E319" s="7">
         <f t="array" ref="E319">INDEX(LINEST($C300:$C319,$A300:$A319,TRUE,TRUE),1,2)</f>
-        <v>531.08033082706743</v>
+        <v>530.19351127819527</v>
       </c>
       <c r="F319" s="7">
         <f t="array" ref="F319">INDEX(LINEST($C300:$C319,$A300:$A319,TRUE,TRUE),3,1)</f>
@@ -15440,7 +15453,7 @@
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2">
         <v>43200</v>
@@ -15454,7 +15467,7 @@
       </c>
       <c r="E320" s="7">
         <f t="array" ref="E320">INDEX(LINEST($C301:$C320,$A301:$A320,TRUE,TRUE),1,2)</f>
-        <v>483.67209022556386</v>
+        <v>482.93939849624053</v>
       </c>
       <c r="F320" s="7">
         <f t="array" ref="F320">INDEX(LINEST($C301:$C320,$A301:$A320,TRUE,TRUE),3,1)</f>
@@ -15481,7 +15494,7 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2">
         <v>43201</v>
@@ -15495,7 +15508,7 @@
       </c>
       <c r="E321" s="7">
         <f t="array" ref="E321">INDEX(LINEST($C302:$C321,$A302:$A321,TRUE,TRUE),1,2)</f>
-        <v>444.9113909774436</v>
+        <v>444.30404511278192</v>
       </c>
       <c r="F321" s="7">
         <f t="array" ref="F321">INDEX(LINEST($C302:$C321,$A302:$A321,TRUE,TRUE),3,1)</f>
@@ -15522,7 +15535,7 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2">
         <v>43202</v>
@@ -15536,7 +15549,7 @@
       </c>
       <c r="E322" s="7">
         <f t="array" ref="E322">INDEX(LINEST($C303:$C322,$A303:$A322,TRUE,TRUE),1,2)</f>
-        <v>398.09394736842125</v>
+        <v>397.6375639097746</v>
       </c>
       <c r="F322" s="7">
         <f t="array" ref="F322">INDEX(LINEST($C303:$C322,$A303:$A322,TRUE,TRUE),3,1)</f>
@@ -15563,7 +15576,7 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2">
         <v>43203</v>
@@ -15577,7 +15590,7 @@
       </c>
       <c r="E323" s="7">
         <f t="array" ref="E323">INDEX(LINEST($C304:$C323,$A304:$A323,TRUE,TRUE),1,2)</f>
-        <v>351.97131578947381</v>
+        <v>351.66263157894753</v>
       </c>
       <c r="F323" s="7">
         <f t="array" ref="F323">INDEX(LINEST($C304:$C323,$A304:$A323,TRUE,TRUE),3,1)</f>
@@ -15604,7 +15617,7 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2">
         <v>43206</v>
@@ -15618,7 +15631,7 @@
       </c>
       <c r="E324" s="7">
         <f t="array" ref="E324">INDEX(LINEST($C305:$C324,$A305:$A324,TRUE,TRUE),1,2)</f>
-        <v>290.81500000000028</v>
+        <v>290.70131578947394</v>
       </c>
       <c r="F324" s="7">
         <f t="array" ref="F324">INDEX(LINEST($C305:$C324,$A305:$A324,TRUE,TRUE),3,1)</f>
@@ -15645,7 +15658,7 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2">
         <v>43207</v>
@@ -15659,7 +15672,7 @@
       </c>
       <c r="E325" s="7">
         <f t="array" ref="E325">INDEX(LINEST($C306:$C325,$A306:$A325,TRUE,TRUE),1,2)</f>
-        <v>231.82365413533867</v>
+        <v>231.89785714285745</v>
       </c>
       <c r="F325" s="7">
         <f t="array" ref="F325">INDEX(LINEST($C306:$C325,$A306:$A325,TRUE,TRUE),3,1)</f>
@@ -15686,7 +15699,7 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2">
         <v>43208</v>
@@ -15700,7 +15713,7 @@
       </c>
       <c r="E326" s="7">
         <f t="array" ref="E326">INDEX(LINEST($C307:$C326,$A307:$A326,TRUE,TRUE),1,2)</f>
-        <v>169.25819548872227</v>
+        <v>169.53038345864707</v>
       </c>
       <c r="F326" s="7">
         <f t="array" ref="F326">INDEX(LINEST($C307:$C326,$A307:$A326,TRUE,TRUE),3,1)</f>
@@ -15727,7 +15740,7 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2">
         <v>43209</v>
@@ -15741,7 +15754,7 @@
       </c>
       <c r="E327" s="7">
         <f t="array" ref="E327">INDEX(LINEST($C308:$C327,$A308:$A327,TRUE,TRUE),1,2)</f>
-        <v>115.04701503759446</v>
+        <v>115.48939097744409</v>
       </c>
       <c r="F327" s="7">
         <f t="array" ref="F327">INDEX(LINEST($C308:$C327,$A308:$A327,TRUE,TRUE),3,1)</f>
@@ -15768,7 +15781,7 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2">
         <v>43210</v>
@@ -15782,7 +15795,7 @@
       </c>
       <c r="E328" s="7">
         <f t="array" ref="E328">INDEX(LINEST($C309:$C328,$A309:$A328,TRUE,TRUE),1,2)</f>
-        <v>102.76569172932369</v>
+        <v>103.24580451127858</v>
       </c>
       <c r="F328" s="7">
         <f t="array" ref="F328">INDEX(LINEST($C309:$C328,$A309:$A328,TRUE,TRUE),3,1)</f>
@@ -15809,7 +15822,7 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2">
         <v>43213</v>
@@ -15823,7 +15836,7 @@
       </c>
       <c r="E329" s="7">
         <f t="array" ref="E329">INDEX(LINEST($C310:$C329,$A310:$A329,TRUE,TRUE),1,2)</f>
-        <v>119.53257894736882</v>
+        <v>119.95983458646657</v>
       </c>
       <c r="F329" s="7">
         <f t="array" ref="F329">INDEX(LINEST($C310:$C329,$A310:$A329,TRUE,TRUE),3,1)</f>
@@ -15850,7 +15863,7 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2">
         <v>43214</v>
@@ -15864,7 +15877,7 @@
       </c>
       <c r="E330" s="7">
         <f t="array" ref="E330">INDEX(LINEST($C311:$C330,$A311:$A330,TRUE,TRUE),1,2)</f>
-        <v>121.23161654135365</v>
+        <v>121.65189473684237</v>
       </c>
       <c r="F330" s="7">
         <f t="array" ref="F330">INDEX(LINEST($C311:$C330,$A311:$A330,TRUE,TRUE),3,1)</f>
@@ -15891,7 +15904,7 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2">
         <v>43215</v>
@@ -15905,7 +15918,7 @@
       </c>
       <c r="E331" s="7">
         <f t="array" ref="E331">INDEX(LINEST($C312:$C331,$A312:$A331,TRUE,TRUE),1,2)</f>
-        <v>141.38067669172955</v>
+        <v>141.73723308270701</v>
       </c>
       <c r="F331" s="7">
         <f t="array" ref="F331">INDEX(LINEST($C312:$C331,$A312:$A331,TRUE,TRUE),3,1)</f>
@@ -15932,7 +15945,7 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2">
         <v>43216</v>
@@ -15946,7 +15959,7 @@
       </c>
       <c r="E332" s="7">
         <f t="array" ref="E332">INDEX(LINEST($C313:$C332,$A313:$A332,TRUE,TRUE),1,2)</f>
-        <v>155.15245112781977</v>
+        <v>155.46603759398516</v>
       </c>
       <c r="F332" s="7">
         <f t="array" ref="F332">INDEX(LINEST($C313:$C332,$A313:$A332,TRUE,TRUE),3,1)</f>
@@ -15973,7 +15986,7 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2">
         <v>43217</v>
@@ -15987,7 +16000,7 @@
       </c>
       <c r="E333" s="7">
         <f t="array" ref="E333">INDEX(LINEST($C314:$C333,$A314:$A333,TRUE,TRUE),1,2)</f>
-        <v>154.4510075187971</v>
+        <v>154.7663082706768</v>
       </c>
       <c r="F333" s="7">
         <f t="array" ref="F333">INDEX(LINEST($C314:$C333,$A314:$A333,TRUE,TRUE),3,1)</f>
@@ -16014,7 +16027,7 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2">
         <v>43220</v>
@@ -16028,7 +16041,7 @@
       </c>
       <c r="E334" s="7">
         <f t="array" ref="E334">INDEX(LINEST($C315:$C334,$A315:$A334,TRUE,TRUE),1,2)</f>
-        <v>192.7197443609023</v>
+        <v>192.91682706766923</v>
       </c>
       <c r="F334" s="7">
         <f t="array" ref="F334">INDEX(LINEST($C315:$C334,$A315:$A334,TRUE,TRUE),3,1)</f>
@@ -16055,7 +16068,7 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2">
         <v>43221</v>
@@ -16069,7 +16082,7 @@
       </c>
       <c r="E335" s="7">
         <f t="array" ref="E335">INDEX(LINEST($C316:$C335,$A316:$A335,TRUE,TRUE),1,2)</f>
-        <v>215.98036842105256</v>
+        <v>216.10578947368413</v>
       </c>
       <c r="F335" s="7">
         <f t="array" ref="F335">INDEX(LINEST($C316:$C335,$A316:$A335,TRUE,TRUE),3,1)</f>
@@ -16096,7 +16109,7 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2">
         <v>43222</v>
@@ -16110,7 +16123,7 @@
       </c>
       <c r="E336" s="7">
         <f t="array" ref="E336">INDEX(LINEST($C317:$C336,$A317:$A336,TRUE,TRUE),1,2)</f>
-        <v>235.27689473684194</v>
+        <v>235.34259398496224</v>
       </c>
       <c r="F336" s="7">
         <f t="array" ref="F336">INDEX(LINEST($C317:$C336,$A317:$A336,TRUE,TRUE),3,1)</f>
@@ -16137,7 +16150,7 @@
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2">
         <v>43223</v>
@@ -16151,7 +16164,7 @@
       </c>
       <c r="E337" s="7">
         <f t="array" ref="E337">INDEX(LINEST($C318:$C337,$A318:$A337,TRUE,TRUE),1,2)</f>
-        <v>246.64244360902237</v>
+        <v>246.67268421052611</v>
       </c>
       <c r="F337" s="7">
         <f t="array" ref="F337">INDEX(LINEST($C318:$C337,$A318:$A337,TRUE,TRUE),3,1)</f>
@@ -16178,7 +16191,7 @@
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2">
         <v>43224</v>
@@ -16192,7 +16205,7 @@
       </c>
       <c r="E338" s="7">
         <f t="array" ref="E338">INDEX(LINEST($C319:$C338,$A319:$A338,TRUE,TRUE),1,2)</f>
-        <v>271.3294962406012</v>
+        <v>271.28519548872151</v>
       </c>
       <c r="F338" s="7">
         <f t="array" ref="F338">INDEX(LINEST($C319:$C338,$A319:$A338,TRUE,TRUE),3,1)</f>
@@ -16219,7 +16232,7 @@
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2">
         <v>43227</v>
@@ -16233,7 +16246,7 @@
       </c>
       <c r="E339" s="7">
         <f t="array" ref="E339">INDEX(LINEST($C320:$C339,$A320:$A339,TRUE,TRUE),1,2)</f>
-        <v>288.64596992481165</v>
+        <v>288.54996240601463</v>
       </c>
       <c r="F339" s="7">
         <f t="array" ref="F339">INDEX(LINEST($C320:$C339,$A320:$A339,TRUE,TRUE),3,1)</f>
@@ -16260,7 +16273,7 @@
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2">
         <v>43228</v>
@@ -16274,7 +16287,7 @@
       </c>
       <c r="E340" s="7">
         <f t="array" ref="E340">INDEX(LINEST($C321:$C340,$A321:$A340,TRUE,TRUE),1,2)</f>
-        <v>287.78942857142818</v>
+        <v>287.69657142857102</v>
       </c>
       <c r="F340" s="7">
         <f t="array" ref="F340">INDEX(LINEST($C321:$C340,$A321:$A340,TRUE,TRUE),3,1)</f>
@@ -16301,7 +16314,7 @@
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2">
         <v>43229</v>
@@ -16315,7 +16328,7 @@
       </c>
       <c r="E341" s="7">
         <f t="array" ref="E341">INDEX(LINEST($C322:$C341,$A322:$A341,TRUE,TRUE),1,2)</f>
-        <v>283.25695488721749</v>
+        <v>283.17893233082651</v>
       </c>
       <c r="F341" s="7">
         <f t="array" ref="F341">INDEX(LINEST($C322:$C341,$A322:$A341,TRUE,TRUE),3,1)</f>
@@ -16342,7 +16355,7 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2">
         <v>43230</v>
@@ -16356,7 +16369,7 @@
       </c>
       <c r="E342" s="7">
         <f t="array" ref="E342">INDEX(LINEST($C323:$C342,$A323:$A342,TRUE,TRUE),1,2)</f>
-        <v>258.93148120300691</v>
+        <v>258.92796240601444</v>
       </c>
       <c r="F342" s="7">
         <f t="array" ref="F342">INDEX(LINEST($C323:$C342,$A323:$A342,TRUE,TRUE),3,1)</f>
@@ -16383,7 +16396,7 @@
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2">
         <v>43231</v>
@@ -16397,7 +16410,7 @@
       </c>
       <c r="E343" s="7">
         <f t="array" ref="E343">INDEX(LINEST($C324:$C343,$A324:$A343,TRUE,TRUE),1,2)</f>
-        <v>237.61699999999965</v>
+        <v>237.67871428571394</v>
       </c>
       <c r="F343" s="7">
         <f t="array" ref="F343">INDEX(LINEST($C324:$C343,$A324:$A343,TRUE,TRUE),3,1)</f>
@@ -16424,7 +16437,7 @@
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2">
         <v>43234</v>
@@ -16438,7 +16451,7 @@
       </c>
       <c r="E344" s="7">
         <f t="array" ref="E344">INDEX(LINEST($C325:$C344,$A325:$A344,TRUE,TRUE),1,2)</f>
-        <v>208.12722556390935</v>
+        <v>208.27799999999959</v>
       </c>
       <c r="F344" s="7">
         <f t="array" ref="F344">INDEX(LINEST($C325:$C344,$A325:$A344,TRUE,TRUE),3,1)</f>
@@ -16465,7 +16478,7 @@
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2">
         <v>43235</v>
@@ -16479,7 +16492,7 @@
       </c>
       <c r="E345" s="7">
         <f t="array" ref="E345">INDEX(LINEST($C326:$C345,$A326:$A345,TRUE,TRUE),1,2)</f>
-        <v>175.04830827067642</v>
+        <v>175.29765413533806</v>
       </c>
       <c r="F345" s="7">
         <f t="array" ref="F345">INDEX(LINEST($C326:$C345,$A326:$A345,TRUE,TRUE),3,1)</f>
@@ -16506,7 +16519,7 @@
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2">
         <v>43236</v>
@@ -16520,7 +16533,7 @@
       </c>
       <c r="E346" s="7">
         <f t="array" ref="E346">INDEX(LINEST($C327:$C346,$A327:$A346,TRUE,TRUE),1,2)</f>
-        <v>135.98307518796975</v>
+        <v>136.34838345864642</v>
       </c>
       <c r="F346" s="7">
         <f t="array" ref="F346">INDEX(LINEST($C327:$C346,$A327:$A346,TRUE,TRUE),3,1)</f>
@@ -16547,7 +16560,7 @@
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2">
         <v>43237</v>
@@ -16561,7 +16574,7 @@
       </c>
       <c r="E347" s="7">
         <f t="array" ref="E347">INDEX(LINEST($C328:$C347,$A328:$A347,TRUE,TRUE),1,2)</f>
-        <v>106.41483458646616</v>
+        <v>106.86737593984961</v>
       </c>
       <c r="F347" s="7">
         <f t="array" ref="F347">INDEX(LINEST($C328:$C347,$A328:$A347,TRUE,TRUE),3,1)</f>
@@ -16588,7 +16601,7 @@
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2">
         <v>43238</v>
@@ -16602,7 +16615,7 @@
       </c>
       <c r="E348" s="7">
         <f t="array" ref="E348">INDEX(LINEST($C329:$C348,$A329:$A348,TRUE,TRUE),1,2)</f>
-        <v>93.187661654135354</v>
+        <v>93.678729323308289</v>
       </c>
       <c r="F348" s="7">
         <f t="array" ref="F348">INDEX(LINEST($C329:$C348,$A329:$A348,TRUE,TRUE),3,1)</f>
@@ -16629,7 +16642,7 @@
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2">
         <v>43241</v>
@@ -16643,7 +16656,7 @@
       </c>
       <c r="E349" s="7">
         <f t="array" ref="E349">INDEX(LINEST($C330:$C349,$A330:$A349,TRUE,TRUE),1,2)</f>
-        <v>72.992511278195678</v>
+        <v>73.542759398496429</v>
       </c>
       <c r="F349" s="7">
         <f t="array" ref="F349">INDEX(LINEST($C330:$C349,$A330:$A349,TRUE,TRUE),3,1)</f>
@@ -16670,7 +16683,7 @@
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2">
         <v>43242</v>
@@ -16684,7 +16697,7 @@
       </c>
       <c r="E350" s="7">
         <f t="array" ref="E350">INDEX(LINEST($C331:$C350,$A331:$A350,TRUE,TRUE),1,2)</f>
-        <v>78.311684210526408</v>
+        <v>78.846015037594071</v>
       </c>
       <c r="F350" s="7">
         <f t="array" ref="F350">INDEX(LINEST($C331:$C350,$A331:$A350,TRUE,TRUE),3,1)</f>
@@ -16711,7 +16724,7 @@
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2">
         <v>43243</v>
@@ -16725,7 +16738,7 @@
       </c>
       <c r="E351" s="7">
         <f t="array" ref="E351">INDEX(LINEST($C332:$C351,$A332:$A351,TRUE,TRUE),1,2)</f>
-        <v>81.544827067669331</v>
+        <v>82.069473684210692</v>
       </c>
       <c r="F351" s="7">
         <f t="array" ref="F351">INDEX(LINEST($C332:$C351,$A332:$A351,TRUE,TRUE),3,1)</f>
@@ -16752,7 +16765,7 @@
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2">
         <v>43244</v>
@@ -16766,7 +16779,7 @@
       </c>
       <c r="E352" s="7">
         <f t="array" ref="E352">INDEX(LINEST($C333:$C352,$A333:$A352,TRUE,TRUE),1,2)</f>
-        <v>78.136932330827193</v>
+        <v>78.670939849624204</v>
       </c>
       <c r="F352" s="7">
         <f t="array" ref="F352">INDEX(LINEST($C333:$C352,$A333:$A352,TRUE,TRUE),3,1)</f>
@@ -16793,7 +16806,7 @@
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2">
         <v>43245</v>
@@ -16807,7 +16820,7 @@
       </c>
       <c r="E353" s="7">
         <f t="array" ref="E353">INDEX(LINEST($C334:$C353,$A334:$A353,TRUE,TRUE),1,2)</f>
-        <v>79.680706766917297</v>
+        <v>80.209436090225552</v>
       </c>
       <c r="F353" s="7">
         <f t="array" ref="F353">INDEX(LINEST($C334:$C353,$A334:$A353,TRUE,TRUE),3,1)</f>
@@ -16834,7 +16847,7 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2">
         <v>43249</v>
@@ -16848,7 +16861,7 @@
       </c>
       <c r="E354" s="7">
         <f t="array" ref="E354">INDEX(LINEST($C335:$C354,$A335:$A354,TRUE,TRUE),1,2)</f>
-        <v>109.53082706766938</v>
+        <v>109.97175187969944</v>
       </c>
       <c r="F354" s="7">
         <f t="array" ref="F354">INDEX(LINEST($C335:$C354,$A335:$A354,TRUE,TRUE),3,1)</f>
@@ -16875,7 +16888,7 @@
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2">
         <v>43250</v>
@@ -16889,7 +16902,7 @@
       </c>
       <c r="E355" s="7">
         <f t="array" ref="E355">INDEX(LINEST($C336:$C355,$A336:$A355,TRUE,TRUE),1,2)</f>
-        <v>122.4411127819549</v>
+        <v>122.84435338345867</v>
       </c>
       <c r="F355" s="7">
         <f t="array" ref="F355">INDEX(LINEST($C336:$C355,$A336:$A355,TRUE,TRUE),3,1)</f>
@@ -16916,7 +16929,7 @@
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2">
         <v>43251</v>
@@ -16930,7 +16943,7 @@
       </c>
       <c r="E356" s="7">
         <f t="array" ref="E356">INDEX(LINEST($C337:$C356,$A337:$A356,TRUE,TRUE),1,2)</f>
-        <v>156.64494736842104</v>
+        <v>156.94910526315789</v>
       </c>
       <c r="F356" s="7">
         <f t="array" ref="F356">INDEX(LINEST($C337:$C356,$A337:$A356,TRUE,TRUE),3,1)</f>
@@ -16957,7 +16970,7 @@
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2">
         <v>43252</v>
@@ -16971,7 +16984,7 @@
       </c>
       <c r="E357" s="7">
         <f t="array" ref="E357">INDEX(LINEST($C338:$C357,$A338:$A357,TRUE,TRUE),1,2)</f>
-        <v>185.3942105263159</v>
+        <v>185.61605263157907</v>
       </c>
       <c r="F357" s="7">
         <f t="array" ref="F357">INDEX(LINEST($C338:$C357,$A338:$A357,TRUE,TRUE),3,1)</f>
@@ -16998,7 +17011,7 @@
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2">
         <v>43255</v>
@@ -17012,7 +17025,7 @@
       </c>
       <c r="E358" s="7">
         <f t="array" ref="E358">INDEX(LINEST($C339:$C358,$A339:$A358,TRUE,TRUE),1,2)</f>
-        <v>195.49858646616551</v>
+        <v>195.69194736842115</v>
       </c>
       <c r="F358" s="7">
         <f t="array" ref="F358">INDEX(LINEST($C339:$C358,$A339:$A358,TRUE,TRUE),3,1)</f>
@@ -17039,7 +17052,7 @@
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2">
         <v>43256</v>
@@ -17053,7 +17066,7 @@
       </c>
       <c r="E359" s="7">
         <f t="array" ref="E359">INDEX(LINEST($C340:$C359,$A340:$A359,TRUE,TRUE),1,2)</f>
-        <v>204.3398571428572</v>
+        <v>204.50842857142862</v>
       </c>
       <c r="F359" s="7">
         <f t="array" ref="F359">INDEX(LINEST($C340:$C359,$A340:$A359,TRUE,TRUE),3,1)</f>
@@ -17080,7 +17093,7 @@
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2">
         <v>43257</v>
@@ -17094,7 +17107,7 @@
       </c>
       <c r="E360" s="7">
         <f t="array" ref="E360">INDEX(LINEST($C341:$C360,$A341:$A360,TRUE,TRUE),1,2)</f>
-        <v>206.41477443609025</v>
+        <v>206.57837593984965</v>
       </c>
       <c r="F360" s="7">
         <f t="array" ref="F360">INDEX(LINEST($C341:$C360,$A341:$A360,TRUE,TRUE),3,1)</f>
@@ -17121,7 +17134,7 @@
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2">
         <v>43258</v>
@@ -17135,7 +17148,7 @@
       </c>
       <c r="E361" s="7">
         <f t="array" ref="E361">INDEX(LINEST($C342:$C361,$A342:$A361,TRUE,TRUE),1,2)</f>
-        <v>200.08285714285714</v>
+        <v>200.26514285714285</v>
       </c>
       <c r="F361" s="7">
         <f t="array" ref="F361">INDEX(LINEST($C342:$C361,$A342:$A361,TRUE,TRUE),3,1)</f>
@@ -17162,7 +17175,7 @@
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2">
         <v>43259</v>
@@ -17176,7 +17189,7 @@
       </c>
       <c r="E362" s="7">
         <f t="array" ref="E362">INDEX(LINEST($C343:$C362,$A343:$A362,TRUE,TRUE),1,2)</f>
-        <v>180.14457142857134</v>
+        <v>180.38390977443601</v>
       </c>
       <c r="F362" s="7">
         <f t="array" ref="F362">INDEX(LINEST($C343:$C362,$A343:$A362,TRUE,TRUE),3,1)</f>
@@ -17203,7 +17216,7 @@
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2">
         <v>43262</v>
@@ -17217,7 +17230,7 @@
       </c>
       <c r="E363" s="7">
         <f t="array" ref="E363">INDEX(LINEST($C344:$C363,$A344:$A363,TRUE,TRUE),1,2)</f>
-        <v>156.96393984962396</v>
+        <v>157.26914285714275</v>
       </c>
       <c r="F363" s="7">
         <f t="array" ref="F363">INDEX(LINEST($C344:$C363,$A344:$A363,TRUE,TRUE),3,1)</f>
@@ -17244,7 +17257,7 @@
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2">
         <v>43263</v>
@@ -17258,7 +17271,7 @@
       </c>
       <c r="E364" s="7">
         <f t="array" ref="E364">INDEX(LINEST($C345:$C364,$A345:$A364,TRUE,TRUE),1,2)</f>
-        <v>134.10378947368409</v>
+        <v>134.47360902255627</v>
       </c>
       <c r="F364" s="7">
         <f t="array" ref="F364">INDEX(LINEST($C345:$C364,$A345:$A364,TRUE,TRUE),3,1)</f>
@@ -17285,7 +17298,7 @@
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2">
         <v>43264</v>
@@ -17299,7 +17312,7 @@
       </c>
       <c r="E365" s="7">
         <f t="array" ref="E365">INDEX(LINEST($C346:$C365,$A346:$A365,TRUE,TRUE),1,2)</f>
-        <v>128.76479699248111</v>
+        <v>129.14957894736833</v>
       </c>
       <c r="F365" s="7">
         <f t="array" ref="F365">INDEX(LINEST($C346:$C365,$A346:$A365,TRUE,TRUE),3,1)</f>
@@ -17326,7 +17339,7 @@
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2">
         <v>43265</v>
@@ -17340,7 +17353,7 @@
       </c>
       <c r="E366" s="7">
         <f t="array" ref="E366">INDEX(LINEST($C347:$C366,$A347:$A366,TRUE,TRUE),1,2)</f>
-        <v>117.32870676691735</v>
+        <v>117.74545864661658</v>
       </c>
       <c r="F366" s="7">
         <f t="array" ref="F366">INDEX(LINEST($C347:$C366,$A347:$A366,TRUE,TRUE),3,1)</f>
@@ -17367,7 +17380,7 @@
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2">
         <v>43266</v>
@@ -17381,7 +17394,7 @@
       </c>
       <c r="E367" s="7">
         <f t="array" ref="E367">INDEX(LINEST($C348:$C367,$A348:$A367,TRUE,TRUE),1,2)</f>
-        <v>112.20969172932342</v>
+        <v>112.64049624060164</v>
       </c>
       <c r="F367" s="7">
         <f t="array" ref="F367">INDEX(LINEST($C348:$C367,$A348:$A367,TRUE,TRUE),3,1)</f>
@@ -17408,7 +17421,7 @@
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2">
         <v>43269</v>
@@ -17422,7 +17435,7 @@
       </c>
       <c r="E368" s="7">
         <f t="array" ref="E368">INDEX(LINEST($C349:$C368,$A349:$A368,TRUE,TRUE),1,2)</f>
-        <v>116.90872932330839</v>
+        <v>117.32606015037607</v>
       </c>
       <c r="F368" s="7">
         <f t="array" ref="F368">INDEX(LINEST($C349:$C368,$A349:$A368,TRUE,TRUE),3,1)</f>
@@ -17449,7 +17462,7 @@
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2">
         <v>43270</v>
@@ -17463,7 +17476,7 @@
       </c>
       <c r="E369" s="7">
         <f t="array" ref="E369">INDEX(LINEST($C350:$C369,$A350:$A369,TRUE,TRUE),1,2)</f>
-        <v>118.98330075187988</v>
+        <v>119.39413533834605</v>
       </c>
       <c r="F369" s="7">
         <f t="array" ref="F369">INDEX(LINEST($C350:$C369,$A350:$A369,TRUE,TRUE),3,1)</f>
@@ -17490,7 +17503,7 @@
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2">
         <v>43271</v>
@@ -17504,7 +17517,7 @@
       </c>
       <c r="E370" s="7">
         <f t="array" ref="E370">INDEX(LINEST($C351:$C370,$A351:$A370,TRUE,TRUE),1,2)</f>
-        <v>124.67400751879708</v>
+        <v>125.06848872180458</v>
       </c>
       <c r="F370" s="7">
         <f t="array" ref="F370">INDEX(LINEST($C351:$C370,$A351:$A370,TRUE,TRUE),3,1)</f>
@@ -17531,7 +17544,7 @@
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2">
         <v>43272</v>
@@ -17545,7 +17558,7 @@
       </c>
       <c r="E371" s="7">
         <f t="array" ref="E371">INDEX(LINEST($C352:$C371,$A352:$A371,TRUE,TRUE),1,2)</f>
-        <v>137.24347368421081</v>
+        <v>137.60227819548899</v>
       </c>
       <c r="F371" s="7">
         <f t="array" ref="F371">INDEX(LINEST($C352:$C371,$A352:$A371,TRUE,TRUE),3,1)</f>
@@ -17572,7 +17585,7 @@
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2">
         <v>43273</v>
@@ -17586,7 +17599,7 @@
       </c>
       <c r="E372" s="7">
         <f t="array" ref="E372">INDEX(LINEST($C353:$C372,$A353:$A372,TRUE,TRUE),1,2)</f>
-        <v>151.65309774436099</v>
+        <v>151.97147368421059</v>
       </c>
       <c r="F372" s="7">
         <f t="array" ref="F372">INDEX(LINEST($C353:$C372,$A353:$A372,TRUE,TRUE),3,1)</f>
@@ -17613,7 +17626,7 @@
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2">
         <v>43276</v>
@@ -17627,7 +17640,7 @@
       </c>
       <c r="E373" s="7">
         <f t="array" ref="E373">INDEX(LINEST($C354:$C373,$A354:$A373,TRUE,TRUE),1,2)</f>
-        <v>190.07121052631555</v>
+        <v>190.28273684210501</v>
       </c>
       <c r="F373" s="7">
         <f t="array" ref="F373">INDEX(LINEST($C354:$C373,$A354:$A373,TRUE,TRUE),3,1)</f>
@@ -17654,7 +17667,7 @@
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2">
         <v>43277</v>
@@ -17668,7 +17681,7 @@
       </c>
       <c r="E374" s="7">
         <f t="array" ref="E374">INDEX(LINEST($C355:$C374,$A355:$A374,TRUE,TRUE),1,2)</f>
-        <v>243.24263909774422</v>
+        <v>243.30781203007504</v>
       </c>
       <c r="F374" s="7">
         <f t="array" ref="F374">INDEX(LINEST($C355:$C374,$A355:$A374,TRUE,TRUE),3,1)</f>
@@ -17695,7 +17708,7 @@
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2">
         <v>43278</v>
@@ -17709,7 +17722,7 @@
       </c>
       <c r="E375" s="7">
         <f t="array" ref="E375">INDEX(LINEST($C356:$C375,$A356:$A375,TRUE,TRUE),1,2)</f>
-        <v>289.81668421052609</v>
+        <v>289.75363157894714</v>
       </c>
       <c r="F375" s="7">
         <f t="array" ref="F375">INDEX(LINEST($C356:$C375,$A356:$A375,TRUE,TRUE),3,1)</f>
@@ -17736,7 +17749,7 @@
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2">
         <v>43279</v>
@@ -17750,7 +17763,7 @@
       </c>
       <c r="E376" s="7">
         <f t="array" ref="E376">INDEX(LINEST($C357:$C376,$A357:$A376,TRUE,TRUE),1,2)</f>
-        <v>337.28360150375914</v>
+        <v>337.09100751879669</v>
       </c>
       <c r="F376" s="7">
         <f t="array" ref="F376">INDEX(LINEST($C357:$C376,$A357:$A376,TRUE,TRUE),3,1)</f>
@@ -17777,7 +17790,7 @@
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2">
         <v>43280</v>
@@ -17791,7 +17804,7 @@
       </c>
       <c r="E377" s="7">
         <f t="array" ref="E377">INDEX(LINEST($C358:$C377,$A358:$A377,TRUE,TRUE),1,2)</f>
-        <v>368.60275187969899</v>
+        <v>368.32508270676669</v>
       </c>
       <c r="F377" s="7">
         <f t="array" ref="F377">INDEX(LINEST($C358:$C377,$A358:$A377,TRUE,TRUE),3,1)</f>
@@ -17818,7 +17831,7 @@
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2">
         <v>43283</v>
@@ -17832,7 +17845,7 @@
       </c>
       <c r="E378" s="7">
         <f t="array" ref="E378">INDEX(LINEST($C359:$C378,$A359:$A378,TRUE,TRUE),1,2)</f>
-        <v>389.27294736842083</v>
+        <v>388.93954887218024</v>
       </c>
       <c r="F378" s="7">
         <f t="array" ref="F378">INDEX(LINEST($C359:$C378,$A359:$A378,TRUE,TRUE),3,1)</f>
@@ -17859,7 +17872,7 @@
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2">
         <v>43284</v>
@@ -17873,7 +17886,7 @@
       </c>
       <c r="E379" s="7">
         <f t="array" ref="E379">INDEX(LINEST($C360:$C379,$A360:$A379,TRUE,TRUE),1,2)</f>
-        <v>412.75492481203003</v>
+        <v>412.35831578947364</v>
       </c>
       <c r="F379" s="7">
         <f t="array" ref="F379">INDEX(LINEST($C360:$C379,$A360:$A379,TRUE,TRUE),3,1)</f>
@@ -17900,7 +17913,7 @@
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2">
         <v>43286</v>
@@ -17914,7 +17927,7 @@
       </c>
       <c r="E380" s="7">
         <f t="array" ref="E380">INDEX(LINEST($C361:$C380,$A361:$A380,TRUE,TRUE),1,2)</f>
-        <v>410.45315037593991</v>
+        <v>410.06344360902267</v>
       </c>
       <c r="F380" s="7">
         <f t="array" ref="F380">INDEX(LINEST($C361:$C380,$A361:$A380,TRUE,TRUE),3,1)</f>
@@ -17941,7 +17954,7 @@
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2">
         <v>43287</v>
@@ -17955,7 +17968,7 @@
       </c>
       <c r="E381" s="7">
         <f t="array" ref="E381">INDEX(LINEST($C362:$C381,$A362:$A381,TRUE,TRUE),1,2)</f>
-        <v>394.92142857142881</v>
+        <v>394.57460150375965</v>
       </c>
       <c r="F381" s="7">
         <f t="array" ref="F381">INDEX(LINEST($C362:$C381,$A362:$A381,TRUE,TRUE),3,1)</f>
@@ -17982,7 +17995,7 @@
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2">
         <v>43290</v>
@@ -17996,7 +18009,7 @@
       </c>
       <c r="E382" s="7">
         <f t="array" ref="E382">INDEX(LINEST($C363:$C382,$A363:$A382,TRUE,TRUE),1,2)</f>
-        <v>361.57529323308296</v>
+        <v>361.31928571428597</v>
       </c>
       <c r="F382" s="7">
         <f t="array" ref="F382">INDEX(LINEST($C363:$C382,$A363:$A382,TRUE,TRUE),3,1)</f>
@@ -18023,7 +18036,7 @@
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2">
         <v>43291</v>
@@ -18037,7 +18050,7 @@
       </c>
       <c r="E383" s="7">
         <f t="array" ref="E383">INDEX(LINEST($C364:$C383,$A364:$A383,TRUE,TRUE),1,2)</f>
-        <v>321.31980451127845</v>
+        <v>321.17275939849651</v>
       </c>
       <c r="F383" s="7">
         <f t="array" ref="F383">INDEX(LINEST($C364:$C383,$A364:$A383,TRUE,TRUE),3,1)</f>
@@ -18064,7 +18077,7 @@
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="2">
         <v>43292</v>
@@ -18078,7 +18091,7 @@
       </c>
       <c r="E384" s="7">
         <f t="array" ref="E384">INDEX(LINEST($C365:$C384,$A365:$A384,TRUE,TRUE),1,2)</f>
-        <v>290.09547368421084</v>
+        <v>290.03231578947396</v>
       </c>
       <c r="F384" s="7">
         <f t="array" ref="F384">INDEX(LINEST($C365:$C384,$A365:$A384,TRUE,TRUE),3,1)</f>
@@ -18105,7 +18118,7 @@
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="2">
         <v>43293</v>
@@ -18119,7 +18132,7 @@
       </c>
       <c r="E385" s="7">
         <f t="array" ref="E385">INDEX(LINEST($C366:$C385,$A366:$A385,TRUE,TRUE),1,2)</f>
-        <v>250.45478947368426</v>
+        <v>250.49798496240606</v>
       </c>
       <c r="F385" s="7">
         <f t="array" ref="F385">INDEX(LINEST($C366:$C385,$A366:$A385,TRUE,TRUE),3,1)</f>
@@ -18146,7 +18159,7 @@
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="2">
         <v>43294</v>
@@ -18160,7 +18173,7 @@
       </c>
       <c r="E386" s="7">
         <f t="array" ref="E386">INDEX(LINEST($C367:$C386,$A367:$A386,TRUE,TRUE),1,2)</f>
-        <v>206.8370150375942</v>
+        <v>206.99652631578968</v>
       </c>
       <c r="F386" s="7">
         <f t="array" ref="F386">INDEX(LINEST($C367:$C386,$A367:$A386,TRUE,TRUE),3,1)</f>
@@ -18187,7 +18200,7 @@
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="2">
         <v>43297</v>
@@ -18201,7 +18214,7 @@
       </c>
       <c r="E387" s="7">
         <f t="array" ref="E387">INDEX(LINEST($C368:$C387,$A368:$A387,TRUE,TRUE),1,2)</f>
-        <v>167.51860150375967</v>
+        <v>167.78240601503785</v>
       </c>
       <c r="F387" s="7">
         <f t="array" ref="F387">INDEX(LINEST($C368:$C387,$A368:$A387,TRUE,TRUE),3,1)</f>
@@ -18228,7 +18241,7 @@
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="2">
         <v>43298</v>
@@ -18242,7 +18255,7 @@
       </c>
       <c r="E388" s="7">
         <f t="array" ref="E388">INDEX(LINEST($C369:$C388,$A369:$A388,TRUE,TRUE),1,2)</f>
-        <v>126.64073684210547</v>
+        <v>127.01263157894758</v>
       </c>
       <c r="F388" s="7">
         <f t="array" ref="F388">INDEX(LINEST($C369:$C388,$A369:$A388,TRUE,TRUE),3,1)</f>
@@ -18269,7 +18282,7 @@
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="2">
         <v>43299</v>
@@ -18283,7 +18296,7 @@
       </c>
       <c r="E389" s="7">
         <f t="array" ref="E389">INDEX(LINEST($C370:$C389,$A370:$A389,TRUE,TRUE),1,2)</f>
-        <v>90.863082706767131</v>
+        <v>91.329233082706963</v>
       </c>
       <c r="F389" s="7">
         <f t="array" ref="F389">INDEX(LINEST($C370:$C389,$A370:$A389,TRUE,TRUE),3,1)</f>
@@ -18310,7 +18323,7 @@
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="2">
         <v>43300</v>
@@ -18324,7 +18337,7 @@
       </c>
       <c r="E390" s="7">
         <f t="array" ref="E390">INDEX(LINEST($C371:$C390,$A371:$A390,TRUE,TRUE),1,2)</f>
-        <v>60.731774436090205</v>
+        <v>61.276609022556357</v>
       </c>
       <c r="F390" s="7">
         <f t="array" ref="F390">INDEX(LINEST($C371:$C390,$A371:$A390,TRUE,TRUE),3,1)</f>
@@ -18351,7 +18364,7 @@
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="2">
         <v>43301</v>
@@ -18365,7 +18378,7 @@
       </c>
       <c r="E391" s="7">
         <f t="array" ref="E391">INDEX(LINEST($C372:$C391,$A372:$A391,TRUE,TRUE),1,2)</f>
-        <v>44.527157894736774</v>
+        <v>45.113842105263103</v>
       </c>
       <c r="F391" s="7">
         <f t="array" ref="F391">INDEX(LINEST($C372:$C391,$A372:$A391,TRUE,TRUE),3,1)</f>
@@ -18392,7 +18405,7 @@
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="2">
         <v>43304</v>
@@ -18406,7 +18419,7 @@
       </c>
       <c r="E392" s="7">
         <f t="array" ref="E392">INDEX(LINEST($C373:$C392,$A373:$A392,TRUE,TRUE),1,2)</f>
-        <v>25.652526315789174</v>
+        <v>26.287842105262854</v>
       </c>
       <c r="F392" s="7">
         <f t="array" ref="F392">INDEX(LINEST($C373:$C392,$A373:$A392,TRUE,TRUE),3,1)</f>
@@ -18433,7 +18446,7 @@
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="2">
         <v>43305</v>
@@ -18447,7 +18460,7 @@
       </c>
       <c r="E393" s="7">
         <f t="array" ref="E393">INDEX(LINEST($C374:$C393,$A374:$A393,TRUE,TRUE),1,2)</f>
-        <v>24.416345864661338</v>
+        <v>25.0545789473681</v>
       </c>
       <c r="F393" s="7">
         <f t="array" ref="F393">INDEX(LINEST($C374:$C393,$A374:$A393,TRUE,TRUE),3,1)</f>
@@ -18474,7 +18487,7 @@
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="2">
         <v>43306</v>
@@ -18488,7 +18501,7 @@
       </c>
       <c r="E394" s="7">
         <f t="array" ref="E394">INDEX(LINEST($C375:$C394,$A375:$A394,TRUE,TRUE),1,2)</f>
-        <v>12.870345864661374</v>
+        <v>13.53859398496212</v>
       </c>
       <c r="F394" s="7">
         <f t="array" ref="F394">INDEX(LINEST($C375:$C394,$A375:$A394,TRUE,TRUE),3,1)</f>
@@ -18515,7 +18528,7 @@
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2">
         <v>43307</v>
@@ -18529,7 +18542,7 @@
       </c>
       <c r="E395" s="7">
         <f t="array" ref="E395">INDEX(LINEST($C376:$C395,$A376:$A395,TRUE,TRUE),1,2)</f>
-        <v>25.173533834586266</v>
+        <v>25.809812030074966</v>
       </c>
       <c r="F395" s="7">
         <f t="array" ref="F395">INDEX(LINEST($C376:$C395,$A376:$A395,TRUE,TRUE),3,1)</f>
@@ -18556,7 +18569,7 @@
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="2">
         <v>43308</v>
@@ -18570,7 +18583,7 @@
       </c>
       <c r="E396" s="7">
         <f t="array" ref="E396">INDEX(LINEST($C377:$C396,$A377:$A396,TRUE,TRUE),1,2)</f>
-        <v>46.419368421052354</v>
+        <v>47.000210526315499</v>
       </c>
       <c r="F396" s="7">
         <f t="array" ref="F396">INDEX(LINEST($C377:$C396,$A377:$A396,TRUE,TRUE),3,1)</f>
@@ -18597,7 +18610,7 @@
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="2">
         <v>43311</v>
@@ -18611,7 +18624,7 @@
       </c>
       <c r="E397" s="7">
         <f t="array" ref="E397">INDEX(LINEST($C378:$C397,$A378:$A397,TRUE,TRUE),1,2)</f>
-        <v>79.207924812029688</v>
+        <v>79.703518796992086</v>
       </c>
       <c r="F397" s="7">
         <f t="array" ref="F397">INDEX(LINEST($C378:$C397,$A378:$A397,TRUE,TRUE),3,1)</f>
@@ -18638,7 +18651,7 @@
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="2">
         <v>43312</v>
@@ -18652,7 +18665,7 @@
       </c>
       <c r="E398" s="7">
         <f t="array" ref="E398">INDEX(LINEST($C379:$C398,$A379:$A398,TRUE,TRUE),1,2)</f>
-        <v>106.26819548872146</v>
+        <v>106.69386466165378</v>
       </c>
       <c r="F398" s="7">
         <f t="array" ref="F398">INDEX(LINEST($C379:$C398,$A379:$A398,TRUE,TRUE),3,1)</f>
@@ -18679,7 +18692,7 @@
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="2">
         <v>43313</v>
@@ -18693,7 +18706,7 @@
       </c>
       <c r="E399" s="7">
         <f t="array" ref="E399">INDEX(LINEST($C380:$C399,$A380:$A399,TRUE,TRUE),1,2)</f>
-        <v>147.06936842105233</v>
+        <v>147.39016541353354</v>
       </c>
       <c r="F399" s="7">
         <f t="array" ref="F399">INDEX(LINEST($C380:$C399,$A380:$A399,TRUE,TRUE),3,1)</f>
@@ -18720,7 +18733,7 @@
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="2">
         <v>43314</v>
@@ -18734,7 +18747,7 @@
       </c>
       <c r="E400" s="7">
         <f t="array" ref="E400">INDEX(LINEST($C381:$C400,$A381:$A400,TRUE,TRUE),1,2)</f>
-        <v>172.25885714285693</v>
+        <v>172.51531578947345</v>
       </c>
       <c r="F400" s="7">
         <f t="array" ref="F400">INDEX(LINEST($C381:$C400,$A381:$A400,TRUE,TRUE),3,1)</f>
@@ -18761,7 +18774,7 @@
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="2">
         <v>43315</v>
@@ -18775,7 +18788,7 @@
       </c>
       <c r="E401" s="7">
         <f t="array" ref="E401">INDEX(LINEST($C382:$C401,$A382:$A401,TRUE,TRUE),1,2)</f>
-        <v>182.42077443608994</v>
+        <v>182.65157142857115</v>
       </c>
       <c r="F401" s="7">
         <f t="array" ref="F401">INDEX(LINEST($C382:$C401,$A382:$A401,TRUE,TRUE),3,1)</f>
@@ -18802,7 +18815,7 @@
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="2">
         <v>43318</v>
@@ -18816,7 +18829,7 @@
       </c>
       <c r="E402" s="7">
         <f t="array" ref="E402">INDEX(LINEST($C383:$C402,$A383:$A402,TRUE,TRUE),1,2)</f>
-        <v>176.69796240601468</v>
+        <v>176.94362406015003</v>
       </c>
       <c r="F402" s="7">
         <f t="array" ref="F402">INDEX(LINEST($C383:$C402,$A383:$A402,TRUE,TRUE),3,1)</f>
@@ -18843,7 +18856,7 @@
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="2">
         <v>43319</v>
@@ -18857,7 +18870,7 @@
       </c>
       <c r="E403" s="7">
         <f t="array" ref="E403">INDEX(LINEST($C384:$C403,$A384:$A403,TRUE,TRUE),1,2)</f>
-        <v>163.69445112781955</v>
+        <v>163.97344360902255</v>
       </c>
       <c r="F403" s="7">
         <f t="array" ref="F403">INDEX(LINEST($C384:$C403,$A384:$A403,TRUE,TRUE),3,1)</f>
@@ -18884,7 +18897,7 @@
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="2">
         <v>43320</v>
@@ -18898,7 +18911,7 @@
       </c>
       <c r="E404" s="7">
         <f t="array" ref="E404">INDEX(LINEST($C385:$C404,$A385:$A404,TRUE,TRUE),1,2)</f>
-        <v>167.53422556390979</v>
+        <v>167.80381203007522</v>
       </c>
       <c r="F404" s="7">
         <f t="array" ref="F404">INDEX(LINEST($C385:$C404,$A385:$A404,TRUE,TRUE),3,1)</f>
@@ -18925,7 +18938,7 @@
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="2">
         <v>43321</v>
@@ -18939,7 +18952,7 @@
       </c>
       <c r="E405" s="7">
         <f t="array" ref="E405">INDEX(LINEST($C386:$C405,$A386:$A405,TRUE,TRUE),1,2)</f>
-        <v>163.0923909774437</v>
+        <v>163.37325563909786</v>
       </c>
       <c r="F405" s="7">
         <f t="array" ref="F405">INDEX(LINEST($C386:$C405,$A386:$A405,TRUE,TRUE),3,1)</f>
@@ -18966,7 +18979,7 @@
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="2">
         <v>43322</v>
@@ -18980,7 +18993,7 @@
       </c>
       <c r="E406" s="7">
         <f t="array" ref="E406">INDEX(LINEST($C387:$C406,$A387:$A406,TRUE,TRUE),1,2)</f>
-        <v>171.01694736842109</v>
+        <v>171.27750375939854</v>
       </c>
       <c r="F406" s="7">
         <f t="array" ref="F406">INDEX(LINEST($C387:$C406,$A387:$A406,TRUE,TRUE),3,1)</f>
@@ -19007,7 +19020,7 @@
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="2">
         <v>43325</v>
@@ -19021,7 +19034,7 @@
       </c>
       <c r="E407" s="7">
         <f t="array" ref="E407">INDEX(LINEST($C388:$C407,$A388:$A407,TRUE,TRUE),1,2)</f>
-        <v>188.34831578947393</v>
+        <v>188.56484210526341</v>
       </c>
       <c r="F407" s="7">
         <f t="array" ref="F407">INDEX(LINEST($C388:$C407,$A388:$A407,TRUE,TRUE),3,1)</f>
@@ -19048,7 +19061,7 @@
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="2">
         <v>43326</v>
@@ -19062,7 +19075,7 @@
       </c>
       <c r="E408" s="7">
         <f t="array" ref="E408">INDEX(LINEST($C389:$C408,$A389:$A408,TRUE,TRUE),1,2)</f>
-        <v>190.56075187969958</v>
+        <v>190.77158646616573</v>
       </c>
       <c r="F408" s="7">
         <f t="array" ref="F408">INDEX(LINEST($C389:$C408,$A389:$A408,TRUE,TRUE),3,1)</f>
@@ -19089,7 +19102,7 @@
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="2">
         <v>43327</v>
@@ -19103,7 +19116,7 @@
       </c>
       <c r="E409" s="7">
         <f t="array" ref="E409">INDEX(LINEST($C390:$C409,$A390:$A409,TRUE,TRUE),1,2)</f>
-        <v>202.78935338345906</v>
+        <v>202.96906015037638</v>
       </c>
       <c r="F409" s="7">
         <f t="array" ref="F409">INDEX(LINEST($C390:$C409,$A390:$A409,TRUE,TRUE),3,1)</f>
@@ -19130,7 +19143,7 @@
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="2">
         <v>43328</v>
@@ -19144,7 +19157,7 @@
       </c>
       <c r="E410" s="7">
         <f t="array" ref="E410">INDEX(LINEST($C391:$C410,$A391:$A410,TRUE,TRUE),1,2)</f>
-        <v>209.54708270676713</v>
+        <v>209.70991729323327</v>
       </c>
       <c r="F410" s="7">
         <f t="array" ref="F410">INDEX(LINEST($C391:$C410,$A391:$A410,TRUE,TRUE),3,1)</f>
@@ -19171,7 +19184,7 @@
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="2">
         <v>43329</v>
@@ -19185,7 +19198,7 @@
       </c>
       <c r="E411" s="7">
         <f t="array" ref="E411">INDEX(LINEST($C392:$C411,$A392:$A411,TRUE,TRUE),1,2)</f>
-        <v>215.12928571428586</v>
+        <v>215.27842857142872</v>
       </c>
       <c r="F411" s="7">
         <f t="array" ref="F411">INDEX(LINEST($C392:$C411,$A392:$A411,TRUE,TRUE),3,1)</f>
@@ -19212,7 +19225,7 @@
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="2">
         <v>43332</v>
@@ -19226,7 +19239,7 @@
       </c>
       <c r="E412" s="7">
         <f t="array" ref="E412">INDEX(LINEST($C393:$C412,$A393:$A412,TRUE,TRUE),1,2)</f>
-        <v>217.34722556390977</v>
+        <v>217.49113533834586</v>
       </c>
       <c r="F412" s="7">
         <f t="array" ref="F412">INDEX(LINEST($C393:$C412,$A393:$A412,TRUE,TRUE),3,1)</f>
@@ -19253,7 +19266,7 @@
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="2">
         <v>43333</v>
@@ -19267,7 +19280,7 @@
       </c>
       <c r="E413" s="7">
         <f t="array" ref="E413">INDEX(LINEST($C394:$C413,$A394:$A413,TRUE,TRUE),1,2)</f>
-        <v>210.31542105263173</v>
+        <v>210.47701503759413</v>
       </c>
       <c r="F413" s="7">
         <f t="array" ref="F413">INDEX(LINEST($C394:$C413,$A394:$A413,TRUE,TRUE),3,1)</f>
@@ -19294,7 +19307,7 @@
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="2">
         <v>43334</v>
@@ -19308,7 +19321,7 @@
       </c>
       <c r="E414" s="7">
         <f t="array" ref="E414">INDEX(LINEST($C395:$C414,$A395:$A414,TRUE,TRUE),1,2)</f>
-        <v>191.98554135338372</v>
+        <v>192.19242105263183</v>
       </c>
       <c r="F414" s="7">
         <f t="array" ref="F414">INDEX(LINEST($C395:$C414,$A395:$A414,TRUE,TRUE),3,1)</f>
@@ -19335,7 +19348,7 @@
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="2">
         <v>43335</v>
@@ -19349,7 +19362,7 @@
       </c>
       <c r="E415" s="7">
         <f t="array" ref="E415">INDEX(LINEST($C396:$C415,$A396:$A415,TRUE,TRUE),1,2)</f>
-        <v>181.2042631578953</v>
+        <v>181.43757894736899</v>
       </c>
       <c r="F415" s="7">
         <f t="array" ref="F415">INDEX(LINEST($C396:$C415,$A396:$A415,TRUE,TRUE),3,1)</f>
@@ -19376,7 +19389,7 @@
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="2">
         <v>43336</v>
@@ -19390,7 +19403,7 @@
       </c>
       <c r="E416" s="7">
         <f t="array" ref="E416">INDEX(LINEST($C397:$C416,$A397:$A416,TRUE,TRUE),1,2)</f>
-        <v>174.17527067669229</v>
+        <v>174.4260751879705</v>
       </c>
       <c r="F416" s="7">
         <f t="array" ref="F416">INDEX(LINEST($C397:$C416,$A397:$A416,TRUE,TRUE),3,1)</f>
@@ -19417,7 +19430,7 @@
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="2">
         <v>43339</v>
@@ -19431,7 +19444,7 @@
       </c>
       <c r="E417" s="7">
         <f t="array" ref="E417">INDEX(LINEST($C398:$C417,$A398:$A417,TRUE,TRUE),1,2)</f>
-        <v>167.31419548872208</v>
+        <v>167.58243609022583</v>
       </c>
       <c r="F417" s="7">
         <f t="array" ref="F417">INDEX(LINEST($C398:$C417,$A398:$A417,TRUE,TRUE),3,1)</f>
@@ -19458,7 +19471,7 @@
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="2">
         <v>43340</v>
@@ -19472,7 +19485,7 @@
       </c>
       <c r="E418" s="7">
         <f t="array" ref="E418">INDEX(LINEST($C399:$C418,$A399:$A418,TRUE,TRUE),1,2)</f>
-        <v>156.77347368421073</v>
+        <v>157.06794736842127</v>
       </c>
       <c r="F418" s="7">
         <f t="array" ref="F418">INDEX(LINEST($C399:$C418,$A399:$A418,TRUE,TRUE),3,1)</f>
@@ -19499,7 +19512,7 @@
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="2">
         <v>43341</v>
@@ -19513,7 +19526,7 @@
       </c>
       <c r="E419" s="7">
         <f t="array" ref="E419">INDEX(LINEST($C400:$C419,$A400:$A419,TRUE,TRUE),1,2)</f>
-        <v>145.49814285714302</v>
+        <v>145.82075939849642</v>
       </c>
       <c r="F419" s="7">
         <f t="array" ref="F419">INDEX(LINEST($C400:$C419,$A400:$A419,TRUE,TRUE),3,1)</f>
@@ -19540,7 +19553,7 @@
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="2">
         <v>43342</v>
@@ -19554,7 +19567,7 @@
       </c>
       <c r="E420" s="7">
         <f t="array" ref="E420">INDEX(LINEST($C401:$C420,$A401:$A420,TRUE,TRUE),1,2)</f>
-        <v>137.48394736842098</v>
+        <v>137.82628571428566</v>
       </c>
       <c r="F420" s="7">
         <f t="array" ref="F420">INDEX(LINEST($C401:$C420,$A401:$A420,TRUE,TRUE),3,1)</f>
@@ -19581,7 +19594,7 @@
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="2">
         <v>43343</v>
@@ -19595,7 +19608,7 @@
       </c>
       <c r="E421" s="7">
         <f t="array" ref="E421">INDEX(LINEST($C402:$C421,$A402:$A421,TRUE,TRUE),1,2)</f>
-        <v>126.47003007518757</v>
+        <v>126.83915789473645</v>
       </c>
       <c r="F421" s="7">
         <f t="array" ref="F421">INDEX(LINEST($C402:$C421,$A402:$A421,TRUE,TRUE),3,1)</f>
@@ -19622,7 +19635,7 @@
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="2">
         <v>43347</v>
@@ -19636,7 +19649,7 @@
       </c>
       <c r="E422" s="7">
         <f t="array" ref="E422">INDEX(LINEST($C403:$C422,$A403:$A422,TRUE,TRUE),1,2)</f>
-        <v>115.61577443608965</v>
+        <v>116.01099248120244</v>
       </c>
       <c r="F422" s="7">
         <f t="array" ref="F422">INDEX(LINEST($C403:$C422,$A403:$A422,TRUE,TRUE),3,1)</f>
@@ -19663,7 +19676,7 @@
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="2">
         <v>43348</v>
@@ -19677,7 +19690,7 @@
       </c>
       <c r="E423" s="7">
         <f t="array" ref="E423">INDEX(LINEST($C404:$C423,$A404:$A423,TRUE,TRUE),1,2)</f>
-        <v>106.29134586466117</v>
+        <v>106.70861654135288</v>
       </c>
       <c r="F423" s="7">
         <f t="array" ref="F423">INDEX(LINEST($C404:$C423,$A404:$A423,TRUE,TRUE),3,1)</f>
@@ -19704,7 +19717,7 @@
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="2">
         <v>43349</v>
@@ -19718,7 +19731,7 @@
       </c>
       <c r="E424" s="7">
         <f t="array" ref="E424">INDEX(LINEST($C405:$C424,$A405:$A424,TRUE,TRUE),1,2)</f>
-        <v>104.7153308270675</v>
+        <v>105.13572180451112</v>
       </c>
       <c r="F424" s="7">
         <f t="array" ref="F424">INDEX(LINEST($C405:$C424,$A405:$A424,TRUE,TRUE),3,1)</f>
@@ -19745,7 +19758,7 @@
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="2">
         <v>43350</v>
@@ -19759,7 +19772,7 @@
       </c>
       <c r="E425" s="7">
         <f t="array" ref="E425">INDEX(LINEST($C406:$C425,$A406:$A425,TRUE,TRUE),1,2)</f>
-        <v>110.44171428571414</v>
+        <v>110.84757142857129</v>
       </c>
       <c r="F425" s="7">
         <f t="array" ref="F425">INDEX(LINEST($C406:$C425,$A406:$A425,TRUE,TRUE),3,1)</f>
@@ -19786,7 +19799,7 @@
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="2">
         <v>43353</v>
@@ -19800,7 +19813,7 @@
       </c>
       <c r="E426" s="7">
         <f t="array" ref="E426">INDEX(LINEST($C407:$C426,$A407:$A426,TRUE,TRUE),1,2)</f>
-        <v>127.13953383458639</v>
+        <v>127.50480451127814</v>
       </c>
       <c r="F426" s="7">
         <f t="array" ref="F426">INDEX(LINEST($C407:$C426,$A407:$A426,TRUE,TRUE),3,1)</f>
@@ -19827,7 +19840,7 @@
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="2">
         <v>43354</v>
@@ -19841,7 +19854,7 @@
       </c>
       <c r="E427" s="7">
         <f t="array" ref="E427">INDEX(LINEST($C408:$C427,$A408:$A427,TRUE,TRUE),1,2)</f>
-        <v>148.32194736842106</v>
+        <v>148.63629323308271</v>
       </c>
       <c r="F427" s="7">
         <f t="array" ref="F427">INDEX(LINEST($C408:$C427,$A408:$A427,TRUE,TRUE),3,1)</f>
@@ -19868,7 +19881,7 @@
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="2">
         <v>43355</v>
@@ -19882,7 +19895,7 @@
       </c>
       <c r="E428" s="7">
         <f t="array" ref="E428">INDEX(LINEST($C409:$C428,$A409:$A428,TRUE,TRUE),1,2)</f>
-        <v>161.80630827067682</v>
+        <v>162.08821052631595</v>
       </c>
       <c r="F428" s="7">
         <f t="array" ref="F428">INDEX(LINEST($C409:$C428,$A409:$A428,TRUE,TRUE),3,1)</f>
@@ -19909,7 +19922,7 @@
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="2">
         <v>43356</v>
@@ -19923,7 +19936,7 @@
       </c>
       <c r="E429" s="7">
         <f t="array" ref="E429">INDEX(LINEST($C410:$C429,$A410:$A429,TRUE,TRUE),1,2)</f>
-        <v>182.42006015037606</v>
+        <v>182.65308270676701</v>
       </c>
       <c r="F429" s="7">
         <f t="array" ref="F429">INDEX(LINEST($C410:$C429,$A410:$A429,TRUE,TRUE),3,1)</f>
@@ -19950,7 +19963,7 @@
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="2">
         <v>43357</v>
@@ -19964,7 +19977,7 @@
       </c>
       <c r="E430" s="7">
         <f t="array" ref="E430">INDEX(LINEST($C411:$C430,$A411:$A430,TRUE,TRUE),1,2)</f>
-        <v>193.63055639097729</v>
+        <v>193.83709022556377</v>
       </c>
       <c r="F430" s="7">
         <f t="array" ref="F430">INDEX(LINEST($C411:$C430,$A411:$A430,TRUE,TRUE),3,1)</f>
@@ -19991,7 +20004,7 @@
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="2">
         <v>43360</v>
@@ -20005,7 +20018,7 @@
       </c>
       <c r="E431" s="7">
         <f t="array" ref="E431">INDEX(LINEST($C412:$C431,$A412:$A431,TRUE,TRUE),1,2)</f>
-        <v>211.46641353383438</v>
+        <v>211.63053383458626</v>
       </c>
       <c r="F431" s="7">
         <f t="array" ref="F431">INDEX(LINEST($C412:$C431,$A412:$A431,TRUE,TRUE),3,1)</f>
@@ -20032,7 +20045,7 @@
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="2">
         <v>43361</v>
@@ -20046,7 +20059,7 @@
       </c>
       <c r="E432" s="7">
         <f t="array" ref="E432">INDEX(LINEST($C413:$C432,$A413:$A432,TRUE,TRUE),1,2)</f>
-        <v>218.92512030075159</v>
+        <v>219.07175939849594</v>
       </c>
       <c r="F432" s="7">
         <f t="array" ref="F432">INDEX(LINEST($C413:$C432,$A413:$A432,TRUE,TRUE),3,1)</f>
@@ -20073,7 +20086,7 @@
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="2">
         <v>43362</v>
@@ -20087,7 +20100,7 @@
       </c>
       <c r="E433" s="7">
         <f t="array" ref="E433">INDEX(LINEST($C414:$C433,$A414:$A433,TRUE,TRUE),1,2)</f>
-        <v>223.48826315789455</v>
+        <v>223.62431578947351</v>
       </c>
       <c r="F433" s="7">
         <f t="array" ref="F433">INDEX(LINEST($C414:$C433,$A414:$A433,TRUE,TRUE),3,1)</f>
@@ -20114,7 +20127,7 @@
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="2">
         <v>43363</v>
@@ -20128,7 +20141,7 @@
       </c>
       <c r="E434" s="7">
         <f t="array" ref="E434">INDEX(LINEST($C415:$C434,$A415:$A434,TRUE,TRUE),1,2)</f>
-        <v>218.49647368421029</v>
+        <v>218.64484210526291</v>
       </c>
       <c r="F434" s="7">
         <f t="array" ref="F434">INDEX(LINEST($C415:$C434,$A415:$A434,TRUE,TRUE),3,1)</f>
@@ -20155,7 +20168,7 @@
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="2">
         <v>43364</v>
@@ -20169,7 +20182,7 @@
       </c>
       <c r="E435" s="7">
         <f t="array" ref="E435">INDEX(LINEST($C416:$C435,$A416:$A435,TRUE,TRUE),1,2)</f>
-        <v>222.13833082706776</v>
+        <v>222.27863157894748</v>
       </c>
       <c r="F435" s="7">
         <f t="array" ref="F435">INDEX(LINEST($C416:$C435,$A416:$A435,TRUE,TRUE),3,1)</f>
@@ -20196,7 +20209,7 @@
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="2">
         <v>43367</v>
@@ -20210,7 +20223,7 @@
       </c>
       <c r="E436" s="7">
         <f t="array" ref="E436">INDEX(LINEST($C417:$C436,$A417:$A436,TRUE,TRUE),1,2)</f>
-        <v>224.82981954887251</v>
+        <v>224.96401503759429</v>
       </c>
       <c r="F436" s="7">
         <f t="array" ref="F436">INDEX(LINEST($C417:$C436,$A417:$A436,TRUE,TRUE),3,1)</f>
@@ -20237,7 +20250,7 @@
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="2">
         <v>43368</v>
@@ -20251,7 +20264,7 @@
       </c>
       <c r="E437" s="7">
         <f t="array" ref="E437">INDEX(LINEST($C418:$C437,$A418:$A437,TRUE,TRUE),1,2)</f>
-        <v>217.1809323308272</v>
+        <v>217.33300751879716</v>
       </c>
       <c r="F437" s="7">
         <f t="array" ref="F437">INDEX(LINEST($C418:$C437,$A418:$A437,TRUE,TRUE),3,1)</f>
@@ -20278,7 +20291,7 @@
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="2">
         <v>43369</v>
@@ -20292,7 +20305,7 @@
       </c>
       <c r="E438" s="7">
         <f t="array" ref="E438">INDEX(LINEST($C419:$C438,$A419:$A438,TRUE,TRUE),1,2)</f>
-        <v>215.12000000000032</v>
+        <v>215.27668421052664</v>
       </c>
       <c r="F438" s="7">
         <f t="array" ref="F438">INDEX(LINEST($C419:$C438,$A419:$A438,TRUE,TRUE),3,1)</f>
@@ -20319,7 +20332,7 @@
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="2">
         <v>43370</v>
@@ -20333,7 +20346,7 @@
       </c>
       <c r="E439" s="7">
         <f t="array" ref="E439">INDEX(LINEST($C420:$C439,$A420:$A439,TRUE,TRUE),1,2)</f>
-        <v>198.75414285714322</v>
+        <v>198.94871428571463</v>
       </c>
       <c r="F439" s="7">
         <f t="array" ref="F439">INDEX(LINEST($C420:$C439,$A420:$A439,TRUE,TRUE),3,1)</f>
@@ -20360,7 +20373,7 @@
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="2">
         <v>43371</v>
@@ -20374,7 +20387,7 @@
       </c>
       <c r="E440" s="7">
         <f t="array" ref="E440">INDEX(LINEST($C421:$C440,$A421:$A440,TRUE,TRUE),1,2)</f>
-        <v>190.24733082706769</v>
+        <v>190.46145112781954</v>
       </c>
       <c r="F440" s="7">
         <f t="array" ref="F440">INDEX(LINEST($C421:$C440,$A421:$A440,TRUE,TRUE),3,1)</f>
@@ -20401,7 +20414,7 @@
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="2">
         <v>43374</v>
@@ -20415,7 +20428,7 @@
       </c>
       <c r="E441" s="7">
         <f t="array" ref="E441">INDEX(LINEST($C422:$C441,$A422:$A441,TRUE,TRUE),1,2)</f>
-        <v>176.75000000000011</v>
+        <v>176.99528571428581</v>
       </c>
       <c r="F441" s="7">
         <f t="array" ref="F441">INDEX(LINEST($C422:$C441,$A422:$A441,TRUE,TRUE),3,1)</f>
@@ -20442,7 +20455,7 @@
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="2">
         <v>43375</v>
@@ -20456,7 +20469,7 @@
       </c>
       <c r="E442" s="7">
         <f t="array" ref="E442">INDEX(LINEST($C423:$C442,$A423:$A442,TRUE,TRUE),1,2)</f>
-        <v>169.25657142857136</v>
+        <v>169.51899999999992</v>
       </c>
       <c r="F442" s="7">
         <f t="array" ref="F442">INDEX(LINEST($C423:$C442,$A423:$A442,TRUE,TRUE),3,1)</f>
@@ -20483,7 +20496,7 @@
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="2">
         <v>43376</v>
@@ -20497,7 +20510,7 @@
       </c>
       <c r="E443" s="7">
         <f t="array" ref="E443">INDEX(LINEST($C424:$C443,$A424:$A443,TRUE,TRUE),1,2)</f>
-        <v>167.91440601503757</v>
+        <v>168.1797819548872</v>
       </c>
       <c r="F443" s="7">
         <f t="array" ref="F443">INDEX(LINEST($C424:$C443,$A424:$A443,TRUE,TRUE),3,1)</f>
@@ -20524,7 +20537,7 @@
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="2">
         <v>43377</v>
@@ -20538,7 +20551,7 @@
       </c>
       <c r="E444" s="7">
         <f t="array" ref="E444">INDEX(LINEST($C425:$C444,$A425:$A444,TRUE,TRUE),1,2)</f>
-        <v>188.59882706766916</v>
+        <v>188.81616541353381</v>
       </c>
       <c r="F444" s="7">
         <f t="array" ref="F444">INDEX(LINEST($C425:$C444,$A425:$A444,TRUE,TRUE),3,1)</f>
@@ -20565,7 +20578,7 @@
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="2">
         <v>43378</v>
@@ -20579,7 +20592,7 @@
       </c>
       <c r="E445" s="7">
         <f t="array" ref="E445">INDEX(LINEST($C426:$C445,$A426:$A445,TRUE,TRUE),1,2)</f>
-        <v>224.54839097744355</v>
+        <v>224.68266165413527</v>
       </c>
       <c r="F445" s="7">
         <f t="array" ref="F445">INDEX(LINEST($C426:$C445,$A426:$A445,TRUE,TRUE),3,1)</f>
@@ -20606,7 +20619,7 @@
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="2">
         <v>43381</v>
@@ -20620,7 +20633,7 @@
       </c>
       <c r="E446" s="7">
         <f t="array" ref="E446">INDEX(LINEST($C427:$C446,$A427:$A446,TRUE,TRUE),1,2)</f>
-        <v>258.23942857142873</v>
+        <v>258.29614285714297</v>
       </c>
       <c r="F446" s="7">
         <f t="array" ref="F446">INDEX(LINEST($C427:$C446,$A427:$A446,TRUE,TRUE),3,1)</f>
@@ -20647,7 +20660,7 @@
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="2">
         <v>43382</v>
@@ -20661,7 +20674,7 @@
       </c>
       <c r="E447" s="7">
         <f t="array" ref="E447">INDEX(LINEST($C428:$C447,$A428:$A447,TRUE,TRUE),1,2)</f>
-        <v>288.8848120300753</v>
+        <v>288.87115037593992</v>
       </c>
       <c r="F447" s="7">
         <f t="array" ref="F447">INDEX(LINEST($C428:$C447,$A428:$A447,TRUE,TRUE),3,1)</f>
@@ -20688,7 +20701,7 @@
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="2">
         <v>43383</v>
@@ -20702,7 +20715,7 @@
       </c>
       <c r="E448" s="7">
         <f t="array" ref="E448">INDEX(LINEST($C429:$C448,$A429:$A448,TRUE,TRUE),1,2)</f>
-        <v>374.01621052631589</v>
+        <v>373.80693233082718</v>
       </c>
       <c r="F448" s="7">
         <f t="array" ref="F448">INDEX(LINEST($C429:$C448,$A429:$A448,TRUE,TRUE),3,1)</f>
@@ -20729,7 +20742,7 @@
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="2">
         <v>43384</v>
@@ -20743,7 +20756,7 @@
       </c>
       <c r="E449" s="7">
         <f t="array" ref="E449">INDEX(LINEST($C430:$C449,$A430:$A449,TRUE,TRUE),1,2)</f>
-        <v>478.99814285714291</v>
+        <v>478.548</v>
       </c>
       <c r="F449" s="7">
         <f t="array" ref="F449">INDEX(LINEST($C430:$C449,$A430:$A449,TRUE,TRUE),3,1)</f>
@@ -20770,7 +20783,7 @@
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="2">
         <v>43385</v>
@@ -20784,7 +20797,7 @@
       </c>
       <c r="E450" s="7">
         <f t="array" ref="E450">INDEX(LINEST($C431:$C450,$A431:$A450,TRUE,TRUE),1,2)</f>
-        <v>549.93982706766906</v>
+        <v>549.32778195488709</v>
       </c>
       <c r="F450" s="7">
         <f t="array" ref="F450">INDEX(LINEST($C431:$C450,$A431:$A450,TRUE,TRUE),3,1)</f>
@@ -20811,7 +20824,7 @@
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="2">
         <v>43388</v>
@@ -20825,7 +20838,7 @@
       </c>
       <c r="E451" s="7">
         <f t="array" ref="E451">INDEX(LINEST($C432:$C451,$A432:$A451,TRUE,TRUE),1,2)</f>
-        <v>632.33654887218029</v>
+        <v>631.53733082706754</v>
       </c>
       <c r="F451" s="7">
         <f t="array" ref="F451">INDEX(LINEST($C432:$C451,$A432:$A451,TRUE,TRUE),3,1)</f>
@@ -20852,7 +20865,7 @@
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="2">
         <v>43389</v>
@@ -20866,7 +20879,7 @@
       </c>
       <c r="E452" s="7">
         <f t="array" ref="E452">INDEX(LINEST($C433:$C452,$A433:$A452,TRUE,TRUE),1,2)</f>
-        <v>658.9311203007519</v>
+        <v>658.0724586466165</v>
       </c>
       <c r="F452" s="7">
         <f t="array" ref="F452">INDEX(LINEST($C433:$C452,$A433:$A452,TRUE,TRUE),3,1)</f>
@@ -20893,7 +20906,7 @@
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="2">
         <v>43390</v>
@@ -20907,7 +20920,7 @@
       </c>
       <c r="E453" s="7">
         <f t="array" ref="E453">INDEX(LINEST($C434:$C453,$A434:$A453,TRUE,TRUE),1,2)</f>
-        <v>677.24454135338351</v>
+        <v>676.34539097744369</v>
       </c>
       <c r="F453" s="7">
         <f t="array" ref="F453">INDEX(LINEST($C434:$C453,$A434:$A453,TRUE,TRUE),3,1)</f>
@@ -20934,7 +20947,7 @@
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="2">
         <v>43391</v>
@@ -20948,7 +20961,7 @@
       </c>
       <c r="E454" s="7">
         <f t="array" ref="E454">INDEX(LINEST($C435:$C454,$A435:$A454,TRUE,TRUE),1,2)</f>
-        <v>698.16133834586435</v>
+        <v>697.21530827067647</v>
       </c>
       <c r="F454" s="7">
         <f t="array" ref="F454">INDEX(LINEST($C435:$C454,$A435:$A454,TRUE,TRUE),3,1)</f>
@@ -20975,7 +20988,7 @@
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="2">
         <v>43392</v>
@@ -20989,7 +21002,7 @@
       </c>
       <c r="E455" s="7">
         <f t="array" ref="E455">INDEX(LINEST($C436:$C455,$A436:$A455,TRUE,TRUE),1,2)</f>
-        <v>711.61421052631567</v>
+        <v>710.63831578947349</v>
       </c>
       <c r="F455" s="7">
         <f t="array" ref="F455">INDEX(LINEST($C436:$C455,$A436:$A455,TRUE,TRUE),3,1)</f>
@@ -21016,7 +21029,7 @@
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="2">
         <v>43395</v>
@@ -21030,7 +21043,7 @@
       </c>
       <c r="E456" s="7">
         <f t="array" ref="E456">INDEX(LINEST($C437:$C456,$A437:$A456,TRUE,TRUE),1,2)</f>
-        <v>729.20705263157879</v>
+        <v>728.19210526315771</v>
       </c>
       <c r="F456" s="7">
         <f t="array" ref="F456">INDEX(LINEST($C437:$C456,$A437:$A456,TRUE,TRUE),3,1)</f>
@@ -21057,7 +21070,7 @@
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="2">
         <v>43396</v>
@@ -21071,7 +21084,7 @@
       </c>
       <c r="E457" s="7">
         <f t="array" ref="E457">INDEX(LINEST($C438:$C457,$A438:$A457,TRUE,TRUE),1,2)</f>
-        <v>746.84314285714265</v>
+        <v>745.78909774436079</v>
       </c>
       <c r="F457" s="7">
         <f t="array" ref="F457">INDEX(LINEST($C438:$C457,$A438:$A457,TRUE,TRUE),3,1)</f>
@@ -21098,7 +21111,7 @@
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="2">
         <v>43397</v>
@@ -21112,7 +21125,7 @@
       </c>
       <c r="E458" s="7">
         <f t="array" ref="E458">INDEX(LINEST($C439:$C458,$A439:$A458,TRUE,TRUE),1,2)</f>
-        <v>810.66813533834591</v>
+        <v>809.47114285714281</v>
       </c>
       <c r="F458" s="7">
         <f t="array" ref="F458">INDEX(LINEST($C439:$C458,$A439:$A458,TRUE,TRUE),3,1)</f>
@@ -21139,7 +21152,7 @@
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="2">
         <v>43398</v>
@@ -21153,7 +21166,7 @@
       </c>
       <c r="E459" s="7">
         <f t="array" ref="E459">INDEX(LINEST($C440:$C459,$A440:$A459,TRUE,TRUE),1,2)</f>
-        <v>823.48844360902274</v>
+        <v>822.26329323308289</v>
       </c>
       <c r="F459" s="7">
         <f t="array" ref="F459">INDEX(LINEST($C440:$C459,$A440:$A459,TRUE,TRUE),3,1)</f>
@@ -21180,7 +21193,7 @@
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="2">
         <v>43399</v>
@@ -21194,7 +21207,7 @@
       </c>
       <c r="E460" s="7">
         <f t="array" ref="E460">INDEX(LINEST($C441:$C460,$A441:$A460,TRUE,TRUE),1,2)</f>
-        <v>852.05721052631611</v>
+        <v>850.76847368421068</v>
       </c>
       <c r="F460" s="7">
         <f t="array" ref="F460">INDEX(LINEST($C441:$C460,$A441:$A460,TRUE,TRUE),3,1)</f>
@@ -21221,7 +21234,7 @@
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="2">
         <v>43402</v>
@@ -21235,7 +21248,7 @@
       </c>
       <c r="E461" s="7">
         <f t="array" ref="E461">INDEX(LINEST($C442:$C461,$A442:$A461,TRUE,TRUE),1,2)</f>
-        <v>866.07677443609055</v>
+        <v>864.75675939849657</v>
       </c>
       <c r="F461" s="7">
         <f t="array" ref="F461">INDEX(LINEST($C442:$C461,$A442:$A461,TRUE,TRUE),3,1)</f>
@@ -21262,7 +21275,7 @@
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="2">
         <v>43403</v>
@@ -21276,7 +21289,7 @@
       </c>
       <c r="E462" s="7">
         <f t="array" ref="E462">INDEX(LINEST($C443:$C462,$A443:$A462,TRUE,TRUE),1,2)</f>
-        <v>838.46394736842137</v>
+        <v>837.20544360902284</v>
       </c>
       <c r="F462" s="7">
         <f t="array" ref="F462">INDEX(LINEST($C443:$C462,$A443:$A462,TRUE,TRUE),3,1)</f>
@@ -21303,7 +21316,7 @@
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="2">
         <v>43404</v>
@@ -21317,7 +21330,7 @@
       </c>
       <c r="E463" s="7">
         <f t="array" ref="E463">INDEX(LINEST($C444:$C463,$A444:$A463,TRUE,TRUE),1,2)</f>
-        <v>775.88781203007579</v>
+        <v>774.76810526315853</v>
       </c>
       <c r="F463" s="7">
         <f t="array" ref="F463">INDEX(LINEST($C444:$C463,$A444:$A463,TRUE,TRUE),3,1)</f>
@@ -21344,7 +21357,7 @@
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="2">
         <v>43405</v>
@@ -21358,7 +21371,7 @@
       </c>
       <c r="E464" s="7">
         <f t="array" ref="E464">INDEX(LINEST($C445:$C464,$A445:$A464,TRUE,TRUE),1,2)</f>
-        <v>697.01463909774441</v>
+        <v>696.06960902255651</v>
       </c>
       <c r="F464" s="7">
         <f t="array" ref="F464">INDEX(LINEST($C445:$C464,$A445:$A464,TRUE,TRUE),3,1)</f>
@@ -21385,7 +21398,7 @@
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="2">
         <v>43406</v>
@@ -21399,7 +21412,7 @@
       </c>
       <c r="E465" s="7">
         <f t="array" ref="E465">INDEX(LINEST($C446:$C465,$A446:$A465,TRUE,TRUE),1,2)</f>
-        <v>628.76845864661664</v>
+        <v>627.97395488721816</v>
       </c>
       <c r="F465" s="7">
         <f t="array" ref="F465">INDEX(LINEST($C446:$C465,$A446:$A465,TRUE,TRUE),3,1)</f>
@@ -21426,7 +21439,7 @@
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="2">
         <v>43409</v>
@@ -21440,7 +21453,7 @@
       </c>
       <c r="E466" s="7">
         <f t="array" ref="E466">INDEX(LINEST($C447:$C466,$A447:$A466,TRUE,TRUE),1,2)</f>
-        <v>540.14948120300755</v>
+        <v>539.54972932330838</v>
       </c>
       <c r="F466" s="7">
         <f t="array" ref="F466">INDEX(LINEST($C447:$C466,$A447:$A466,TRUE,TRUE),3,1)</f>
@@ -21467,7 +21480,7 @@
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="2">
         <v>43410</v>
@@ -21481,7 +21494,7 @@
       </c>
       <c r="E467" s="7">
         <f t="array" ref="E467">INDEX(LINEST($C448:$C467,$A448:$A467,TRUE,TRUE),1,2)</f>
-        <v>433.51457894736848</v>
+        <v>433.14842105263165</v>
       </c>
       <c r="F467" s="7">
         <f t="array" ref="F467">INDEX(LINEST($C448:$C467,$A448:$A467,TRUE,TRUE),3,1)</f>
@@ -21508,7 +21521,7 @@
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="2">
         <v>43411</v>
@@ -21522,7 +21535,7 @@
       </c>
       <c r="E468" s="7">
         <f t="array" ref="E468">INDEX(LINEST($C449:$C468,$A449:$A468,TRUE,TRUE),1,2)</f>
-        <v>345.4680676691728</v>
+        <v>345.29545112781943</v>
       </c>
       <c r="F468" s="7">
         <f t="array" ref="F468">INDEX(LINEST($C449:$C468,$A449:$A468,TRUE,TRUE),3,1)</f>
@@ -21549,7 +21562,7 @@
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="2">
         <v>43412</v>
@@ -21563,7 +21576,7 @@
       </c>
       <c r="E469" s="7">
         <f t="array" ref="E469">INDEX(LINEST($C450:$C469,$A450:$A469,TRUE,TRUE),1,2)</f>
-        <v>305.70263157894715</v>
+        <v>305.61800751879679</v>
       </c>
       <c r="F469" s="7">
         <f t="array" ref="F469">INDEX(LINEST($C450:$C469,$A450:$A469,TRUE,TRUE),3,1)</f>
@@ -21590,7 +21603,7 @@
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="2">
         <v>43413</v>
@@ -21604,7 +21617,7 @@
       </c>
       <c r="E470" s="7">
         <f t="array" ref="E470">INDEX(LINEST($C451:$C470,$A451:$A470,TRUE,TRUE),1,2)</f>
-        <v>261.81557894736835</v>
+        <v>261.8268421052631</v>
       </c>
       <c r="F470" s="7">
         <f t="array" ref="F470">INDEX(LINEST($C451:$C470,$A451:$A470,TRUE,TRUE),3,1)</f>
@@ -21631,7 +21644,7 @@
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="2">
         <v>43416</v>
@@ -21645,7 +21658,7 @@
       </c>
       <c r="E471" s="7">
         <f t="array" ref="E471">INDEX(LINEST($C452:$C471,$A452:$A471,TRUE,TRUE),1,2)</f>
-        <v>263.11709022556374</v>
+        <v>263.1253082706765</v>
       </c>
       <c r="F471" s="7">
         <f t="array" ref="F471">INDEX(LINEST($C452:$C471,$A452:$A471,TRUE,TRUE),3,1)</f>
@@ -21672,7 +21685,7 @@
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="2">
         <v>43417</v>
@@ -21686,7 +21699,7 @@
       </c>
       <c r="E472" s="7">
         <f t="array" ref="E472">INDEX(LINEST($C453:$C472,$A453:$A472,TRUE,TRUE),1,2)</f>
-        <v>223.53336090225571</v>
+        <v>223.62645112781962</v>
       </c>
       <c r="F472" s="7">
         <f t="array" ref="F472">INDEX(LINEST($C453:$C472,$A453:$A472,TRUE,TRUE),3,1)</f>
@@ -21713,7 +21726,7 @@
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="2">
         <v>43418</v>
@@ -21727,7 +21740,7 @@
       </c>
       <c r="E473" s="7">
         <f t="array" ref="E473">INDEX(LINEST($C454:$C473,$A454:$A473,TRUE,TRUE),1,2)</f>
-        <v>189.61940601503781</v>
+        <v>189.78454135338367</v>
       </c>
       <c r="F473" s="7">
         <f t="array" ref="F473">INDEX(LINEST($C454:$C473,$A454:$A473,TRUE,TRUE),3,1)</f>
@@ -21754,7 +21767,7 @@
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="2">
         <v>43419</v>
@@ -21768,7 +21781,7 @@
       </c>
       <c r="E474" s="7">
         <f t="array" ref="E474">INDEX(LINEST($C455:$C474,$A455:$A474,TRUE,TRUE),1,2)</f>
-        <v>159.62527067669211</v>
+        <v>159.85440601503797</v>
       </c>
       <c r="F474" s="7">
         <f t="array" ref="F474">INDEX(LINEST($C455:$C474,$A455:$A474,TRUE,TRUE),3,1)</f>
@@ -21795,7 +21808,7 @@
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="2">
         <v>43420</v>
@@ -21809,7 +21822,7 @@
       </c>
       <c r="E475" s="7">
         <f t="array" ref="E475">INDEX(LINEST($C456:$C475,$A456:$A475,TRUE,TRUE),1,2)</f>
-        <v>123.76158646616571</v>
+        <v>124.06717293233112</v>
       </c>
       <c r="F475" s="7">
         <f t="array" ref="F475">INDEX(LINEST($C456:$C475,$A456:$A475,TRUE,TRUE),3,1)</f>
@@ -21836,7 +21849,7 @@
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="2">
         <v>43423</v>
@@ -21850,7 +21863,7 @@
       </c>
       <c r="E476" s="7">
         <f t="array" ref="E476">INDEX(LINEST($C457:$C476,$A457:$A476,TRUE,TRUE),1,2)</f>
-        <v>124.74300000000022</v>
+        <v>125.04520300751904</v>
       </c>
       <c r="F476" s="7">
         <f t="array" ref="F476">INDEX(LINEST($C457:$C476,$A457:$A476,TRUE,TRUE),3,1)</f>
@@ -21877,7 +21890,7 @@
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="2">
         <v>43424</v>
@@ -21891,7 +21904,7 @@
       </c>
       <c r="E477" s="7">
         <f t="array" ref="E477">INDEX(LINEST($C458:$C477,$A458:$A477,TRUE,TRUE),1,2)</f>
-        <v>163.92142105263179</v>
+        <v>164.1380000000002</v>
       </c>
       <c r="F477" s="7">
         <f t="array" ref="F477">INDEX(LINEST($C458:$C477,$A458:$A477,TRUE,TRUE),3,1)</f>
@@ -21918,7 +21931,7 @@
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="2">
         <v>43425</v>
@@ -21932,7 +21945,7 @@
       </c>
       <c r="E478" s="7">
         <f t="array" ref="E478">INDEX(LINEST($C459:$C478,$A459:$A478,TRUE,TRUE),1,2)</f>
-        <v>251.11585714285735</v>
+        <v>251.14542857142879</v>
       </c>
       <c r="F478" s="7">
         <f t="array" ref="F478">INDEX(LINEST($C459:$C478,$A459:$A478,TRUE,TRUE),3,1)</f>
@@ -21959,7 +21972,7 @@
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="2">
         <v>43427</v>
@@ -21973,7 +21986,7 @@
       </c>
       <c r="E479" s="7">
         <f t="array" ref="E479">INDEX(LINEST($C460:$C479,$A460:$A479,TRUE,TRUE),1,2)</f>
-        <v>315.34287969924821</v>
+        <v>315.23458646616552</v>
       </c>
       <c r="F479" s="7">
         <f t="array" ref="F479">INDEX(LINEST($C460:$C479,$A460:$A479,TRUE,TRUE),3,1)</f>
@@ -22000,7 +22013,7 @@
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="2">
         <v>43430</v>
@@ -22014,7 +22027,7 @@
       </c>
       <c r="E480" s="7">
         <f t="array" ref="E480">INDEX(LINEST($C461:$C480,$A461:$A480,TRUE,TRUE),1,2)</f>
-        <v>382.13742105263168</v>
+        <v>381.88731578947375</v>
       </c>
       <c r="F480" s="7">
         <f t="array" ref="F480">INDEX(LINEST($C461:$C480,$A461:$A480,TRUE,TRUE),3,1)</f>
@@ -22041,7 +22054,7 @@
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="2">
         <v>43431</v>
@@ -22055,7 +22068,7 @@
       </c>
       <c r="E481" s="7">
         <f t="array" ref="E481">INDEX(LINEST($C462:$C481,$A462:$A481,TRUE,TRUE),1,2)</f>
-        <v>455.60727819548885</v>
+        <v>455.20202255639106</v>
       </c>
       <c r="F481" s="7">
         <f t="array" ref="F481">INDEX(LINEST($C462:$C481,$A462:$A481,TRUE,TRUE),3,1)</f>
@@ -22082,7 +22095,7 @@
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="2">
         <v>43432</v>
@@ -22096,7 +22109,7 @@
       </c>
       <c r="E482" s="7">
         <f t="array" ref="E482">INDEX(LINEST($C463:$C482,$A463:$A482,TRUE,TRUE),1,2)</f>
-        <v>463.58365413533846</v>
+        <v>463.16304511278207</v>
       </c>
       <c r="F482" s="7">
         <f t="array" ref="F482">INDEX(LINEST($C463:$C482,$A463:$A482,TRUE,TRUE),3,1)</f>
@@ -22123,7 +22136,7 @@
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" s="2">
         <v>43433</v>
@@ -22137,7 +22150,7 @@
       </c>
       <c r="E483" s="7">
         <f t="array" ref="E483">INDEX(LINEST($C464:$C483,$A464:$A483,TRUE,TRUE),1,2)</f>
-        <v>459.24026315789479</v>
+        <v>458.83008270676697</v>
       </c>
       <c r="F483" s="7">
         <f t="array" ref="F483">INDEX(LINEST($C464:$C483,$A464:$A483,TRUE,TRUE),3,1)</f>
@@ -22164,7 +22177,7 @@
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" s="2">
         <v>43434</v>
@@ -22178,7 +22191,7 @@
       </c>
       <c r="E484" s="10">
         <f t="array" ref="E484">INDEX(LINEST($C465:$C484,$A465:$A484,TRUE,TRUE),1,2)</f>
-        <v>425.11112030075208</v>
+        <v>424.77410526315805</v>
       </c>
       <c r="F484" s="10">
         <f t="array" ref="F484">INDEX(LINEST($C465:$C484,$A465:$A484,TRUE,TRUE),3,1)</f>
@@ -22189,8 +22202,8 @@
         <v>4.6718844966458661</v>
       </c>
       <c r="H484" s="11">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>267.90685714285701</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>267.90685714285712</v>
       </c>
       <c r="J484" s="4">
         <v>483</v>
@@ -22210,7 +22223,7 @@
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" s="2">
         <v>43437</v>
@@ -22224,7 +22237,7 @@
       </c>
       <c r="E485" s="7">
         <f t="array" ref="E485">INDEX(LINEST($C466:$C485,$A466:$A485,TRUE,TRUE),1,2)</f>
-        <v>380.28974436090232</v>
+        <v>380.0486616541354</v>
       </c>
       <c r="F485" s="7">
         <f t="array" ref="F485">INDEX(LINEST($C466:$C485,$A466:$A485,TRUE,TRUE),3,1)</f>
@@ -22235,7 +22248,7 @@
         <v>4.9125038422376823</v>
       </c>
       <c r="H485" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
         <v>266.21771428571424</v>
       </c>
       <c r="J485" s="4">
@@ -22256,7 +22269,7 @@
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" s="2">
         <v>43438</v>
@@ -22270,7 +22283,7 @@
       </c>
       <c r="E486" s="7">
         <f t="array" ref="E486">INDEX(LINEST($C467:$C486,$A467:$A486,TRUE,TRUE),1,2)</f>
-        <v>388.9511278195489</v>
+        <v>388.69201503759399</v>
       </c>
       <c r="F486" s="7">
         <f t="array" ref="F486">INDEX(LINEST($C467:$C486,$A467:$A486,TRUE,TRUE),3,1)</f>
@@ -22281,8 +22294,8 @@
         <v>4.9311399290630549</v>
       </c>
       <c r="H486" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>264.52857142857135</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>264.52857142857147</v>
       </c>
       <c r="J486" s="4">
         <v>485</v>
@@ -22302,7 +22315,7 @@
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" s="2">
         <v>43440</v>
@@ -22316,7 +22329,7 @@
       </c>
       <c r="E487" s="7">
         <f t="array" ref="E487">INDEX(LINEST($C468:$C487,$A468:$A487,TRUE,TRUE),1,2)</f>
-        <v>385.35928571428542</v>
+        <v>385.107714285714</v>
       </c>
       <c r="F487" s="7">
         <f t="array" ref="F487">INDEX(LINEST($C468:$C487,$A468:$A487,TRUE,TRUE),3,1)</f>
@@ -22327,8 +22340,8 @@
         <v>4.9180285430241231</v>
       </c>
       <c r="H487" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>262.83942857142847</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>262.83942857142858</v>
       </c>
       <c r="J487" s="4">
         <v>486</v>
@@ -22348,7 +22361,7 @@
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" s="2">
         <v>43441</v>
@@ -22362,7 +22375,7 @@
       </c>
       <c r="E488" s="7">
         <f t="array" ref="E488">INDEX(LINEST($C469:$C488,$A469:$A488,TRUE,TRUE),1,2)</f>
-        <v>375.8560977443604</v>
+        <v>375.62317293233031</v>
       </c>
       <c r="F488" s="7">
         <f t="array" ref="F488">INDEX(LINEST($C469:$C488,$A469:$A488,TRUE,TRUE),3,1)</f>
@@ -22373,8 +22386,8 @@
         <v>4.8095493291991467</v>
       </c>
       <c r="H488" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>261.15028571428559</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>261.1502857142857</v>
       </c>
       <c r="J488" s="4">
         <v>487</v>
@@ -22394,7 +22407,7 @@
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" s="2">
         <v>43444</v>
@@ -22408,7 +22421,7 @@
       </c>
       <c r="E489" s="7">
         <f t="array" ref="E489">INDEX(LINEST($C470:$C489,$A470:$A489,TRUE,TRUE),1,2)</f>
-        <v>354.54652631578875</v>
+        <v>354.35694736842032</v>
       </c>
       <c r="F489" s="7">
         <f t="array" ref="F489">INDEX(LINEST($C470:$C489,$A470:$A489,TRUE,TRUE),3,1)</f>
@@ -22419,7 +22432,7 @@
         <v>4.5630517200662917</v>
       </c>
       <c r="H489" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
         <v>259.46114285714282</v>
       </c>
       <c r="J489" s="4">
@@ -22440,7 +22453,7 @@
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" s="2">
         <v>43445</v>
@@ -22454,7 +22467,7 @@
       </c>
       <c r="E490" s="7">
         <f t="array" ref="E490">INDEX(LINEST($C471:$C490,$A471:$A490,TRUE,TRUE),1,2)</f>
-        <v>341.53199999999913</v>
+        <v>341.36857142857059</v>
       </c>
       <c r="F490" s="7">
         <f t="array" ref="F490">INDEX(LINEST($C471:$C490,$A471:$A490,TRUE,TRUE),3,1)</f>
@@ -22465,8 +22478,8 @@
         <v>4.4345243262383764</v>
       </c>
       <c r="H490" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>257.77199999999993</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>257.77200000000005</v>
       </c>
       <c r="J490" s="4">
         <v>489</v>
@@ -22486,7 +22499,7 @@
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" s="2">
         <v>43446</v>
@@ -22500,7 +22513,7 @@
       </c>
       <c r="E491" s="7">
         <f t="array" ref="E491">INDEX(LINEST($C472:$C491,$A472:$A491,TRUE,TRUE),1,2)</f>
-        <v>348.7835338345858</v>
+        <v>348.60463157894668</v>
       </c>
       <c r="F491" s="7">
         <f t="array" ref="F491">INDEX(LINEST($C472:$C491,$A472:$A491,TRUE,TRUE),3,1)</f>
@@ -22511,8 +22524,8 @@
         <v>4.4746026639244674</v>
       </c>
       <c r="H491" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>256.08285714285705</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>256.08285714285716</v>
       </c>
       <c r="J491" s="4">
         <v>490</v>
@@ -22532,7 +22545,7 @@
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" s="2">
         <v>43447</v>
@@ -22546,7 +22559,7 @@
       </c>
       <c r="E492" s="7">
         <f t="array" ref="E492">INDEX(LINEST($C473:$C492,$A473:$A492,TRUE,TRUE),1,2)</f>
-        <v>355.41363909774367</v>
+        <v>355.22066165413463</v>
       </c>
       <c r="F492" s="7">
         <f t="array" ref="F492">INDEX(LINEST($C473:$C492,$A473:$A492,TRUE,TRUE),3,1)</f>
@@ -22557,8 +22570,8 @@
         <v>4.5085701724604368</v>
       </c>
       <c r="H492" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>254.39371428571417</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>254.39371428571428</v>
       </c>
       <c r="J492" s="4">
         <v>491</v>
@@ -22578,7 +22591,7 @@
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" s="2">
         <v>43448</v>
@@ -22592,7 +22605,7 @@
       </c>
       <c r="E493" s="7">
         <f t="array" ref="E493">INDEX(LINEST($C474:$C493,$A474:$A493,TRUE,TRUE),1,2)</f>
-        <v>403.92991729323251</v>
+        <v>403.63580451127757</v>
       </c>
       <c r="F493" s="7">
         <f t="array" ref="F493">INDEX(LINEST($C474:$C493,$A474:$A493,TRUE,TRUE),3,1)</f>
@@ -22603,8 +22616,8 @@
         <v>4.8495829459861728</v>
       </c>
       <c r="H493" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>252.70457142857128</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>252.7045714285714</v>
       </c>
       <c r="J493" s="4">
         <v>492</v>
@@ -22624,7 +22637,7 @@
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" s="2">
         <v>43451</v>
@@ -22638,7 +22651,7 @@
       </c>
       <c r="E494" s="7">
         <f t="array" ref="E494">INDEX(LINEST($C475:$C494,$A475:$A494,TRUE,TRUE),1,2)</f>
-        <v>458.83415789473634</v>
+        <v>458.42531578947313</v>
       </c>
       <c r="F494" s="7">
         <f t="array" ref="F494">INDEX(LINEST($C475:$C494,$A475:$A494,TRUE,TRUE),3,1)</f>
@@ -22649,7 +22662,7 @@
         <v>5.4855509294873874</v>
       </c>
       <c r="H494" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
         <v>251.01542857142852</v>
       </c>
       <c r="J494" s="4">
@@ -22670,7 +22683,7 @@
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" s="2">
         <v>43452</v>
@@ -22684,7 +22697,7 @@
       </c>
       <c r="E495" s="7">
         <f t="array" ref="E495">INDEX(LINEST($C476:$C495,$A476:$A495,TRUE,TRUE),1,2)</f>
-        <v>497.95685714285685</v>
+        <v>497.46623308270648</v>
       </c>
       <c r="F495" s="7">
         <f t="array" ref="F495">INDEX(LINEST($C476:$C495,$A476:$A495,TRUE,TRUE),3,1)</f>
@@ -22695,8 +22708,8 @@
         <v>5.9192554219259685</v>
       </c>
       <c r="H495" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>249.32628571428563</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>249.32628571428575</v>
       </c>
       <c r="J495" s="4">
         <v>494</v>
@@ -22716,7 +22729,7 @@
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" s="2">
         <v>43453</v>
@@ -22730,7 +22743,7 @@
       </c>
       <c r="E496" s="7">
         <f t="array" ref="E496">INDEX(LINEST($C477:$C496,$A477:$A496,TRUE,TRUE),1,2)</f>
-        <v>584.44497744360876</v>
+        <v>583.77542857142839</v>
       </c>
       <c r="F496" s="7">
         <f t="array" ref="F496">INDEX(LINEST($C477:$C496,$A477:$A496,TRUE,TRUE),3,1)</f>
@@ -22741,8 +22754,8 @@
         <v>6.7375981625502117</v>
       </c>
       <c r="H496" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>247.63714285714275</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>247.63714285714286</v>
       </c>
       <c r="J496" s="4">
         <v>495</v>
@@ -22762,7 +22775,7 @@
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="2">
         <v>43454</v>
@@ -22776,7 +22789,7 @@
       </c>
       <c r="E497" s="7">
         <f t="array" ref="E497">INDEX(LINEST($C478:$C497,$A478:$A497,TRUE,TRUE),1,2)</f>
-        <v>723.66063157894746</v>
+        <v>722.70460150375948</v>
       </c>
       <c r="F497" s="7">
         <f t="array" ref="F497">INDEX(LINEST($C478:$C497,$A478:$A497,TRUE,TRUE),3,1)</f>
@@ -22787,8 +22800,8 @@
         <v>7.8198725053545468</v>
       </c>
       <c r="H497" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>245.94799999999987</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>245.94799999999998</v>
       </c>
       <c r="J497" s="4">
         <v>496</v>
@@ -22808,7 +22821,7 @@
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" s="2">
         <v>43455</v>
@@ -22822,7 +22835,7 @@
       </c>
       <c r="E498" s="7">
         <f t="array" ref="E498">INDEX(LINEST($C479:$C498,$A479:$A498,TRUE,TRUE),1,2)</f>
-        <v>878.74042105263175</v>
+        <v>877.46594736842121</v>
       </c>
       <c r="F498" s="7">
         <f t="array" ref="F498">INDEX(LINEST($C479:$C498,$A479:$A498,TRUE,TRUE),3,1)</f>
@@ -22833,7 +22846,7 @@
         <v>9.2095138172435593</v>
       </c>
       <c r="H498" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
         <v>244.2588571428571</v>
       </c>
       <c r="J498" s="4">
@@ -22854,7 +22867,7 @@
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" s="2">
         <v>43458</v>
@@ -22868,7 +22881,7 @@
       </c>
       <c r="E499" s="7">
         <f t="array" ref="E499">INDEX(LINEST($C480:$C499,$A480:$A499,TRUE,TRUE),1,2)</f>
-        <v>1074.6260075187972</v>
+        <v>1072.9503984962407</v>
       </c>
       <c r="F499" s="7">
         <f t="array" ref="F499">INDEX(LINEST($C480:$C499,$A480:$A499,TRUE,TRUE),3,1)</f>
@@ -22879,8 +22892,8 @@
         <v>10.98424685629379</v>
       </c>
       <c r="H499" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>242.56971428571421</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>242.56971428571433</v>
       </c>
       <c r="J499" s="4">
         <v>498</v>
@@ -22900,7 +22913,7 @@
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="2">
         <v>43460</v>
@@ -22914,7 +22927,7 @@
       </c>
       <c r="E500" s="7">
         <f t="array" ref="E500">INDEX(LINEST($C481:$C500,$A481:$A500,TRUE,TRUE),1,2)</f>
-        <v>1138.6542781954888</v>
+        <v>1136.8493082706768</v>
       </c>
       <c r="F500" s="7">
         <f t="array" ref="F500">INDEX(LINEST($C481:$C500,$A481:$A500,TRUE,TRUE),3,1)</f>
@@ -22925,8 +22938,8 @@
         <v>11.357543869604907</v>
       </c>
       <c r="H500" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>240.88057142857133</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>240.88057142857144</v>
       </c>
       <c r="J500" s="4">
         <v>499</v>
@@ -22946,7 +22959,7 @@
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" s="2">
         <v>43461</v>
@@ -22960,7 +22973,7 @@
       </c>
       <c r="E501" s="7">
         <f t="array" ref="E501">INDEX(LINEST($C482:$C501,$A482:$A501,TRUE,TRUE),1,2)</f>
-        <v>1168.9092406015038</v>
+        <v>1167.0443909774435</v>
       </c>
       <c r="F501" s="7">
         <f t="array" ref="F501">INDEX(LINEST($C482:$C501,$A482:$A501,TRUE,TRUE),3,1)</f>
@@ -22971,8 +22984,8 @@
         <v>11.51786545979766</v>
       </c>
       <c r="H501" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>239.19142857142845</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>239.19142857142856</v>
       </c>
       <c r="J501" s="4">
         <v>500</v>
@@ -22992,7 +23005,7 @@
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="2">
         <v>43462</v>
@@ -23006,7 +23019,7 @@
       </c>
       <c r="E502" s="7">
         <f t="array" ref="E502">INDEX(LINEST($C483:$C502,$A483:$A502,TRUE,TRUE),1,2)</f>
-        <v>1140.7334511278191</v>
+        <v>1138.9272030075183</v>
       </c>
       <c r="F502" s="7">
         <f t="array" ref="F502">INDEX(LINEST($C483:$C502,$A483:$A502,TRUE,TRUE),3,1)</f>
@@ -23017,7 +23030,7 @@
         <v>11.306491000748197</v>
       </c>
       <c r="H502" s="9">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
         <v>237.50228571428568</v>
       </c>
       <c r="J502" s="4">
@@ -23038,7 +23051,7 @@
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="2">
         <v>43465</v>
@@ -23052,7 +23065,7 @@
       </c>
       <c r="E503" s="10">
         <f t="array" ref="E503">INDEX(LINEST($C484:$C503,$A484:$A503,TRUE,TRUE),1,2)</f>
-        <v>1083.7628571428572</v>
+        <v>1082.0737142857145</v>
       </c>
       <c r="F503" s="10">
         <f t="array" ref="F503">INDEX(LINEST($C484:$C503,$A484:$A503,TRUE,TRUE),3,1)</f>
@@ -23063,8 +23076,8 @@
         <v>10.920211536412651</v>
       </c>
       <c r="H503" s="11">
-        <f>$D$503*testdata[[#This Row],[index]]+$E$503</f>
-        <v>235.81314285714279</v>
+        <f>$D$503*testdata[[#This Row],[i]]+$E$503</f>
+        <v>235.81314285714291</v>
       </c>
       <c r="J503" s="4">
         <v>502</v>
